--- a/Code/Results/Cases/Case_4_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_43/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.050000000000001</v>
       </c>
       <c r="C2">
-        <v>0.9932242434410611</v>
+        <v>0.9932242434410578</v>
       </c>
       <c r="D2">
-        <v>1.012959753800651</v>
+        <v>1.012959753800648</v>
       </c>
       <c r="E2">
-        <v>1.002780831284354</v>
+        <v>1.00278083128435</v>
       </c>
       <c r="F2">
-        <v>1.001938372723994</v>
+        <v>1.00193837272399</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042112520542202</v>
+        <v>1.0421125205422</v>
       </c>
       <c r="J2">
-        <v>1.015609522350152</v>
+        <v>1.015609522350148</v>
       </c>
       <c r="K2">
-        <v>1.024241443626764</v>
+        <v>1.024241443626761</v>
       </c>
       <c r="L2">
-        <v>1.0142015601858</v>
+        <v>1.014201560185797</v>
       </c>
       <c r="M2">
-        <v>1.013370768830447</v>
+        <v>1.013370768830443</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.003785630552015</v>
+        <v>1.003785630552013</v>
       </c>
       <c r="D3">
-        <v>1.021406383475372</v>
+        <v>1.02140638347537</v>
       </c>
       <c r="E3">
-        <v>1.012887879663577</v>
+        <v>1.012887879663575</v>
       </c>
       <c r="F3">
-        <v>1.01269464428591</v>
+        <v>1.012694644285909</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046256587742016</v>
+        <v>1.046256587742014</v>
       </c>
       <c r="J3">
-        <v>1.024173624773062</v>
+        <v>1.02417362477306</v>
       </c>
       <c r="K3">
-        <v>1.031772500494077</v>
+        <v>1.031772500494076</v>
       </c>
       <c r="L3">
-        <v>1.023358471213279</v>
+        <v>1.023358471213277</v>
       </c>
       <c r="M3">
-        <v>1.023167631141399</v>
+        <v>1.023167631141398</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.010316806138693</v>
+        <v>1.010316806138691</v>
       </c>
       <c r="D4">
-        <v>1.026632788420506</v>
+        <v>1.026632788420505</v>
       </c>
       <c r="E4">
-        <v>1.019143951265424</v>
+        <v>1.019143951265422</v>
       </c>
       <c r="F4">
-        <v>1.019356710393222</v>
+        <v>1.01935671039322</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048801824643874</v>
+        <v>1.048801824643872</v>
       </c>
       <c r="J4">
-        <v>1.02946023867916</v>
+        <v>1.029460238679158</v>
       </c>
       <c r="K4">
-        <v>1.036420063580319</v>
+        <v>1.036420063580317</v>
       </c>
       <c r="L4">
-        <v>1.029016688290975</v>
+        <v>1.029016688290973</v>
       </c>
       <c r="M4">
-        <v>1.029226998033556</v>
+        <v>1.029226998033554</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,22 +535,22 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.012995970027746</v>
+        <v>1.012995970027745</v>
       </c>
       <c r="D5">
-        <v>1.028777263865953</v>
+        <v>1.028777263865952</v>
       </c>
       <c r="E5">
         <v>1.021711571353181</v>
       </c>
       <c r="F5">
-        <v>1.022091975304398</v>
+        <v>1.022091975304397</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049841647851089</v>
+        <v>1.049841647851088</v>
       </c>
       <c r="J5">
         <v>1.03162654400264</v>
@@ -559,7 +559,7 @@
         <v>1.03832413477339</v>
       </c>
       <c r="L5">
-        <v>1.031336619655016</v>
+        <v>1.031336619655015</v>
       </c>
       <c r="M5">
         <v>1.031712780807189</v>
@@ -573,7 +573,7 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013442069431428</v>
+        <v>1.013442069431429</v>
       </c>
       <c r="D6">
         <v>1.029134361159928</v>
@@ -582,7 +582,7 @@
         <v>1.022139172204379</v>
       </c>
       <c r="F6">
-        <v>1.022547555483843</v>
+        <v>1.022547555483844</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.050014532739447</v>
       </c>
       <c r="J6">
-        <v>1.031987110415101</v>
+        <v>1.031987110415102</v>
       </c>
       <c r="K6">
-        <v>1.038641031187974</v>
+        <v>1.038641031187975</v>
       </c>
       <c r="L6">
         <v>1.03172283560256</v>
       </c>
       <c r="M6">
-        <v>1.032126688360867</v>
+        <v>1.032126688360868</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.010352859461831</v>
+        <v>1.01035285946183</v>
       </c>
       <c r="D7">
-        <v>1.026661644539333</v>
+        <v>1.026661644539332</v>
       </c>
       <c r="E7">
-        <v>1.019178498485112</v>
+        <v>1.019178498485111</v>
       </c>
       <c r="F7">
-        <v>1.019393509203635</v>
+        <v>1.019393509203633</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.048815834487407</v>
       </c>
       <c r="J7">
-        <v>1.029489399805239</v>
+        <v>1.029489399805238</v>
       </c>
       <c r="K7">
-        <v>1.036445696235831</v>
+        <v>1.03644569623583</v>
       </c>
       <c r="L7">
-        <v>1.029047912041906</v>
+        <v>1.029047912041905</v>
       </c>
       <c r="M7">
-        <v>1.029260448495443</v>
+        <v>1.029260448495442</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9968600376912661</v>
+        <v>0.9968600376912657</v>
       </c>
       <c r="D8">
-        <v>1.015866780024586</v>
+        <v>1.015866780024585</v>
       </c>
       <c r="E8">
-        <v>1.006258902597356</v>
+        <v>1.006258902597355</v>
       </c>
       <c r="F8">
-        <v>1.00563899070714</v>
+        <v>1.005638990707139</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,13 +667,13 @@
         <v>1.043542805901362</v>
       </c>
       <c r="J8">
-        <v>1.018559717321363</v>
+        <v>1.018559717321362</v>
       </c>
       <c r="K8">
-        <v>1.026836030761331</v>
+        <v>1.02683603076133</v>
       </c>
       <c r="L8">
-        <v>1.017354755302632</v>
+        <v>1.017354755302631</v>
       </c>
       <c r="M8">
         <v>1.016743116247538</v>
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9704467462699423</v>
+        <v>0.970446746269941</v>
       </c>
       <c r="D9">
-        <v>0.9947701553404782</v>
+        <v>0.994770155340477</v>
       </c>
       <c r="E9">
-        <v>0.9810226987466804</v>
+        <v>0.9810226987466791</v>
       </c>
       <c r="F9">
-        <v>0.9788052632570653</v>
+        <v>0.9788052632570639</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.033077658244259</v>
       </c>
       <c r="J9">
-        <v>0.9970880752289941</v>
+        <v>0.9970880752289925</v>
       </c>
       <c r="K9">
-        <v>1.007948656863501</v>
+        <v>1.007948656863499</v>
       </c>
       <c r="L9">
-        <v>0.9944313609503177</v>
+        <v>0.9944313609503166</v>
       </c>
       <c r="M9">
-        <v>0.9922518324235405</v>
+        <v>0.9922518324235391</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9505099688602127</v>
+        <v>0.9505099688602121</v>
       </c>
       <c r="D10">
-        <v>0.9788882708609762</v>
+        <v>0.9788882708609759</v>
       </c>
       <c r="E10">
-        <v>0.9620225673386569</v>
+        <v>0.9620225673386562</v>
       </c>
       <c r="F10">
-        <v>0.9586230395859345</v>
+        <v>0.9586230395859339</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.025086298208992</v>
       </c>
       <c r="J10">
-        <v>0.9808346898801416</v>
+        <v>0.9808346898801409</v>
       </c>
       <c r="K10">
-        <v>0.9936494612157292</v>
+        <v>0.9936494612157287</v>
       </c>
       <c r="L10">
-        <v>0.9771131270544949</v>
+        <v>0.9771131270544945</v>
       </c>
       <c r="M10">
-        <v>0.973781836526857</v>
+        <v>0.9737818365268563</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9411562251722048</v>
+        <v>0.9411562251722018</v>
       </c>
       <c r="D11">
-        <v>0.9714520877246126</v>
+        <v>0.9714520877246102</v>
       </c>
       <c r="E11">
-        <v>0.953122771032899</v>
+        <v>0.9531227710328964</v>
       </c>
       <c r="F11">
-        <v>0.9491737218579053</v>
+        <v>0.9491737218579025</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021316892944865</v>
+        <v>1.021316892944863</v>
       </c>
       <c r="J11">
-        <v>0.9731997962628288</v>
+        <v>0.9731997962628263</v>
       </c>
       <c r="K11">
-        <v>0.9869332330278028</v>
+        <v>0.9869332330278006</v>
       </c>
       <c r="L11">
-        <v>0.9689863901993776</v>
+        <v>0.9689863901993753</v>
       </c>
       <c r="M11">
-        <v>0.9651223124644819</v>
+        <v>0.9651223124644792</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9375543630734321</v>
+        <v>0.9375543630734344</v>
       </c>
       <c r="D12">
-        <v>0.9685914540543705</v>
+        <v>0.9685914540543722</v>
       </c>
       <c r="E12">
-        <v>0.949698218543911</v>
+        <v>0.9496982185439133</v>
       </c>
       <c r="F12">
-        <v>0.9455382604108604</v>
+        <v>0.945538260410863</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.019862591359143</v>
       </c>
       <c r="J12">
-        <v>0.9702586248138002</v>
+        <v>0.9702586248138023</v>
       </c>
       <c r="K12">
-        <v>0.9843461877568248</v>
+        <v>0.9843461877568267</v>
       </c>
       <c r="L12">
-        <v>0.9658570273106307</v>
+        <v>0.9658570273106332</v>
       </c>
       <c r="M12">
-        <v>0.9617889275924415</v>
+        <v>0.9617889275924442</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9383331070073654</v>
+        <v>0.9383331070073672</v>
       </c>
       <c r="D13">
-        <v>0.969209802369993</v>
+        <v>0.9692098023699947</v>
       </c>
       <c r="E13">
-        <v>0.9504385081747271</v>
+        <v>0.9504385081747289</v>
       </c>
       <c r="F13">
-        <v>0.9463241197619824</v>
+        <v>0.9463241197619842</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.020177142576864</v>
+        <v>1.020177142576865</v>
       </c>
       <c r="J13">
-        <v>0.9708945731935263</v>
+        <v>0.9708945731935279</v>
       </c>
       <c r="K13">
-        <v>0.9849055532948736</v>
+        <v>0.9849055532948751</v>
       </c>
       <c r="L13">
-        <v>0.9665336089370273</v>
+        <v>0.966533608937029</v>
       </c>
       <c r="M13">
-        <v>0.9625095687487811</v>
+        <v>0.962509568748783</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9408612235904699</v>
+        <v>0.9408612235904724</v>
       </c>
       <c r="D14">
-        <v>0.9712177339384991</v>
+        <v>0.9712177339385017</v>
       </c>
       <c r="E14">
-        <v>0.9528422388654733</v>
+        <v>0.9528422388654761</v>
       </c>
       <c r="F14">
-        <v>0.9488759021341236</v>
+        <v>0.9488759021341264</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021197837260622</v>
+        <v>1.021197837260624</v>
       </c>
       <c r="J14">
-        <v>0.9729589295309609</v>
+        <v>0.9729589295309633</v>
       </c>
       <c r="K14">
-        <v>0.9867213619343262</v>
+        <v>0.9867213619343287</v>
       </c>
       <c r="L14">
-        <v>0.9687300856076938</v>
+        <v>0.9687300856076965</v>
       </c>
       <c r="M14">
-        <v>0.9648492750055088</v>
+        <v>0.9648492750055117</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9424013293779159</v>
+        <v>0.9424013293779158</v>
       </c>
       <c r="D15">
-        <v>0.9724413354145194</v>
+        <v>0.9724413354145189</v>
       </c>
       <c r="E15">
-        <v>0.9543069079117048</v>
+        <v>0.9543069079117049</v>
       </c>
       <c r="F15">
-        <v>0.9504308514418174</v>
+        <v>0.9504308514418175</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.021819275632443</v>
       </c>
       <c r="J15">
-        <v>0.9742163684985433</v>
+        <v>0.974216368498543</v>
       </c>
       <c r="K15">
-        <v>0.9878274399937186</v>
+        <v>0.9878274399937181</v>
       </c>
       <c r="L15">
-        <v>0.9700681693415864</v>
+        <v>0.9700681693415865</v>
       </c>
       <c r="M15">
-        <v>0.966274761465257</v>
+        <v>0.9662747614652571</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9511140327975269</v>
+        <v>0.9511140327975285</v>
       </c>
       <c r="D16">
-        <v>0.9793688504679241</v>
+        <v>0.9793688504679254</v>
       </c>
       <c r="E16">
-        <v>0.9625976363514119</v>
+        <v>0.962597636351414</v>
       </c>
       <c r="F16">
-        <v>0.9592336949953123</v>
+        <v>0.9592336949953145</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025329332954823</v>
+        <v>1.025329332954824</v>
       </c>
       <c r="J16">
-        <v>0.9813275773038167</v>
+        <v>0.9813275773038185</v>
       </c>
       <c r="K16">
-        <v>0.9940830662699786</v>
+        <v>0.9940830662699799</v>
       </c>
       <c r="L16">
-        <v>0.9776379386354757</v>
+        <v>0.9776379386354777</v>
       </c>
       <c r="M16">
-        <v>0.9743412100083907</v>
+        <v>0.9743412100083927</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -997,7 +997,7 @@
         <v>0.983555459419013</v>
       </c>
       <c r="E17">
-        <v>0.967606967370239</v>
+        <v>0.9676069673702389</v>
       </c>
       <c r="F17">
         <v>0.9645534680330782</v>
@@ -1006,7 +1006,7 @@
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.02744347509726</v>
+        <v>1.027443475097259</v>
       </c>
       <c r="J17">
         <v>0.9856186289013249</v>
@@ -1015,10 +1015,10 @@
         <v>0.9978580983603667</v>
       </c>
       <c r="L17">
-        <v>0.9822078465983086</v>
+        <v>0.9822078465983083</v>
       </c>
       <c r="M17">
-        <v>0.9792129218038818</v>
+        <v>0.9792129218038819</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9593743461885995</v>
+        <v>0.9593743461886012</v>
       </c>
       <c r="D18">
-        <v>0.9859446276303618</v>
+        <v>0.9859446276303629</v>
       </c>
       <c r="E18">
-        <v>0.9704653315637213</v>
+        <v>0.9704653315637231</v>
       </c>
       <c r="F18">
-        <v>0.9675893636105524</v>
+        <v>0.9675893636105539</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.028647408035152</v>
       </c>
       <c r="J18">
-        <v>0.9880651480986663</v>
+        <v>0.988065148098668</v>
       </c>
       <c r="K18">
-        <v>1.000010467298226</v>
+        <v>1.000010467298227</v>
       </c>
       <c r="L18">
-        <v>0.9848141200119661</v>
+        <v>0.9848141200119681</v>
       </c>
       <c r="M18">
-        <v>0.9819920250104885</v>
+        <v>0.9819920250104901</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9603862746139261</v>
+        <v>0.9603862746139274</v>
       </c>
       <c r="D19">
-        <v>0.9867506966422708</v>
+        <v>0.9867506966422723</v>
       </c>
       <c r="E19">
-        <v>0.9714296569491384</v>
+        <v>0.97142965694914</v>
       </c>
       <c r="F19">
-        <v>0.9686136511309811</v>
+        <v>0.9686136511309824</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029053167455493</v>
+        <v>1.029053167455494</v>
       </c>
       <c r="J19">
-        <v>0.9888901942034016</v>
+        <v>0.988890194203403</v>
       </c>
       <c r="K19">
-        <v>1.000736322493159</v>
+        <v>1.00073632249316</v>
       </c>
       <c r="L19">
-        <v>0.9856931697404613</v>
+        <v>0.9856931697404627</v>
       </c>
       <c r="M19">
-        <v>0.982929487557561</v>
+        <v>0.9829294875575624</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9558170101558676</v>
+        <v>0.9558170101558653</v>
       </c>
       <c r="D20">
-        <v>0.983111831248724</v>
+        <v>0.983111831248722</v>
       </c>
       <c r="E20">
-        <v>0.9670761946592799</v>
+        <v>0.9670761946592774</v>
       </c>
       <c r="F20">
-        <v>0.9639897616559917</v>
+        <v>0.9639897616559886</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027219718683996</v>
+        <v>1.027219718683995</v>
       </c>
       <c r="J20">
-        <v>0.9851641707748341</v>
+        <v>0.9851641707748318</v>
       </c>
       <c r="K20">
-        <v>0.9974582844276429</v>
+        <v>0.9974582844276408</v>
       </c>
       <c r="L20">
-        <v>0.9817237752028514</v>
+        <v>0.9817237752028488</v>
       </c>
       <c r="M20">
-        <v>0.9786968078720736</v>
+        <v>0.9786968078720705</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9401204546027003</v>
+        <v>0.9401204546027015</v>
       </c>
       <c r="D21">
-        <v>0.97062930309137</v>
+        <v>0.9706293030913705</v>
       </c>
       <c r="E21">
-        <v>0.9521378449392685</v>
+        <v>0.9521378449392696</v>
       </c>
       <c r="F21">
-        <v>0.9481281088621631</v>
+        <v>0.9481281088621639</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.020898836174213</v>
       </c>
       <c r="J21">
-        <v>0.9723540785707641</v>
+        <v>0.9723540785707651</v>
       </c>
       <c r="K21">
-        <v>0.9861893273544684</v>
+        <v>0.9861893273544691</v>
       </c>
       <c r="L21">
-        <v>0.9680864885410428</v>
+        <v>0.968086488541044</v>
       </c>
       <c r="M21">
-        <v>0.9641636788025959</v>
+        <v>0.9641636788025966</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9295002527307009</v>
+        <v>0.9295002527306994</v>
       </c>
       <c r="D22">
-        <v>0.9622008106145058</v>
+        <v>0.9622008106145044</v>
       </c>
       <c r="E22">
-        <v>0.942045694371645</v>
+        <v>0.9420456943716434</v>
       </c>
       <c r="F22">
-        <v>0.9374153246511475</v>
+        <v>0.9374153246511462</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.016605686255696</v>
+        <v>1.016605686255695</v>
       </c>
       <c r="J22">
-        <v>0.9636799506426136</v>
+        <v>0.963679950642612</v>
       </c>
       <c r="K22">
-        <v>0.9785602013452204</v>
+        <v>0.9785602013452189</v>
       </c>
       <c r="L22">
-        <v>0.9588598279325018</v>
+        <v>0.9588598279325</v>
       </c>
       <c r="M22">
-        <v>0.9543376312388453</v>
+        <v>0.9543376312388439</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9352092787008423</v>
+        <v>0.9352092787008442</v>
       </c>
       <c r="D23">
-        <v>0.966729845434281</v>
+        <v>0.9667298454342829</v>
       </c>
       <c r="E23">
-        <v>0.947469331840447</v>
+        <v>0.9474693318404492</v>
       </c>
       <c r="F23">
-        <v>0.9431722422921774</v>
+        <v>0.9431722422921796</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.01891496881251</v>
+        <v>1.018914968812511</v>
       </c>
       <c r="J23">
-        <v>0.9683433949003127</v>
+        <v>0.9683433949003147</v>
       </c>
       <c r="K23">
-        <v>0.9826616407598758</v>
+        <v>0.9826616407598776</v>
       </c>
       <c r="L23">
-        <v>0.9638196156816375</v>
+        <v>0.9638196156816398</v>
       </c>
       <c r="M23">
-        <v>0.9596190034002384</v>
+        <v>0.9596190034002408</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9560689968339738</v>
+        <v>0.9560689968339728</v>
       </c>
       <c r="D24">
-        <v>0.9833124498671443</v>
+        <v>0.9833124498671432</v>
       </c>
       <c r="E24">
-        <v>0.9673162229259491</v>
+        <v>0.9673162229259481</v>
       </c>
       <c r="F24">
-        <v>0.9642446820991264</v>
+        <v>0.9642446820991255</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027320914281036</v>
+        <v>1.027320914281035</v>
       </c>
       <c r="J24">
-        <v>0.9853696939366748</v>
+        <v>0.985369693936674</v>
       </c>
       <c r="K24">
-        <v>0.9976390952533422</v>
+        <v>0.9976390952533408</v>
       </c>
       <c r="L24">
-        <v>0.9819426882180525</v>
+        <v>0.9819426882180515</v>
       </c>
       <c r="M24">
-        <v>0.9789302093687846</v>
+        <v>0.9789302093687838</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9776380296378487</v>
+        <v>0.9776380296378477</v>
       </c>
       <c r="D25">
-        <v>1.000508361278587</v>
+        <v>1.000508361278586</v>
       </c>
       <c r="E25">
-        <v>0.9878863287504609</v>
+        <v>0.9878863287504601</v>
       </c>
       <c r="F25">
-        <v>0.9860997594375845</v>
+        <v>0.9860997594375839</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035942687782828</v>
+        <v>1.035942687782827</v>
       </c>
       <c r="J25">
-        <v>1.002942132103367</v>
+        <v>1.002942132103366</v>
       </c>
       <c r="K25">
         <v>1.013098790715556</v>
       </c>
       <c r="L25">
-        <v>1.000675650380463</v>
+        <v>1.000675650380462</v>
       </c>
       <c r="M25">
-        <v>0.9989177607215949</v>
+        <v>0.9989177607215941</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_43/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.050000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9932242434410578</v>
+        <v>0.9932242434410611</v>
       </c>
       <c r="D2">
-        <v>1.012959753800648</v>
+        <v>1.012959753800651</v>
       </c>
       <c r="E2">
-        <v>1.00278083128435</v>
+        <v>1.002780831284354</v>
       </c>
       <c r="F2">
-        <v>1.00193837272399</v>
+        <v>1.001938372723994</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.0421125205422</v>
+        <v>1.042112520542202</v>
       </c>
       <c r="J2">
-        <v>1.015609522350148</v>
+        <v>1.015609522350152</v>
       </c>
       <c r="K2">
-        <v>1.024241443626761</v>
+        <v>1.024241443626764</v>
       </c>
       <c r="L2">
-        <v>1.014201560185797</v>
+        <v>1.0142015601858</v>
       </c>
       <c r="M2">
-        <v>1.013370768830443</v>
+        <v>1.013370768830447</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.003785630552013</v>
+        <v>1.003785630552015</v>
       </c>
       <c r="D3">
-        <v>1.02140638347537</v>
+        <v>1.021406383475372</v>
       </c>
       <c r="E3">
-        <v>1.012887879663575</v>
+        <v>1.012887879663577</v>
       </c>
       <c r="F3">
-        <v>1.012694644285909</v>
+        <v>1.01269464428591</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046256587742014</v>
+        <v>1.046256587742016</v>
       </c>
       <c r="J3">
-        <v>1.02417362477306</v>
+        <v>1.024173624773062</v>
       </c>
       <c r="K3">
-        <v>1.031772500494076</v>
+        <v>1.031772500494077</v>
       </c>
       <c r="L3">
-        <v>1.023358471213277</v>
+        <v>1.023358471213279</v>
       </c>
       <c r="M3">
-        <v>1.023167631141398</v>
+        <v>1.023167631141399</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.010316806138691</v>
+        <v>1.010316806138693</v>
       </c>
       <c r="D4">
-        <v>1.026632788420505</v>
+        <v>1.026632788420506</v>
       </c>
       <c r="E4">
-        <v>1.019143951265422</v>
+        <v>1.019143951265424</v>
       </c>
       <c r="F4">
-        <v>1.01935671039322</v>
+        <v>1.019356710393222</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048801824643872</v>
+        <v>1.048801824643874</v>
       </c>
       <c r="J4">
-        <v>1.029460238679158</v>
+        <v>1.02946023867916</v>
       </c>
       <c r="K4">
-        <v>1.036420063580317</v>
+        <v>1.036420063580319</v>
       </c>
       <c r="L4">
-        <v>1.029016688290973</v>
+        <v>1.029016688290975</v>
       </c>
       <c r="M4">
-        <v>1.029226998033554</v>
+        <v>1.029226998033556</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,22 +535,22 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.012995970027745</v>
+        <v>1.012995970027746</v>
       </c>
       <c r="D5">
-        <v>1.028777263865952</v>
+        <v>1.028777263865953</v>
       </c>
       <c r="E5">
         <v>1.021711571353181</v>
       </c>
       <c r="F5">
-        <v>1.022091975304397</v>
+        <v>1.022091975304398</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049841647851088</v>
+        <v>1.049841647851089</v>
       </c>
       <c r="J5">
         <v>1.03162654400264</v>
@@ -559,7 +559,7 @@
         <v>1.03832413477339</v>
       </c>
       <c r="L5">
-        <v>1.031336619655015</v>
+        <v>1.031336619655016</v>
       </c>
       <c r="M5">
         <v>1.031712780807189</v>
@@ -573,7 +573,7 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013442069431429</v>
+        <v>1.013442069431428</v>
       </c>
       <c r="D6">
         <v>1.029134361159928</v>
@@ -582,7 +582,7 @@
         <v>1.022139172204379</v>
       </c>
       <c r="F6">
-        <v>1.022547555483844</v>
+        <v>1.022547555483843</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.050014532739447</v>
       </c>
       <c r="J6">
-        <v>1.031987110415102</v>
+        <v>1.031987110415101</v>
       </c>
       <c r="K6">
-        <v>1.038641031187975</v>
+        <v>1.038641031187974</v>
       </c>
       <c r="L6">
         <v>1.03172283560256</v>
       </c>
       <c r="M6">
-        <v>1.032126688360868</v>
+        <v>1.032126688360867</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01035285946183</v>
+        <v>1.010352859461831</v>
       </c>
       <c r="D7">
-        <v>1.026661644539332</v>
+        <v>1.026661644539333</v>
       </c>
       <c r="E7">
-        <v>1.019178498485111</v>
+        <v>1.019178498485112</v>
       </c>
       <c r="F7">
-        <v>1.019393509203633</v>
+        <v>1.019393509203635</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.048815834487407</v>
       </c>
       <c r="J7">
-        <v>1.029489399805238</v>
+        <v>1.029489399805239</v>
       </c>
       <c r="K7">
-        <v>1.03644569623583</v>
+        <v>1.036445696235831</v>
       </c>
       <c r="L7">
-        <v>1.029047912041905</v>
+        <v>1.029047912041906</v>
       </c>
       <c r="M7">
-        <v>1.029260448495442</v>
+        <v>1.029260448495443</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9968600376912657</v>
+        <v>0.9968600376912661</v>
       </c>
       <c r="D8">
-        <v>1.015866780024585</v>
+        <v>1.015866780024586</v>
       </c>
       <c r="E8">
-        <v>1.006258902597355</v>
+        <v>1.006258902597356</v>
       </c>
       <c r="F8">
-        <v>1.005638990707139</v>
+        <v>1.00563899070714</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,13 +667,13 @@
         <v>1.043542805901362</v>
       </c>
       <c r="J8">
-        <v>1.018559717321362</v>
+        <v>1.018559717321363</v>
       </c>
       <c r="K8">
-        <v>1.02683603076133</v>
+        <v>1.026836030761331</v>
       </c>
       <c r="L8">
-        <v>1.017354755302631</v>
+        <v>1.017354755302632</v>
       </c>
       <c r="M8">
         <v>1.016743116247538</v>
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.970446746269941</v>
+        <v>0.9704467462699423</v>
       </c>
       <c r="D9">
-        <v>0.994770155340477</v>
+        <v>0.9947701553404782</v>
       </c>
       <c r="E9">
-        <v>0.9810226987466791</v>
+        <v>0.9810226987466804</v>
       </c>
       <c r="F9">
-        <v>0.9788052632570639</v>
+        <v>0.9788052632570653</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.033077658244259</v>
       </c>
       <c r="J9">
-        <v>0.9970880752289925</v>
+        <v>0.9970880752289941</v>
       </c>
       <c r="K9">
-        <v>1.007948656863499</v>
+        <v>1.007948656863501</v>
       </c>
       <c r="L9">
-        <v>0.9944313609503166</v>
+        <v>0.9944313609503177</v>
       </c>
       <c r="M9">
-        <v>0.9922518324235391</v>
+        <v>0.9922518324235405</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9505099688602121</v>
+        <v>0.9505099688602127</v>
       </c>
       <c r="D10">
-        <v>0.9788882708609759</v>
+        <v>0.9788882708609762</v>
       </c>
       <c r="E10">
-        <v>0.9620225673386562</v>
+        <v>0.9620225673386569</v>
       </c>
       <c r="F10">
-        <v>0.9586230395859339</v>
+        <v>0.9586230395859345</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.025086298208992</v>
       </c>
       <c r="J10">
-        <v>0.9808346898801409</v>
+        <v>0.9808346898801416</v>
       </c>
       <c r="K10">
-        <v>0.9936494612157287</v>
+        <v>0.9936494612157292</v>
       </c>
       <c r="L10">
-        <v>0.9771131270544945</v>
+        <v>0.9771131270544949</v>
       </c>
       <c r="M10">
-        <v>0.9737818365268563</v>
+        <v>0.973781836526857</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9411562251722018</v>
+        <v>0.9411562251722048</v>
       </c>
       <c r="D11">
-        <v>0.9714520877246102</v>
+        <v>0.9714520877246126</v>
       </c>
       <c r="E11">
-        <v>0.9531227710328964</v>
+        <v>0.953122771032899</v>
       </c>
       <c r="F11">
-        <v>0.9491737218579025</v>
+        <v>0.9491737218579053</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021316892944863</v>
+        <v>1.021316892944865</v>
       </c>
       <c r="J11">
-        <v>0.9731997962628263</v>
+        <v>0.9731997962628288</v>
       </c>
       <c r="K11">
-        <v>0.9869332330278006</v>
+        <v>0.9869332330278028</v>
       </c>
       <c r="L11">
-        <v>0.9689863901993753</v>
+        <v>0.9689863901993776</v>
       </c>
       <c r="M11">
-        <v>0.9651223124644792</v>
+        <v>0.9651223124644819</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9375543630734344</v>
+        <v>0.9375543630734321</v>
       </c>
       <c r="D12">
-        <v>0.9685914540543722</v>
+        <v>0.9685914540543705</v>
       </c>
       <c r="E12">
-        <v>0.9496982185439133</v>
+        <v>0.949698218543911</v>
       </c>
       <c r="F12">
-        <v>0.945538260410863</v>
+        <v>0.9455382604108604</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.019862591359143</v>
       </c>
       <c r="J12">
-        <v>0.9702586248138023</v>
+        <v>0.9702586248138002</v>
       </c>
       <c r="K12">
-        <v>0.9843461877568267</v>
+        <v>0.9843461877568248</v>
       </c>
       <c r="L12">
-        <v>0.9658570273106332</v>
+        <v>0.9658570273106307</v>
       </c>
       <c r="M12">
-        <v>0.9617889275924442</v>
+        <v>0.9617889275924415</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9383331070073672</v>
+        <v>0.9383331070073654</v>
       </c>
       <c r="D13">
-        <v>0.9692098023699947</v>
+        <v>0.969209802369993</v>
       </c>
       <c r="E13">
-        <v>0.9504385081747289</v>
+        <v>0.9504385081747271</v>
       </c>
       <c r="F13">
-        <v>0.9463241197619842</v>
+        <v>0.9463241197619824</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.020177142576865</v>
+        <v>1.020177142576864</v>
       </c>
       <c r="J13">
-        <v>0.9708945731935279</v>
+        <v>0.9708945731935263</v>
       </c>
       <c r="K13">
-        <v>0.9849055532948751</v>
+        <v>0.9849055532948736</v>
       </c>
       <c r="L13">
-        <v>0.966533608937029</v>
+        <v>0.9665336089370273</v>
       </c>
       <c r="M13">
-        <v>0.962509568748783</v>
+        <v>0.9625095687487811</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9408612235904724</v>
+        <v>0.9408612235904699</v>
       </c>
       <c r="D14">
-        <v>0.9712177339385017</v>
+        <v>0.9712177339384991</v>
       </c>
       <c r="E14">
-        <v>0.9528422388654761</v>
+        <v>0.9528422388654733</v>
       </c>
       <c r="F14">
-        <v>0.9488759021341264</v>
+        <v>0.9488759021341236</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021197837260624</v>
+        <v>1.021197837260622</v>
       </c>
       <c r="J14">
-        <v>0.9729589295309633</v>
+        <v>0.9729589295309609</v>
       </c>
       <c r="K14">
-        <v>0.9867213619343287</v>
+        <v>0.9867213619343262</v>
       </c>
       <c r="L14">
-        <v>0.9687300856076965</v>
+        <v>0.9687300856076938</v>
       </c>
       <c r="M14">
-        <v>0.9648492750055117</v>
+        <v>0.9648492750055088</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9424013293779158</v>
+        <v>0.9424013293779159</v>
       </c>
       <c r="D15">
-        <v>0.9724413354145189</v>
+        <v>0.9724413354145194</v>
       </c>
       <c r="E15">
-        <v>0.9543069079117049</v>
+        <v>0.9543069079117048</v>
       </c>
       <c r="F15">
-        <v>0.9504308514418175</v>
+        <v>0.9504308514418174</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.021819275632443</v>
       </c>
       <c r="J15">
-        <v>0.974216368498543</v>
+        <v>0.9742163684985433</v>
       </c>
       <c r="K15">
-        <v>0.9878274399937181</v>
+        <v>0.9878274399937186</v>
       </c>
       <c r="L15">
-        <v>0.9700681693415865</v>
+        <v>0.9700681693415864</v>
       </c>
       <c r="M15">
-        <v>0.9662747614652571</v>
+        <v>0.966274761465257</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9511140327975285</v>
+        <v>0.9511140327975269</v>
       </c>
       <c r="D16">
-        <v>0.9793688504679254</v>
+        <v>0.9793688504679241</v>
       </c>
       <c r="E16">
-        <v>0.962597636351414</v>
+        <v>0.9625976363514119</v>
       </c>
       <c r="F16">
-        <v>0.9592336949953145</v>
+        <v>0.9592336949953123</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025329332954824</v>
+        <v>1.025329332954823</v>
       </c>
       <c r="J16">
-        <v>0.9813275773038185</v>
+        <v>0.9813275773038167</v>
       </c>
       <c r="K16">
-        <v>0.9940830662699799</v>
+        <v>0.9940830662699786</v>
       </c>
       <c r="L16">
-        <v>0.9776379386354777</v>
+        <v>0.9776379386354757</v>
       </c>
       <c r="M16">
-        <v>0.9743412100083927</v>
+        <v>0.9743412100083907</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -997,7 +997,7 @@
         <v>0.983555459419013</v>
       </c>
       <c r="E17">
-        <v>0.9676069673702389</v>
+        <v>0.967606967370239</v>
       </c>
       <c r="F17">
         <v>0.9645534680330782</v>
@@ -1006,7 +1006,7 @@
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027443475097259</v>
+        <v>1.02744347509726</v>
       </c>
       <c r="J17">
         <v>0.9856186289013249</v>
@@ -1015,10 +1015,10 @@
         <v>0.9978580983603667</v>
       </c>
       <c r="L17">
-        <v>0.9822078465983083</v>
+        <v>0.9822078465983086</v>
       </c>
       <c r="M17">
-        <v>0.9792129218038819</v>
+        <v>0.9792129218038818</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9593743461886012</v>
+        <v>0.9593743461885995</v>
       </c>
       <c r="D18">
-        <v>0.9859446276303629</v>
+        <v>0.9859446276303618</v>
       </c>
       <c r="E18">
-        <v>0.9704653315637231</v>
+        <v>0.9704653315637213</v>
       </c>
       <c r="F18">
-        <v>0.9675893636105539</v>
+        <v>0.9675893636105524</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.028647408035152</v>
       </c>
       <c r="J18">
-        <v>0.988065148098668</v>
+        <v>0.9880651480986663</v>
       </c>
       <c r="K18">
-        <v>1.000010467298227</v>
+        <v>1.000010467298226</v>
       </c>
       <c r="L18">
-        <v>0.9848141200119681</v>
+        <v>0.9848141200119661</v>
       </c>
       <c r="M18">
-        <v>0.9819920250104901</v>
+        <v>0.9819920250104885</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9603862746139274</v>
+        <v>0.9603862746139261</v>
       </c>
       <c r="D19">
-        <v>0.9867506966422723</v>
+        <v>0.9867506966422708</v>
       </c>
       <c r="E19">
-        <v>0.97142965694914</v>
+        <v>0.9714296569491384</v>
       </c>
       <c r="F19">
-        <v>0.9686136511309824</v>
+        <v>0.9686136511309811</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029053167455494</v>
+        <v>1.029053167455493</v>
       </c>
       <c r="J19">
-        <v>0.988890194203403</v>
+        <v>0.9888901942034016</v>
       </c>
       <c r="K19">
-        <v>1.00073632249316</v>
+        <v>1.000736322493159</v>
       </c>
       <c r="L19">
-        <v>0.9856931697404627</v>
+        <v>0.9856931697404613</v>
       </c>
       <c r="M19">
-        <v>0.9829294875575624</v>
+        <v>0.982929487557561</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9558170101558653</v>
+        <v>0.9558170101558676</v>
       </c>
       <c r="D20">
-        <v>0.983111831248722</v>
+        <v>0.983111831248724</v>
       </c>
       <c r="E20">
-        <v>0.9670761946592774</v>
+        <v>0.9670761946592799</v>
       </c>
       <c r="F20">
-        <v>0.9639897616559886</v>
+        <v>0.9639897616559917</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027219718683995</v>
+        <v>1.027219718683996</v>
       </c>
       <c r="J20">
-        <v>0.9851641707748318</v>
+        <v>0.9851641707748341</v>
       </c>
       <c r="K20">
-        <v>0.9974582844276408</v>
+        <v>0.9974582844276429</v>
       </c>
       <c r="L20">
-        <v>0.9817237752028488</v>
+        <v>0.9817237752028514</v>
       </c>
       <c r="M20">
-        <v>0.9786968078720705</v>
+        <v>0.9786968078720736</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9401204546027015</v>
+        <v>0.9401204546027003</v>
       </c>
       <c r="D21">
-        <v>0.9706293030913705</v>
+        <v>0.97062930309137</v>
       </c>
       <c r="E21">
-        <v>0.9521378449392696</v>
+        <v>0.9521378449392685</v>
       </c>
       <c r="F21">
-        <v>0.9481281088621639</v>
+        <v>0.9481281088621631</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.020898836174213</v>
       </c>
       <c r="J21">
-        <v>0.9723540785707651</v>
+        <v>0.9723540785707641</v>
       </c>
       <c r="K21">
-        <v>0.9861893273544691</v>
+        <v>0.9861893273544684</v>
       </c>
       <c r="L21">
-        <v>0.968086488541044</v>
+        <v>0.9680864885410428</v>
       </c>
       <c r="M21">
-        <v>0.9641636788025966</v>
+        <v>0.9641636788025959</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9295002527306994</v>
+        <v>0.9295002527307009</v>
       </c>
       <c r="D22">
-        <v>0.9622008106145044</v>
+        <v>0.9622008106145058</v>
       </c>
       <c r="E22">
-        <v>0.9420456943716434</v>
+        <v>0.942045694371645</v>
       </c>
       <c r="F22">
-        <v>0.9374153246511462</v>
+        <v>0.9374153246511475</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.016605686255695</v>
+        <v>1.016605686255696</v>
       </c>
       <c r="J22">
-        <v>0.963679950642612</v>
+        <v>0.9636799506426136</v>
       </c>
       <c r="K22">
-        <v>0.9785602013452189</v>
+        <v>0.9785602013452204</v>
       </c>
       <c r="L22">
-        <v>0.9588598279325</v>
+        <v>0.9588598279325018</v>
       </c>
       <c r="M22">
-        <v>0.9543376312388439</v>
+        <v>0.9543376312388453</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9352092787008442</v>
+        <v>0.9352092787008423</v>
       </c>
       <c r="D23">
-        <v>0.9667298454342829</v>
+        <v>0.966729845434281</v>
       </c>
       <c r="E23">
-        <v>0.9474693318404492</v>
+        <v>0.947469331840447</v>
       </c>
       <c r="F23">
-        <v>0.9431722422921796</v>
+        <v>0.9431722422921774</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.018914968812511</v>
+        <v>1.01891496881251</v>
       </c>
       <c r="J23">
-        <v>0.9683433949003147</v>
+        <v>0.9683433949003127</v>
       </c>
       <c r="K23">
-        <v>0.9826616407598776</v>
+        <v>0.9826616407598758</v>
       </c>
       <c r="L23">
-        <v>0.9638196156816398</v>
+        <v>0.9638196156816375</v>
       </c>
       <c r="M23">
-        <v>0.9596190034002408</v>
+        <v>0.9596190034002384</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9560689968339728</v>
+        <v>0.9560689968339738</v>
       </c>
       <c r="D24">
-        <v>0.9833124498671432</v>
+        <v>0.9833124498671443</v>
       </c>
       <c r="E24">
-        <v>0.9673162229259481</v>
+        <v>0.9673162229259491</v>
       </c>
       <c r="F24">
-        <v>0.9642446820991255</v>
+        <v>0.9642446820991264</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027320914281035</v>
+        <v>1.027320914281036</v>
       </c>
       <c r="J24">
-        <v>0.985369693936674</v>
+        <v>0.9853696939366748</v>
       </c>
       <c r="K24">
-        <v>0.9976390952533408</v>
+        <v>0.9976390952533422</v>
       </c>
       <c r="L24">
-        <v>0.9819426882180515</v>
+        <v>0.9819426882180525</v>
       </c>
       <c r="M24">
-        <v>0.9789302093687838</v>
+        <v>0.9789302093687846</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9776380296378477</v>
+        <v>0.9776380296378487</v>
       </c>
       <c r="D25">
-        <v>1.000508361278586</v>
+        <v>1.000508361278587</v>
       </c>
       <c r="E25">
-        <v>0.9878863287504601</v>
+        <v>0.9878863287504609</v>
       </c>
       <c r="F25">
-        <v>0.9860997594375839</v>
+        <v>0.9860997594375845</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035942687782827</v>
+        <v>1.035942687782828</v>
       </c>
       <c r="J25">
-        <v>1.002942132103366</v>
+        <v>1.002942132103367</v>
       </c>
       <c r="K25">
         <v>1.013098790715556</v>
       </c>
       <c r="L25">
-        <v>1.000675650380462</v>
+        <v>1.000675650380463</v>
       </c>
       <c r="M25">
-        <v>0.9989177607215941</v>
+        <v>0.9989177607215949</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_43/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9932242434410611</v>
+        <v>0.9932928299414736</v>
       </c>
       <c r="D2">
-        <v>1.012959753800651</v>
+        <v>1.013016288017636</v>
       </c>
       <c r="E2">
-        <v>1.002780831284354</v>
+        <v>1.002848833225454</v>
       </c>
       <c r="F2">
-        <v>1.001938372723994</v>
+        <v>1.002004517318139</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042112520542202</v>
+        <v>1.042144122547429</v>
       </c>
       <c r="J2">
-        <v>1.015609522350152</v>
+        <v>1.01567601887232</v>
       </c>
       <c r="K2">
-        <v>1.024241443626764</v>
+        <v>1.024297215424945</v>
       </c>
       <c r="L2">
-        <v>1.0142015601858</v>
+        <v>1.014268621446395</v>
       </c>
       <c r="M2">
-        <v>1.013370768830447</v>
+        <v>1.013435996493298</v>
+      </c>
+      <c r="N2">
+        <v>1.005333841647221</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.003785630552015</v>
+        <v>1.003838324231184</v>
       </c>
       <c r="D3">
-        <v>1.021406383475372</v>
+        <v>1.021449884359041</v>
       </c>
       <c r="E3">
-        <v>1.012887879663577</v>
+        <v>1.012940184598593</v>
       </c>
       <c r="F3">
-        <v>1.01269464428591</v>
+        <v>1.012745431657247</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046256587742016</v>
+        <v>1.046280938652332</v>
       </c>
       <c r="J3">
-        <v>1.024173624773062</v>
+        <v>1.024224896769118</v>
       </c>
       <c r="K3">
-        <v>1.031772500494077</v>
+        <v>1.031815473420618</v>
       </c>
       <c r="L3">
-        <v>1.023358471213279</v>
+        <v>1.02341012798284</v>
       </c>
       <c r="M3">
-        <v>1.023167631141399</v>
+        <v>1.023217788852713</v>
+      </c>
+      <c r="N3">
+        <v>1.012136429332565</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.010316806138693</v>
+        <v>1.010360098484194</v>
       </c>
       <c r="D4">
-        <v>1.026632788420506</v>
+        <v>1.026668560590995</v>
       </c>
       <c r="E4">
-        <v>1.019143951265424</v>
+        <v>1.019186953308044</v>
       </c>
       <c r="F4">
-        <v>1.019356710393222</v>
+        <v>1.019398421061785</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048801824643874</v>
+        <v>1.04882186696364</v>
       </c>
       <c r="J4">
-        <v>1.02946023867916</v>
+        <v>1.029502453936666</v>
       </c>
       <c r="K4">
-        <v>1.036420063580319</v>
+        <v>1.036455431210145</v>
       </c>
       <c r="L4">
-        <v>1.029016688290975</v>
+        <v>1.029059195171606</v>
       </c>
       <c r="M4">
-        <v>1.029226998033556</v>
+        <v>1.029268228656901</v>
+      </c>
+      <c r="N4">
+        <v>1.016316605077243</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.012995970027746</v>
+        <v>1.013035494185296</v>
       </c>
       <c r="D5">
-        <v>1.028777263865953</v>
+        <v>1.028809934301314</v>
       </c>
       <c r="E5">
-        <v>1.021711571353181</v>
+        <v>1.02175084104992</v>
       </c>
       <c r="F5">
-        <v>1.022091975304398</v>
+        <v>1.022130049631681</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049841647851089</v>
+        <v>1.049859959072996</v>
       </c>
       <c r="J5">
-        <v>1.03162654400264</v>
+        <v>1.031665118374767</v>
       </c>
       <c r="K5">
-        <v>1.03832413477339</v>
+        <v>1.038356446794802</v>
       </c>
       <c r="L5">
-        <v>1.031336619655016</v>
+        <v>1.031375451181001</v>
       </c>
       <c r="M5">
-        <v>1.031712780807189</v>
+        <v>1.03175043069004</v>
+      </c>
+      <c r="N5">
+        <v>1.018024947498345</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013442069431428</v>
+        <v>1.013480970995673</v>
       </c>
       <c r="D6">
-        <v>1.029134361159928</v>
+        <v>1.029166518897451</v>
       </c>
       <c r="E6">
-        <v>1.022139172204379</v>
+        <v>1.022177825031379</v>
       </c>
       <c r="F6">
-        <v>1.022547555483843</v>
+        <v>1.022585029100107</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050014532739447</v>
+        <v>1.050032557710525</v>
       </c>
       <c r="J6">
-        <v>1.031987110415101</v>
+        <v>1.03202508262575</v>
       </c>
       <c r="K6">
-        <v>1.038641031187974</v>
+        <v>1.038672837944657</v>
       </c>
       <c r="L6">
-        <v>1.03172283560256</v>
+        <v>1.031761059432197</v>
       </c>
       <c r="M6">
-        <v>1.032126688360867</v>
+        <v>1.032163746475343</v>
+      </c>
+      <c r="N6">
+        <v>1.018309019731827</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.010352859461831</v>
+        <v>1.010396100765202</v>
       </c>
       <c r="D7">
-        <v>1.026661644539333</v>
+        <v>1.026697374710293</v>
       </c>
       <c r="E7">
-        <v>1.019178498485112</v>
+        <v>1.019221449984889</v>
       </c>
       <c r="F7">
-        <v>1.019393509203635</v>
+        <v>1.019435170609253</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048815834487407</v>
+        <v>1.048835853374588</v>
       </c>
       <c r="J7">
-        <v>1.029489399805239</v>
+        <v>1.029531565786624</v>
       </c>
       <c r="K7">
-        <v>1.036445696235831</v>
+        <v>1.036481022503906</v>
       </c>
       <c r="L7">
-        <v>1.029047912041906</v>
+        <v>1.02909036916844</v>
       </c>
       <c r="M7">
-        <v>1.029260448495443</v>
+        <v>1.029301630625842</v>
+      </c>
+      <c r="N7">
+        <v>1.016339619639012</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9968600376912661</v>
+        <v>0.9969230523884269</v>
       </c>
       <c r="D8">
-        <v>1.015866780024586</v>
+        <v>1.015918749491912</v>
       </c>
       <c r="E8">
-        <v>1.006258902597356</v>
+        <v>1.00632140559576</v>
       </c>
       <c r="F8">
-        <v>1.00563899070714</v>
+        <v>1.005699749462502</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043542805901362</v>
+        <v>1.043571870320733</v>
       </c>
       <c r="J8">
-        <v>1.018559717321363</v>
+        <v>1.018620888418728</v>
       </c>
       <c r="K8">
-        <v>1.026836030761331</v>
+        <v>1.026887323587117</v>
       </c>
       <c r="L8">
-        <v>1.017354755302632</v>
+        <v>1.017416424897568</v>
       </c>
       <c r="M8">
-        <v>1.016743116247538</v>
+        <v>1.016803063600284</v>
+      </c>
+      <c r="N8">
+        <v>1.007681289875546</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9704467462699423</v>
+        <v>0.9705529381613762</v>
       </c>
       <c r="D9">
-        <v>0.9947701553404782</v>
+        <v>0.9948573710122462</v>
       </c>
       <c r="E9">
-        <v>0.9810226987466804</v>
+        <v>0.9811276962640568</v>
       </c>
       <c r="F9">
-        <v>0.9788052632570653</v>
+        <v>0.9789078038506829</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033077658244259</v>
+        <v>1.033126265658295</v>
       </c>
       <c r="J9">
-        <v>0.9970880752289941</v>
+        <v>0.9971901879202629</v>
       </c>
       <c r="K9">
-        <v>1.007948656863501</v>
+        <v>1.008034438482769</v>
       </c>
       <c r="L9">
-        <v>0.9944313609503177</v>
+        <v>0.9945345690269199</v>
       </c>
       <c r="M9">
-        <v>0.9922518324235405</v>
+        <v>0.9923526151959451</v>
+      </c>
+      <c r="N9">
+        <v>0.9905112813002145</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9505099688602127</v>
+        <v>0.9506535910647645</v>
       </c>
       <c r="D10">
-        <v>0.9788882708609762</v>
+        <v>0.979005811068278</v>
       </c>
       <c r="E10">
-        <v>0.9620225673386569</v>
+        <v>0.9621641891434979</v>
       </c>
       <c r="F10">
-        <v>0.9586230395859345</v>
+        <v>0.9587618737173655</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.025086298208992</v>
+        <v>1.025151638085422</v>
       </c>
       <c r="J10">
-        <v>0.9808346898801416</v>
+        <v>0.9809717278412646</v>
       </c>
       <c r="K10">
-        <v>0.9936494612157292</v>
+        <v>0.9937647580818345</v>
       </c>
       <c r="L10">
-        <v>0.9771131270544949</v>
+        <v>0.9772519199064855</v>
       </c>
       <c r="M10">
-        <v>0.973781836526857</v>
+        <v>0.9739178714238285</v>
+      </c>
+      <c r="N10">
+        <v>0.9774033038573263</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9411562251722048</v>
+        <v>0.9413191661098359</v>
       </c>
       <c r="D11">
-        <v>0.9714520877246126</v>
+        <v>0.9715851989441477</v>
       </c>
       <c r="E11">
-        <v>0.953122771032899</v>
+        <v>0.9532832212200698</v>
       </c>
       <c r="F11">
-        <v>0.9491737218579053</v>
+        <v>0.9493313094068551</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021316892944865</v>
+        <v>1.021390799812425</v>
       </c>
       <c r="J11">
-        <v>0.9731997962628288</v>
+        <v>0.9733546729060112</v>
       </c>
       <c r="K11">
-        <v>0.9869332330278028</v>
+        <v>0.9870636361959912</v>
       </c>
       <c r="L11">
-        <v>0.9689863901993776</v>
+        <v>0.9691434077158047</v>
       </c>
       <c r="M11">
-        <v>0.9651223124644819</v>
+        <v>0.9652764912396071</v>
+      </c>
+      <c r="N11">
+        <v>0.9712197737196538</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9375543630734321</v>
+        <v>0.937725082456629</v>
       </c>
       <c r="D12">
-        <v>0.9685914540543705</v>
+        <v>0.9687308198219449</v>
       </c>
       <c r="E12">
-        <v>0.949698218543911</v>
+        <v>0.9498662359761285</v>
       </c>
       <c r="F12">
-        <v>0.9455382604108604</v>
+        <v>0.9457034023711898</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.019862591359143</v>
+        <v>1.019939935128374</v>
       </c>
       <c r="J12">
-        <v>0.9702586248138002</v>
+        <v>0.9704206502655625</v>
       </c>
       <c r="K12">
-        <v>0.9843461877568248</v>
+        <v>0.9844826502421856</v>
       </c>
       <c r="L12">
-        <v>0.9658570273106307</v>
+        <v>0.9660213571238334</v>
       </c>
       <c r="M12">
-        <v>0.9617889275924415</v>
+        <v>0.9619504024547922</v>
+      </c>
+      <c r="N12">
+        <v>0.9688338249764817</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9383331070073654</v>
+        <v>0.9385021278712732</v>
       </c>
       <c r="D13">
-        <v>0.969209802369993</v>
+        <v>0.9693478031010073</v>
       </c>
       <c r="E13">
-        <v>0.9504385081747271</v>
+        <v>0.9506048738696773</v>
       </c>
       <c r="F13">
-        <v>0.9463241197619824</v>
+        <v>0.946487611957389</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.020177142576864</v>
+        <v>1.020253736453854</v>
       </c>
       <c r="J13">
-        <v>0.9708945731935263</v>
+        <v>0.9710550392244145</v>
       </c>
       <c r="K13">
-        <v>0.9849055532948736</v>
+        <v>0.9850406937563119</v>
       </c>
       <c r="L13">
-        <v>0.9665336089370273</v>
+        <v>0.9666963432465299</v>
       </c>
       <c r="M13">
-        <v>0.9625095687487811</v>
+        <v>0.9626694508690926</v>
+      </c>
+      <c r="N13">
+        <v>0.9693498951398231</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9408612235904699</v>
+        <v>0.9410247942347284</v>
       </c>
       <c r="D14">
-        <v>0.9712177339384991</v>
+        <v>0.971351351812283</v>
       </c>
       <c r="E14">
-        <v>0.9528422388654733</v>
+        <v>0.9530033019518325</v>
       </c>
       <c r="F14">
-        <v>0.9488759021341236</v>
+        <v>0.9490341011796238</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021197837260622</v>
+        <v>1.021272022625487</v>
       </c>
       <c r="J14">
-        <v>0.9729589295309609</v>
+        <v>0.9731143856137875</v>
       </c>
       <c r="K14">
-        <v>0.9867213619343262</v>
+        <v>0.9868522561196051</v>
       </c>
       <c r="L14">
-        <v>0.9687300856076938</v>
+        <v>0.9688876956308229</v>
       </c>
       <c r="M14">
-        <v>0.9648492750055088</v>
+        <v>0.965004044633997</v>
+      </c>
+      <c r="N14">
+        <v>0.9710244547231042</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9424013293779159</v>
+        <v>0.9425616267359547</v>
       </c>
       <c r="D15">
-        <v>0.9724413354145194</v>
+        <v>0.9725723190327069</v>
       </c>
       <c r="E15">
-        <v>0.9543069079117048</v>
+        <v>0.9544647845169352</v>
       </c>
       <c r="F15">
-        <v>0.9504308514418174</v>
+        <v>0.9505858720032053</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.021819275632443</v>
+        <v>1.021892012828694</v>
       </c>
       <c r="J15">
-        <v>0.9742163684985433</v>
+        <v>0.974368811218023</v>
       </c>
       <c r="K15">
-        <v>0.9878274399937186</v>
+        <v>0.9879557808789946</v>
       </c>
       <c r="L15">
-        <v>0.9700681693415864</v>
+        <v>0.9702226984048918</v>
       </c>
       <c r="M15">
-        <v>0.966274761465257</v>
+        <v>0.9664264593912072</v>
+      </c>
+      <c r="N15">
+        <v>0.9720439565869109</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9511140327975269</v>
+        <v>0.9512564488637297</v>
       </c>
       <c r="D16">
-        <v>0.9793688504679241</v>
+        <v>0.979485416740786</v>
       </c>
       <c r="E16">
-        <v>0.9625976363514119</v>
+        <v>0.9627380809872084</v>
       </c>
       <c r="F16">
-        <v>0.9592336949953123</v>
+        <v>0.9593713587297942</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025329332954823</v>
+        <v>1.025394136456748</v>
       </c>
       <c r="J16">
-        <v>0.9813275773038167</v>
+        <v>0.9814634974571339</v>
       </c>
       <c r="K16">
-        <v>0.9940830662699786</v>
+        <v>0.9941974172162185</v>
       </c>
       <c r="L16">
-        <v>0.9776379386354757</v>
+        <v>0.9777755905644723</v>
       </c>
       <c r="M16">
-        <v>0.9743412100083907</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9744761110013551</v>
+      </c>
+      <c r="N16">
+        <v>0.9778019659178689</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9563742169925079</v>
+        <v>0.9565063304382816</v>
       </c>
       <c r="D17">
-        <v>0.983555459419013</v>
+        <v>0.9836636978558868</v>
       </c>
       <c r="E17">
-        <v>0.967606967370239</v>
+        <v>0.9677373488154154</v>
       </c>
       <c r="F17">
-        <v>0.9645534680330782</v>
+        <v>0.9646811367265661</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.02744347509726</v>
+        <v>1.027503689557054</v>
       </c>
       <c r="J17">
-        <v>0.9856186289013249</v>
+        <v>0.9857449808133364</v>
       </c>
       <c r="K17">
-        <v>0.9978580983603667</v>
+        <v>0.9979643557343544</v>
       </c>
       <c r="L17">
-        <v>0.9822078465983086</v>
+        <v>0.9823357377342229</v>
       </c>
       <c r="M17">
-        <v>0.9792129218038818</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9793381317313219</v>
+      </c>
+      <c r="N17">
+        <v>0.9812698073490008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9593743461885995</v>
+        <v>0.9595007392473976</v>
       </c>
       <c r="D18">
-        <v>0.9859446276303618</v>
+        <v>0.9860482354010875</v>
       </c>
       <c r="E18">
-        <v>0.9704653315637213</v>
+        <v>0.9705901193030418</v>
       </c>
       <c r="F18">
-        <v>0.9675893636105524</v>
+        <v>0.967711484526274</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028647408035152</v>
+        <v>1.028705068658328</v>
       </c>
       <c r="J18">
-        <v>0.9880651480986663</v>
+        <v>0.988186171552775</v>
       </c>
       <c r="K18">
-        <v>1.000010467298226</v>
+        <v>1.00011222007624</v>
       </c>
       <c r="L18">
-        <v>0.9848141200119661</v>
+        <v>0.9849365796441011</v>
       </c>
       <c r="M18">
-        <v>0.9819920250104885</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9821118498410767</v>
+      </c>
+      <c r="N18">
+        <v>0.9832445715865926</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9603862746139261</v>
+        <v>0.9605107628373158</v>
       </c>
       <c r="D19">
-        <v>0.9867506966422708</v>
+        <v>0.9868527613656142</v>
       </c>
       <c r="E19">
-        <v>0.9714296569491384</v>
+        <v>0.9715525810354343</v>
       </c>
       <c r="F19">
-        <v>0.9686136511309811</v>
+        <v>0.9687339249896481</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029053167455493</v>
+        <v>1.029109976734535</v>
       </c>
       <c r="J19">
-        <v>0.9888901942034016</v>
+        <v>0.9890094407786262</v>
       </c>
       <c r="K19">
-        <v>1.000736322493159</v>
+        <v>1.000836573550987</v>
       </c>
       <c r="L19">
-        <v>0.9856931697404613</v>
+        <v>0.9858138188068318</v>
       </c>
       <c r="M19">
-        <v>0.982929487557561</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.983047518517141</v>
+      </c>
+      <c r="N19">
+        <v>0.9839101173301146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9558170101558676</v>
+        <v>0.9559501982653142</v>
       </c>
       <c r="D20">
-        <v>0.983111831248724</v>
+        <v>0.9832209390880564</v>
       </c>
       <c r="E20">
-        <v>0.9670761946592799</v>
+        <v>0.9672076264679925</v>
       </c>
       <c r="F20">
-        <v>0.9639897616559917</v>
+        <v>0.9641184727344595</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027219718683996</v>
+        <v>1.027280412452817</v>
       </c>
       <c r="J20">
-        <v>0.9851641707748341</v>
+        <v>0.9852915224483108</v>
       </c>
       <c r="K20">
-        <v>0.9974582844276429</v>
+        <v>0.9975653871962114</v>
       </c>
       <c r="L20">
-        <v>0.9817237752028514</v>
+        <v>0.9818526857705465</v>
       </c>
       <c r="M20">
-        <v>0.9786968078720736</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9788230291317079</v>
+      </c>
+      <c r="N20">
+        <v>0.9809027848516094</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9401204546027003</v>
+        <v>0.9402856122185471</v>
       </c>
       <c r="D21">
-        <v>0.97062930309137</v>
+        <v>0.9707641975759523</v>
       </c>
       <c r="E21">
-        <v>0.9521378449392685</v>
+        <v>0.9523004524117947</v>
       </c>
       <c r="F21">
-        <v>0.9481281088621631</v>
+        <v>0.9482878490446194</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.020898836174213</v>
+        <v>1.020973723195685</v>
       </c>
       <c r="J21">
-        <v>0.9723540785707641</v>
+        <v>0.9725109943890985</v>
       </c>
       <c r="K21">
-        <v>0.9861893273544684</v>
+        <v>0.9863214586098178</v>
       </c>
       <c r="L21">
-        <v>0.9680864885410428</v>
+        <v>0.9682455913633184</v>
       </c>
       <c r="M21">
-        <v>0.9641636788025959</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9643199373316634</v>
+      </c>
+      <c r="N21">
+        <v>0.9705339187504023</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9295002527307009</v>
+        <v>0.9296891081253689</v>
       </c>
       <c r="D22">
-        <v>0.9622008106145058</v>
+        <v>0.9623547268801013</v>
       </c>
       <c r="E22">
-        <v>0.942045694371645</v>
+        <v>0.9422313255661896</v>
       </c>
       <c r="F22">
-        <v>0.9374153246511475</v>
+        <v>0.9375980875290619</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.016605686255696</v>
+        <v>1.01669101671258</v>
       </c>
       <c r="J22">
-        <v>0.9636799506426136</v>
+        <v>0.9638585722801103</v>
       </c>
       <c r="K22">
-        <v>0.9785602013452204</v>
+        <v>0.9787107423148934</v>
       </c>
       <c r="L22">
-        <v>0.9588598279325018</v>
+        <v>0.9590411521253147</v>
       </c>
       <c r="M22">
-        <v>0.9543376312388453</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9545160973432395</v>
+      </c>
+      <c r="N22">
+        <v>0.9634899087478443</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9352092787008423</v>
+        <v>0.9353851701972429</v>
       </c>
       <c r="D23">
-        <v>0.966729845434281</v>
+        <v>0.9668733653737567</v>
       </c>
       <c r="E23">
-        <v>0.947469331840447</v>
+        <v>0.9476423766662417</v>
       </c>
       <c r="F23">
-        <v>0.9431722422921774</v>
+        <v>0.9433424084617387</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.01891496881251</v>
+        <v>1.018994594026023</v>
       </c>
       <c r="J23">
-        <v>0.9683433949003127</v>
+        <v>0.9685101634353338</v>
       </c>
       <c r="K23">
-        <v>0.9826616407598758</v>
+        <v>0.9828021251549947</v>
       </c>
       <c r="L23">
-        <v>0.9638196156816375</v>
+        <v>0.963988799749972</v>
       </c>
       <c r="M23">
-        <v>0.9596190034002384</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.959785326747902</v>
+      </c>
+      <c r="N23">
+        <v>0.9672790579369345</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9560689968339738</v>
+        <v>0.9562016984657929</v>
       </c>
       <c r="D24">
-        <v>0.9833124498671443</v>
+        <v>0.983421164167386</v>
       </c>
       <c r="E24">
-        <v>0.9673162229259491</v>
+        <v>0.9674471792767653</v>
       </c>
       <c r="F24">
-        <v>0.9642446820991264</v>
+        <v>0.9643729213061047</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027320914281036</v>
+        <v>1.027381391095012</v>
       </c>
       <c r="J24">
-        <v>0.9853696939366748</v>
+        <v>0.9854965930887203</v>
       </c>
       <c r="K24">
-        <v>0.9976390952533422</v>
+        <v>0.9977458153632314</v>
       </c>
       <c r="L24">
-        <v>0.9819426882180525</v>
+        <v>0.9820711373478664</v>
       </c>
       <c r="M24">
-        <v>0.9789302093687846</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9790559728329663</v>
+      </c>
+      <c r="N24">
+        <v>0.9810687738234644</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9776380296378487</v>
+        <v>0.977731811513968</v>
       </c>
       <c r="D25">
-        <v>1.000508361278587</v>
+        <v>1.000585476144192</v>
       </c>
       <c r="E25">
-        <v>0.9878863287504609</v>
+        <v>0.9879791400704051</v>
       </c>
       <c r="F25">
-        <v>0.9860997594375845</v>
+        <v>0.98619028087191</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035942687782828</v>
+        <v>1.035985705942791</v>
       </c>
       <c r="J25">
-        <v>1.002942132103367</v>
+        <v>1.00303255241199</v>
       </c>
       <c r="K25">
-        <v>1.013098790715556</v>
+        <v>1.013174710143524</v>
       </c>
       <c r="L25">
-        <v>1.000675650380463</v>
+        <v>1.000766975441874</v>
       </c>
       <c r="M25">
-        <v>0.9989177607215949</v>
+        <v>0.9990068258164</v>
+      </c>
+      <c r="N25">
+        <v>0.9952109020474977</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_43/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9932928299414736</v>
+        <v>1.051701183480746</v>
       </c>
       <c r="D2">
-        <v>1.013016288017636</v>
+        <v>1.061942452864318</v>
       </c>
       <c r="E2">
-        <v>1.002848833225454</v>
+        <v>1.068223638904626</v>
       </c>
       <c r="F2">
-        <v>1.002004517318139</v>
+        <v>1.072443287010213</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042144122547429</v>
+        <v>1.060188082103027</v>
       </c>
       <c r="J2">
-        <v>1.01567601887232</v>
+        <v>1.072438305980493</v>
       </c>
       <c r="K2">
-        <v>1.024297215424945</v>
+        <v>1.072601360957369</v>
       </c>
       <c r="L2">
-        <v>1.014268621446395</v>
+        <v>1.078807806736486</v>
       </c>
       <c r="M2">
-        <v>1.013435996493298</v>
+        <v>1.082977853286615</v>
       </c>
       <c r="N2">
-        <v>1.005333841647221</v>
+        <v>1.073961291385378</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.003838324231184</v>
+        <v>1.063259562403286</v>
       </c>
       <c r="D3">
-        <v>1.021449884359041</v>
+        <v>1.071311762314378</v>
       </c>
       <c r="E3">
-        <v>1.012940184598593</v>
+        <v>1.079100260431582</v>
       </c>
       <c r="F3">
-        <v>1.012745431657247</v>
+        <v>1.082801841644184</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046280938652332</v>
+        <v>1.064167488857018</v>
       </c>
       <c r="J3">
-        <v>1.024224896769118</v>
+        <v>1.082162628118403</v>
       </c>
       <c r="K3">
-        <v>1.031815473420618</v>
+        <v>1.081106801393178</v>
       </c>
       <c r="L3">
-        <v>1.02341012798284</v>
+        <v>1.088812009963139</v>
       </c>
       <c r="M3">
-        <v>1.023217788852713</v>
+        <v>1.092474520367389</v>
       </c>
       <c r="N3">
-        <v>1.012136429332565</v>
+        <v>1.08369942317612</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.010360098484194</v>
+        <v>1.070432116849624</v>
       </c>
       <c r="D4">
-        <v>1.026668560590995</v>
+        <v>1.077126040430667</v>
       </c>
       <c r="E4">
-        <v>1.019186953308044</v>
+        <v>1.08585495419938</v>
       </c>
       <c r="F4">
-        <v>1.019398421061785</v>
+        <v>1.089233817263319</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04882186696364</v>
+        <v>1.066620185892778</v>
       </c>
       <c r="J4">
-        <v>1.029502453936666</v>
+        <v>1.088190983448405</v>
       </c>
       <c r="K4">
-        <v>1.036455431210145</v>
+        <v>1.086374885898534</v>
       </c>
       <c r="L4">
-        <v>1.029059195171606</v>
+        <v>1.09501688845066</v>
       </c>
       <c r="M4">
-        <v>1.029268228656901</v>
+        <v>1.098362562837546</v>
       </c>
       <c r="N4">
-        <v>1.016316605077243</v>
+        <v>1.089736339462152</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013035494185296</v>
+        <v>1.073379938282152</v>
       </c>
       <c r="D5">
-        <v>1.028809934301314</v>
+        <v>1.079515490949924</v>
       </c>
       <c r="E5">
-        <v>1.02175084104992</v>
+        <v>1.088632162497354</v>
       </c>
       <c r="F5">
-        <v>1.022130049631681</v>
+        <v>1.091878066296766</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049859959072996</v>
+        <v>1.067624085537156</v>
       </c>
       <c r="J5">
-        <v>1.031665118374767</v>
+        <v>1.090667004479209</v>
       </c>
       <c r="K5">
-        <v>1.038356446794802</v>
+        <v>1.088537482919528</v>
       </c>
       <c r="L5">
-        <v>1.031375451181001</v>
+        <v>1.097566123802242</v>
       </c>
       <c r="M5">
-        <v>1.03175043069004</v>
+        <v>1.100781114188084</v>
       </c>
       <c r="N5">
-        <v>1.018024947498345</v>
+        <v>1.092215876726824</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013480970995673</v>
+        <v>1.073871087618762</v>
       </c>
       <c r="D6">
-        <v>1.029166518897451</v>
+        <v>1.079913594852871</v>
       </c>
       <c r="E6">
-        <v>1.022177825031379</v>
+        <v>1.089094947833567</v>
       </c>
       <c r="F6">
-        <v>1.022585029100107</v>
+        <v>1.09231867865922</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050032557710525</v>
+        <v>1.067791103811783</v>
       </c>
       <c r="J6">
-        <v>1.03202508262575</v>
+        <v>1.091079451375212</v>
       </c>
       <c r="K6">
-        <v>1.038672837944657</v>
+        <v>1.088897651417377</v>
       </c>
       <c r="L6">
-        <v>1.031761059432197</v>
+        <v>1.097990807986378</v>
       </c>
       <c r="M6">
-        <v>1.032163746475343</v>
+        <v>1.101183996509768</v>
       </c>
       <c r="N6">
-        <v>1.018309019731827</v>
+        <v>1.092628909344727</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.010396100765202</v>
+        <v>1.070471763903901</v>
       </c>
       <c r="D7">
-        <v>1.026697374710293</v>
+        <v>1.077158178376899</v>
       </c>
       <c r="E7">
-        <v>1.019221449984889</v>
+        <v>1.085892302280173</v>
       </c>
       <c r="F7">
-        <v>1.019435170609253</v>
+        <v>1.089269378427517</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048835853374588</v>
+        <v>1.066633704458561</v>
       </c>
       <c r="J7">
-        <v>1.029531565786624</v>
+        <v>1.088224291235326</v>
       </c>
       <c r="K7">
-        <v>1.036481022503906</v>
+        <v>1.086403982111051</v>
       </c>
       <c r="L7">
-        <v>1.02909036916844</v>
+        <v>1.095051178321216</v>
       </c>
       <c r="M7">
-        <v>1.029301630625842</v>
+        <v>1.098395096939206</v>
       </c>
       <c r="N7">
-        <v>1.016339619639012</v>
+        <v>1.089769694549951</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9969230523884269</v>
+        <v>1.055674623566633</v>
       </c>
       <c r="D8">
-        <v>1.015918749491912</v>
+        <v>1.065163206374478</v>
       </c>
       <c r="E8">
-        <v>1.00632140559576</v>
+        <v>1.07196151941516</v>
       </c>
       <c r="F8">
-        <v>1.005699749462502</v>
+        <v>1.07600331250513</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043571870320733</v>
+        <v>1.061559572963576</v>
       </c>
       <c r="J8">
-        <v>1.018620888418728</v>
+        <v>1.075782480983222</v>
       </c>
       <c r="K8">
-        <v>1.026887323587117</v>
+        <v>1.075527328652857</v>
       </c>
       <c r="L8">
-        <v>1.017416424897568</v>
+        <v>1.082247581202997</v>
       </c>
       <c r="M8">
-        <v>1.016803063600284</v>
+        <v>1.086243541295243</v>
       </c>
       <c r="N8">
-        <v>1.007681289875546</v>
+        <v>1.077310215500193</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9705529381613762</v>
+        <v>1.026941868230719</v>
       </c>
       <c r="D9">
-        <v>0.9948573710122462</v>
+        <v>1.041882772000792</v>
       </c>
       <c r="E9">
-        <v>0.9811276962640568</v>
+        <v>1.044961663793411</v>
       </c>
       <c r="F9">
-        <v>0.9789078038506829</v>
+        <v>1.050285671722325</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033126265658295</v>
+        <v>1.051573438776636</v>
       </c>
       <c r="J9">
-        <v>0.9971901879202629</v>
+        <v>1.05157784070518</v>
       </c>
       <c r="K9">
-        <v>1.008034438482769</v>
+        <v>1.054331007429842</v>
       </c>
       <c r="L9">
-        <v>0.9945345690269199</v>
+        <v>1.05736508212251</v>
       </c>
       <c r="M9">
-        <v>0.9923526151959451</v>
+        <v>1.062612377459058</v>
       </c>
       <c r="N9">
-        <v>0.9905112813002145</v>
+        <v>1.053071201856646</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9506535910647645</v>
+        <v>1.005465257230512</v>
       </c>
       <c r="D10">
-        <v>0.979005811068278</v>
+        <v>1.024506486081546</v>
       </c>
       <c r="E10">
-        <v>0.9621641891434979</v>
+        <v>1.024827936294499</v>
       </c>
       <c r="F10">
-        <v>0.9587618737173655</v>
+        <v>1.031107538589284</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.025151638085422</v>
+        <v>1.044027759074789</v>
       </c>
       <c r="J10">
-        <v>0.9809717278412646</v>
+        <v>1.033463703629773</v>
       </c>
       <c r="K10">
-        <v>0.9937647580818345</v>
+        <v>1.038446930357775</v>
       </c>
       <c r="L10">
-        <v>0.9772519199064855</v>
+        <v>1.038762931766051</v>
       </c>
       <c r="M10">
-        <v>0.9739178714238285</v>
+        <v>1.044936968357473</v>
       </c>
       <c r="N10">
-        <v>0.9774033038573263</v>
+        <v>1.034931340628871</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9413191661098359</v>
+        <v>0.9954558652389738</v>
       </c>
       <c r="D11">
-        <v>0.9715851989441477</v>
+        <v>1.016419098938222</v>
       </c>
       <c r="E11">
-        <v>0.9532832212200698</v>
+        <v>1.01545947308738</v>
       </c>
       <c r="F11">
-        <v>0.9493313094068551</v>
+        <v>1.022184677684685</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021390799812425</v>
+        <v>1.040494697279393</v>
       </c>
       <c r="J11">
-        <v>0.9733546729060112</v>
+        <v>1.025018915076715</v>
       </c>
       <c r="K11">
-        <v>0.9870636361959912</v>
+        <v>1.031037878447013</v>
       </c>
       <c r="L11">
-        <v>0.9691434077158047</v>
+        <v>1.030095618841201</v>
       </c>
       <c r="M11">
-        <v>0.9652764912396071</v>
+        <v>1.03670000920833</v>
       </c>
       <c r="N11">
-        <v>0.9712197737196538</v>
+        <v>1.026474559507437</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.937725082456629</v>
+        <v>0.9916135746868228</v>
       </c>
       <c r="D12">
-        <v>0.9687308198219449</v>
+        <v>1.013316808386408</v>
       </c>
       <c r="E12">
-        <v>0.9498662359761285</v>
+        <v>1.011865880479096</v>
       </c>
       <c r="F12">
-        <v>0.9457034023711898</v>
+        <v>1.018762272636898</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.019939935128374</v>
+        <v>1.039136348901619</v>
       </c>
       <c r="J12">
-        <v>0.9704206502655625</v>
+        <v>1.021777153331564</v>
       </c>
       <c r="K12">
-        <v>0.9844826502421856</v>
+        <v>1.028193250448963</v>
       </c>
       <c r="L12">
-        <v>0.9660213571238334</v>
+        <v>1.026769225898923</v>
       </c>
       <c r="M12">
-        <v>0.9619504024547922</v>
+        <v>1.033538633653452</v>
       </c>
       <c r="N12">
-        <v>0.9688338249764817</v>
+        <v>1.023228194088773</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9385021278712732</v>
+        <v>0.9924437192518468</v>
       </c>
       <c r="D13">
-        <v>0.9693478031010073</v>
+        <v>1.013986963253041</v>
       </c>
       <c r="E13">
-        <v>0.9506048738696773</v>
+        <v>1.012642165289271</v>
       </c>
       <c r="F13">
-        <v>0.946487611957389</v>
+        <v>1.019501563683975</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.020253736453854</v>
+        <v>1.039429915490431</v>
       </c>
       <c r="J13">
-        <v>0.9710550392244145</v>
+        <v>1.022477548535893</v>
       </c>
       <c r="K13">
-        <v>0.9850406937563119</v>
+        <v>1.028807861837467</v>
       </c>
       <c r="L13">
-        <v>0.9666963432465299</v>
+        <v>1.027487869635665</v>
       </c>
       <c r="M13">
-        <v>0.9626694508690926</v>
+        <v>1.034221631831978</v>
       </c>
       <c r="N13">
-        <v>0.9693498951398231</v>
+        <v>1.023929583934628</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9410247942347284</v>
+        <v>0.9951409153279001</v>
       </c>
       <c r="D14">
-        <v>0.971351351812283</v>
+        <v>1.01616475829145</v>
       </c>
       <c r="E14">
-        <v>0.9530033019518325</v>
+        <v>1.015164852368936</v>
       </c>
       <c r="F14">
-        <v>0.9490341011796238</v>
+        <v>1.021904085724188</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021272022625487</v>
+        <v>1.040383394942721</v>
       </c>
       <c r="J14">
-        <v>0.9731143856137875</v>
+        <v>1.024753189581348</v>
       </c>
       <c r="K14">
-        <v>0.9868522561196051</v>
+        <v>1.030804714293358</v>
       </c>
       <c r="L14">
-        <v>0.9688876956308229</v>
+        <v>1.029822939944386</v>
       </c>
       <c r="M14">
-        <v>0.965004044633997</v>
+        <v>1.036440859996558</v>
       </c>
       <c r="N14">
-        <v>0.9710244547231042</v>
+        <v>1.026208456651388</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9425616267359547</v>
+        <v>0.9967856641848879</v>
       </c>
       <c r="D15">
-        <v>0.9725723190327069</v>
+        <v>1.017493082641614</v>
       </c>
       <c r="E15">
-        <v>0.9544647845169352</v>
+        <v>1.016703547279414</v>
       </c>
       <c r="F15">
-        <v>0.9505858720032053</v>
+        <v>1.023369524970184</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.021892012828694</v>
+        <v>1.040964560805585</v>
       </c>
       <c r="J15">
-        <v>0.974368811218023</v>
+        <v>1.026140874993823</v>
       </c>
       <c r="K15">
-        <v>0.9879557808789946</v>
+        <v>1.032022338342171</v>
       </c>
       <c r="L15">
-        <v>0.9702226984048918</v>
+        <v>1.031246969985258</v>
       </c>
       <c r="M15">
-        <v>0.9664264593912072</v>
+        <v>1.037794227564447</v>
       </c>
       <c r="N15">
-        <v>0.9720439565869109</v>
+        <v>1.027598112736317</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9512564488637297</v>
+        <v>1.006113175519106</v>
       </c>
       <c r="D16">
-        <v>0.979485416740786</v>
+        <v>1.025030258810202</v>
       </c>
       <c r="E16">
-        <v>0.9627380809872084</v>
+        <v>1.02543470581478</v>
       </c>
       <c r="F16">
-        <v>0.9593713587297942</v>
+        <v>1.031685476410892</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025394136456748</v>
+        <v>1.04425615058758</v>
       </c>
       <c r="J16">
-        <v>0.9814634974571339</v>
+        <v>1.034010315905697</v>
       </c>
       <c r="K16">
-        <v>0.9941974172162185</v>
+        <v>1.03892643160719</v>
       </c>
       <c r="L16">
-        <v>0.9777755905644723</v>
+        <v>1.039324052687712</v>
       </c>
       <c r="M16">
-        <v>0.9744761110013551</v>
+        <v>1.045470204229101</v>
       </c>
       <c r="N16">
-        <v>0.9778019659178689</v>
+        <v>1.035478729156924</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9565063304382816</v>
+        <v>1.011762796347463</v>
       </c>
       <c r="D17">
-        <v>0.9836636978558868</v>
+        <v>1.029598647692383</v>
       </c>
       <c r="E17">
-        <v>0.9677373488154154</v>
+        <v>1.030727234082266</v>
       </c>
       <c r="F17">
-        <v>0.9646811367265661</v>
+        <v>1.036726638127117</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027503689557054</v>
+        <v>1.046245865149606</v>
       </c>
       <c r="J17">
-        <v>0.9857449808133364</v>
+        <v>1.038776333471246</v>
       </c>
       <c r="K17">
-        <v>0.9979643557343544</v>
+        <v>1.043106872755644</v>
       </c>
       <c r="L17">
-        <v>0.9823357377342229</v>
+        <v>1.044217131398683</v>
       </c>
       <c r="M17">
-        <v>0.9793381317313219</v>
+        <v>1.050119966526981</v>
       </c>
       <c r="N17">
-        <v>0.9812698073490008</v>
+        <v>1.040251515014086</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9595007392473976</v>
+        <v>1.014991023107187</v>
       </c>
       <c r="D18">
-        <v>0.9860482354010875</v>
+        <v>1.032210027578196</v>
       </c>
       <c r="E18">
-        <v>0.9705901193030418</v>
+        <v>1.033752776450344</v>
       </c>
       <c r="F18">
-        <v>0.967711484526274</v>
+        <v>1.039608562887369</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028705068658328</v>
+        <v>1.047381269989799</v>
       </c>
       <c r="J18">
-        <v>0.988186171552775</v>
+        <v>1.04149941018745</v>
       </c>
       <c r="K18">
-        <v>1.00011222007624</v>
+        <v>1.045495008618031</v>
       </c>
       <c r="L18">
-        <v>0.9849365796441011</v>
+        <v>1.047013261788942</v>
       </c>
       <c r="M18">
-        <v>0.9821118498410767</v>
+        <v>1.052776916400861</v>
       </c>
       <c r="N18">
-        <v>0.9832445715865926</v>
+        <v>1.042978458811568</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9605107628373158</v>
+        <v>1.016080854447453</v>
       </c>
       <c r="D19">
-        <v>0.9868527613656142</v>
+        <v>1.033091766223206</v>
       </c>
       <c r="E19">
-        <v>0.9715525810354343</v>
+        <v>1.034774403113453</v>
       </c>
       <c r="F19">
-        <v>0.9687339249896481</v>
+        <v>1.040581705005913</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029109976734535</v>
+        <v>1.047764308184372</v>
       </c>
       <c r="J19">
-        <v>0.9890094407786262</v>
+        <v>1.042418654858929</v>
       </c>
       <c r="K19">
-        <v>1.000836573550987</v>
+        <v>1.046301119335934</v>
       </c>
       <c r="L19">
-        <v>0.9858138188068318</v>
+        <v>1.047957244049038</v>
       </c>
       <c r="M19">
-        <v>0.983047518517141</v>
+        <v>1.053673885619968</v>
       </c>
       <c r="N19">
-        <v>0.9839101173301146</v>
+        <v>1.04389900891592</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9559501982653142</v>
+        <v>1.011163700634164</v>
       </c>
       <c r="D20">
-        <v>0.9832209390880564</v>
+        <v>1.029114102566679</v>
       </c>
       <c r="E20">
-        <v>0.9672076264679925</v>
+        <v>1.030165860736808</v>
       </c>
       <c r="F20">
-        <v>0.9641184727344595</v>
+        <v>1.03619191797466</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027280412452817</v>
+        <v>1.046035029697294</v>
       </c>
       <c r="J20">
-        <v>0.9852915224483108</v>
+        <v>1.038270961167577</v>
       </c>
       <c r="K20">
-        <v>0.9975653871962114</v>
+        <v>1.042663630788968</v>
       </c>
       <c r="L20">
-        <v>0.9818526857705465</v>
+        <v>1.043698238060093</v>
       </c>
       <c r="M20">
-        <v>0.9788230291317079</v>
+        <v>1.049626889993162</v>
       </c>
       <c r="N20">
-        <v>0.9809027848516094</v>
+        <v>1.039745425023779</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9402856122185471</v>
+        <v>0.9943502554966035</v>
       </c>
       <c r="D21">
-        <v>0.9707641975759523</v>
+        <v>1.015526291166438</v>
       </c>
       <c r="E21">
-        <v>0.9523004524117947</v>
+        <v>1.014425271783277</v>
       </c>
       <c r="F21">
-        <v>0.9482878490446194</v>
+        <v>1.021199725895573</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.020973723195685</v>
+        <v>1.040103945525279</v>
       </c>
       <c r="J21">
-        <v>0.9725109943890985</v>
+        <v>1.024086104205914</v>
       </c>
       <c r="K21">
-        <v>0.9863214586098178</v>
+        <v>1.030219364980485</v>
       </c>
       <c r="L21">
-        <v>0.9682455913633184</v>
+        <v>1.029138411363077</v>
       </c>
       <c r="M21">
-        <v>0.9643199373316634</v>
+        <v>1.035790294035894</v>
       </c>
       <c r="N21">
-        <v>0.9705339187504023</v>
+        <v>1.025540423938204</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9296891081253689</v>
+        <v>0.9830471595855226</v>
       </c>
       <c r="D22">
-        <v>0.9623547268801013</v>
+        <v>1.006405050059958</v>
       </c>
       <c r="E22">
-        <v>0.9422313255661896</v>
+        <v>1.003859424580033</v>
       </c>
       <c r="F22">
-        <v>0.9375980875290619</v>
+        <v>1.011137863423154</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.01669101671258</v>
+        <v>1.036104413356833</v>
       </c>
       <c r="J22">
-        <v>0.9638585722801103</v>
+        <v>1.014549894053776</v>
       </c>
       <c r="K22">
-        <v>0.9787107423148934</v>
+        <v>1.021850680627779</v>
       </c>
       <c r="L22">
-        <v>0.9590411521253147</v>
+        <v>1.019354811280063</v>
       </c>
       <c r="M22">
-        <v>0.9545160973432395</v>
+        <v>1.026491859653679</v>
       </c>
       <c r="N22">
-        <v>0.9634899087478443</v>
+        <v>1.015990671273832</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9353851701972429</v>
+        <v>0.9891156664183225</v>
       </c>
       <c r="D23">
-        <v>0.9668733653737567</v>
+        <v>1.011300682378629</v>
       </c>
       <c r="E23">
-        <v>0.9476423766662417</v>
+        <v>1.009530463637127</v>
       </c>
       <c r="F23">
-        <v>0.9433424084617387</v>
+        <v>1.016538198932901</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.018994594026023</v>
+        <v>1.038252725588209</v>
       </c>
       <c r="J23">
-        <v>0.9685101634353338</v>
+        <v>1.019669678377759</v>
       </c>
       <c r="K23">
-        <v>0.9828021251549947</v>
+        <v>1.026343840931491</v>
       </c>
       <c r="L23">
-        <v>0.963988799749972</v>
+        <v>1.024606961173138</v>
       </c>
       <c r="M23">
-        <v>0.959785326747902</v>
+        <v>1.031483604695846</v>
       </c>
       <c r="N23">
-        <v>0.9672790579369345</v>
+        <v>1.021117726278802</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9562016984657929</v>
+        <v>1.011434612269299</v>
       </c>
       <c r="D24">
-        <v>0.983421164167386</v>
+        <v>1.029333211318677</v>
       </c>
       <c r="E24">
-        <v>0.9674471792767653</v>
+        <v>1.030419710070523</v>
       </c>
       <c r="F24">
-        <v>0.9643729213061047</v>
+        <v>1.036433714670971</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027381391095012</v>
+        <v>1.04613037447568</v>
       </c>
       <c r="J24">
-        <v>0.9854965930887203</v>
+        <v>1.038499491803134</v>
       </c>
       <c r="K24">
-        <v>0.9977458153632314</v>
+        <v>1.042864067091707</v>
       </c>
       <c r="L24">
-        <v>0.9820711373478664</v>
+        <v>1.043932881520493</v>
       </c>
       <c r="M24">
-        <v>0.9790559728329663</v>
+        <v>1.049849859535876</v>
       </c>
       <c r="N24">
-        <v>0.9810687738234644</v>
+        <v>1.039974280199051</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.977731811513968</v>
+        <v>1.034733805994029</v>
       </c>
       <c r="D25">
-        <v>1.000585476144192</v>
+        <v>1.048193324878675</v>
       </c>
       <c r="E25">
-        <v>0.9879791400704051</v>
+        <v>1.05227673680398</v>
       </c>
       <c r="F25">
-        <v>0.98619028087191</v>
+        <v>1.057253736145244</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035985705942791</v>
+        <v>1.054295931633028</v>
       </c>
       <c r="J25">
-        <v>1.00303255241199</v>
+        <v>1.058146229856775</v>
       </c>
       <c r="K25">
-        <v>1.013174710143524</v>
+        <v>1.060086885387677</v>
       </c>
       <c r="L25">
-        <v>1.000766975441874</v>
+        <v>1.06411431991252</v>
       </c>
       <c r="M25">
-        <v>0.9990068258164</v>
+        <v>1.06902382729422</v>
       </c>
       <c r="N25">
-        <v>0.9952109020474977</v>
+        <v>1.059648918874241</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_43/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.051701183480746</v>
+        <v>0.9883416825335835</v>
       </c>
       <c r="D2">
-        <v>1.061942452864318</v>
+        <v>1.009437402714053</v>
       </c>
       <c r="E2">
-        <v>1.068223638904626</v>
+        <v>0.9965981966838695</v>
       </c>
       <c r="F2">
-        <v>1.072443287010213</v>
+        <v>0.9976812039611186</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.060188082103027</v>
+        <v>1.041178147814642</v>
       </c>
       <c r="J2">
-        <v>1.072438305980493</v>
+        <v>1.010876772555088</v>
       </c>
       <c r="K2">
-        <v>1.072601360957369</v>
+        <v>1.020766806807135</v>
       </c>
       <c r="L2">
-        <v>1.078807806736486</v>
+        <v>1.008105128363343</v>
       </c>
       <c r="M2">
-        <v>1.082977853286615</v>
+        <v>1.009172938103579</v>
       </c>
       <c r="N2">
-        <v>1.073961291385378</v>
+        <v>1.007589266302962</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.063259562403286</v>
+        <v>0.9930059260567989</v>
       </c>
       <c r="D3">
-        <v>1.071311762314378</v>
+        <v>1.012928546394138</v>
       </c>
       <c r="E3">
-        <v>1.079100260431582</v>
+        <v>1.000742426822391</v>
       </c>
       <c r="F3">
-        <v>1.082801841644184</v>
+        <v>1.003173100316545</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.064167488857018</v>
+        <v>1.042622601465804</v>
       </c>
       <c r="J3">
-        <v>1.082162628118403</v>
+        <v>1.013689089666126</v>
       </c>
       <c r="K3">
-        <v>1.081106801393178</v>
+        <v>1.023398633992412</v>
       </c>
       <c r="L3">
-        <v>1.088812009963139</v>
+        <v>1.011365816964616</v>
       </c>
       <c r="M3">
-        <v>1.092474520367389</v>
+        <v>1.013765541094922</v>
       </c>
       <c r="N3">
-        <v>1.08369942317612</v>
+        <v>1.008532024111724</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.070432116849624</v>
+        <v>0.9959573627399664</v>
       </c>
       <c r="D4">
-        <v>1.077126040430667</v>
+        <v>1.015137420997663</v>
       </c>
       <c r="E4">
-        <v>1.08585495419938</v>
+        <v>1.003370319059681</v>
       </c>
       <c r="F4">
-        <v>1.089233817263319</v>
+        <v>1.00664738868359</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.066620185892778</v>
+        <v>1.043521346164817</v>
       </c>
       <c r="J4">
-        <v>1.088190983448405</v>
+        <v>1.015465047972006</v>
       </c>
       <c r="K4">
-        <v>1.086374885898534</v>
+        <v>1.025056520110752</v>
       </c>
       <c r="L4">
-        <v>1.09501688845066</v>
+        <v>1.013428236785881</v>
       </c>
       <c r="M4">
-        <v>1.098362562837546</v>
+        <v>1.016666242207847</v>
       </c>
       <c r="N4">
-        <v>1.089736339462152</v>
+        <v>1.009127213561421</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.073379938282152</v>
+        <v>0.9971827978739389</v>
       </c>
       <c r="D5">
-        <v>1.079515490949924</v>
+        <v>1.016054423693205</v>
       </c>
       <c r="E5">
-        <v>1.088632162497354</v>
+        <v>1.004462702793601</v>
       </c>
       <c r="F5">
-        <v>1.091878066296766</v>
+        <v>1.00808974917942</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.067624085537156</v>
+        <v>1.043890789189957</v>
       </c>
       <c r="J5">
-        <v>1.090667004479209</v>
+        <v>1.016201525338919</v>
       </c>
       <c r="K5">
-        <v>1.088537482919528</v>
+        <v>1.025743030463188</v>
       </c>
       <c r="L5">
-        <v>1.097566123802242</v>
+        <v>1.014284307375973</v>
       </c>
       <c r="M5">
-        <v>1.100781114188084</v>
+        <v>1.017869332695065</v>
       </c>
       <c r="N5">
-        <v>1.092215876726824</v>
+        <v>1.009373993571856</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.073871087618762</v>
+        <v>0.9973876707317547</v>
       </c>
       <c r="D6">
-        <v>1.079913594852871</v>
+        <v>1.016207722793754</v>
       </c>
       <c r="E6">
-        <v>1.089094947833567</v>
+        <v>1.0046454060448</v>
       </c>
       <c r="F6">
-        <v>1.09231867865922</v>
+        <v>1.008330880179575</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.067791103811783</v>
+        <v>1.0439523341868</v>
       </c>
       <c r="J6">
-        <v>1.091079451375212</v>
+        <v>1.016324598595328</v>
       </c>
       <c r="K6">
-        <v>1.088897651417377</v>
+        <v>1.025857694090722</v>
       </c>
       <c r="L6">
-        <v>1.097990807986378</v>
+        <v>1.014427413071606</v>
       </c>
       <c r="M6">
-        <v>1.101183996509768</v>
+        <v>1.018070395145094</v>
       </c>
       <c r="N6">
-        <v>1.092628909344727</v>
+        <v>1.009415230650076</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.070471763903901</v>
+        <v>0.9959737965979699</v>
       </c>
       <c r="D7">
-        <v>1.077158178376899</v>
+        <v>1.015149719139848</v>
       </c>
       <c r="E7">
-        <v>1.085892302280173</v>
+        <v>1.00338496358861</v>
       </c>
       <c r="F7">
-        <v>1.089269378427517</v>
+        <v>1.00666673223033</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.066633704458561</v>
+        <v>1.043526315376832</v>
       </c>
       <c r="J7">
-        <v>1.088224291235326</v>
+        <v>1.015474928194632</v>
       </c>
       <c r="K7">
-        <v>1.086403982111051</v>
+        <v>1.025065733994778</v>
       </c>
       <c r="L7">
-        <v>1.095051178321216</v>
+        <v>1.013439718246459</v>
       </c>
       <c r="M7">
-        <v>1.098395096939206</v>
+        <v>1.016682381444143</v>
       </c>
       <c r="N7">
-        <v>1.089769694549951</v>
+        <v>1.009130524408357</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.055674623566633</v>
+        <v>0.9899321590704588</v>
       </c>
       <c r="D8">
-        <v>1.065163206374478</v>
+        <v>1.010627873958807</v>
       </c>
       <c r="E8">
-        <v>1.07196151941516</v>
+        <v>0.9980101717414464</v>
       </c>
       <c r="F8">
-        <v>1.07600331250513</v>
+        <v>0.9995541166197095</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.061559572963576</v>
+        <v>1.041673873253831</v>
       </c>
       <c r="J8">
-        <v>1.075782480983222</v>
+        <v>1.011836494203916</v>
       </c>
       <c r="K8">
-        <v>1.075527328652857</v>
+        <v>1.021665782943123</v>
       </c>
       <c r="L8">
-        <v>1.082247581202997</v>
+        <v>1.009217164149591</v>
       </c>
       <c r="M8">
-        <v>1.086243541295243</v>
+        <v>1.010740131068108</v>
       </c>
       <c r="N8">
-        <v>1.077310215500193</v>
+        <v>1.007911019063401</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.026941868230719</v>
+        <v>0.9787466183696062</v>
       </c>
       <c r="D9">
-        <v>1.041882772000792</v>
+        <v>1.002257073719862</v>
       </c>
       <c r="E9">
-        <v>1.044961663793411</v>
+        <v>0.9881051190217536</v>
       </c>
       <c r="F9">
-        <v>1.050285671722325</v>
+        <v>0.9863764692798446</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051573438776636</v>
+        <v>1.03812455143305</v>
       </c>
       <c r="J9">
-        <v>1.05157784070518</v>
+        <v>1.005072875795076</v>
       </c>
       <c r="K9">
-        <v>1.054331007429842</v>
+        <v>1.015313637313157</v>
       </c>
       <c r="L9">
-        <v>1.05736508212251</v>
+        <v>1.00139417618255</v>
       </c>
       <c r="M9">
-        <v>1.062612377459058</v>
+        <v>0.9996945148654028</v>
       </c>
       <c r="N9">
-        <v>1.053071201856646</v>
+        <v>1.005642958286891</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.005465257230512</v>
+        <v>0.9708833120521912</v>
       </c>
       <c r="D10">
-        <v>1.024506486081546</v>
+        <v>0.9963775567044618</v>
       </c>
       <c r="E10">
-        <v>1.024827936294499</v>
+        <v>0.9811759343575079</v>
       </c>
       <c r="F10">
-        <v>1.031107538589284</v>
+        <v>0.9771028099105531</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044027759074789</v>
+        <v>1.035551550080515</v>
       </c>
       <c r="J10">
-        <v>1.033463703629773</v>
+        <v>1.00030174895885</v>
       </c>
       <c r="K10">
-        <v>1.038446930357775</v>
+        <v>1.010812524958645</v>
       </c>
       <c r="L10">
-        <v>1.038762931766051</v>
+        <v>0.9958935892341584</v>
       </c>
       <c r="M10">
-        <v>1.044936968357473</v>
+        <v>0.9918981639825483</v>
       </c>
       <c r="N10">
-        <v>1.034931340628871</v>
+        <v>1.004042555335464</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9954558652389738</v>
+        <v>0.9673713369348335</v>
       </c>
       <c r="D11">
-        <v>1.016419098938222</v>
+        <v>0.9937538386252946</v>
       </c>
       <c r="E11">
-        <v>1.01545947308738</v>
+        <v>0.9780899093882279</v>
       </c>
       <c r="F11">
-        <v>1.022184677684685</v>
+        <v>0.9729576624386014</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040494697279393</v>
+        <v>1.034384644378664</v>
       </c>
       <c r="J11">
-        <v>1.025018915076715</v>
+        <v>0.9981674516113794</v>
       </c>
       <c r="K11">
-        <v>1.031037878447013</v>
+        <v>1.008794517613949</v>
       </c>
       <c r="L11">
-        <v>1.030095618841201</v>
+        <v>0.9934371941536398</v>
       </c>
       <c r="M11">
-        <v>1.03670000920833</v>
+        <v>0.9884082348319958</v>
       </c>
       <c r="N11">
-        <v>1.026474559507437</v>
+        <v>1.003326576231657</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9916135746868228</v>
+        <v>0.9660497424598534</v>
       </c>
       <c r="D12">
-        <v>1.013316808386408</v>
+        <v>0.9927669351393118</v>
       </c>
       <c r="E12">
-        <v>1.011865880479096</v>
+        <v>0.976929981109031</v>
       </c>
       <c r="F12">
-        <v>1.018762272636898</v>
+        <v>0.9713972208148429</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039136348901619</v>
+        <v>1.033942926984405</v>
       </c>
       <c r="J12">
-        <v>1.021777153331564</v>
+        <v>0.9973638303374102</v>
       </c>
       <c r="K12">
-        <v>1.028193250448963</v>
+        <v>1.008034033725423</v>
       </c>
       <c r="L12">
-        <v>1.026769225898923</v>
+        <v>0.9925129272260251</v>
       </c>
       <c r="M12">
-        <v>1.033538633653452</v>
+        <v>0.9870937163232718</v>
       </c>
       <c r="N12">
-        <v>1.023228194088773</v>
+        <v>1.003056986160568</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9924437192518468</v>
+        <v>0.9663340192629361</v>
       </c>
       <c r="D13">
-        <v>1.013986963253041</v>
+        <v>0.9929791984582993</v>
       </c>
       <c r="E13">
-        <v>1.012642165289271</v>
+        <v>0.9771794200617153</v>
       </c>
       <c r="F13">
-        <v>1.019501563683975</v>
+        <v>0.9717329015314053</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039429915490431</v>
+        <v>1.034038057284958</v>
       </c>
       <c r="J13">
-        <v>1.022477548535893</v>
+        <v>0.9975367105019723</v>
       </c>
       <c r="K13">
-        <v>1.028807861837467</v>
+        <v>1.008197662774591</v>
       </c>
       <c r="L13">
-        <v>1.027487869635665</v>
+        <v>0.992711732870207</v>
       </c>
       <c r="M13">
-        <v>1.034221631831978</v>
+        <v>0.9873765268782609</v>
       </c>
       <c r="N13">
-        <v>1.023929583934628</v>
+        <v>1.003114982225328</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9951409153279001</v>
+        <v>0.9672624482242821</v>
       </c>
       <c r="D14">
-        <v>1.01616475829145</v>
+        <v>0.9936725164521237</v>
       </c>
       <c r="E14">
-        <v>1.015164852368936</v>
+        <v>0.9779943123253699</v>
       </c>
       <c r="F14">
-        <v>1.021904085724188</v>
+        <v>0.9728291069114441</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040383394942721</v>
+        <v>1.034348302829506</v>
       </c>
       <c r="J14">
-        <v>1.024753189581348</v>
+        <v>0.9981012488250248</v>
       </c>
       <c r="K14">
-        <v>1.030804714293358</v>
+        <v>1.00873188153651</v>
       </c>
       <c r="L14">
-        <v>1.029822939944386</v>
+        <v>0.9933610396520278</v>
       </c>
       <c r="M14">
-        <v>1.036440859996558</v>
+        <v>0.9882999541580383</v>
       </c>
       <c r="N14">
-        <v>1.026208456651388</v>
+        <v>1.003304367306023</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9967856641848879</v>
+        <v>0.9678321880597894</v>
       </c>
       <c r="D15">
-        <v>1.017493082641614</v>
+        <v>0.9940980376253467</v>
       </c>
       <c r="E15">
-        <v>1.016703547279414</v>
+        <v>0.9784945625574696</v>
       </c>
       <c r="F15">
-        <v>1.023369524970184</v>
+        <v>0.9735017256295521</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040964560805585</v>
+        <v>1.034538347751609</v>
       </c>
       <c r="J15">
-        <v>1.026140874993823</v>
+        <v>0.9984476239932295</v>
       </c>
       <c r="K15">
-        <v>1.032022338342171</v>
+        <v>1.009059569293731</v>
       </c>
       <c r="L15">
-        <v>1.031246969985258</v>
+        <v>0.9937595083019455</v>
       </c>
       <c r="M15">
-        <v>1.037794227564447</v>
+        <v>0.9888664626003998</v>
       </c>
       <c r="N15">
-        <v>1.027598112736317</v>
+        <v>1.003420564990372</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.006113175519106</v>
+        <v>0.9711140501657497</v>
       </c>
       <c r="D16">
-        <v>1.025030258810202</v>
+        <v>0.9965499903927219</v>
       </c>
       <c r="E16">
-        <v>1.02543470581478</v>
+        <v>0.9813788745550611</v>
       </c>
       <c r="F16">
-        <v>1.031685476410892</v>
+        <v>0.977375072564663</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04425615058758</v>
+        <v>1.035627852768652</v>
       </c>
       <c r="J16">
-        <v>1.034010315905697</v>
+        <v>1.000441906624152</v>
       </c>
       <c r="K16">
-        <v>1.03892643160719</v>
+        <v>1.010944954648956</v>
       </c>
       <c r="L16">
-        <v>1.039324052687712</v>
+        <v>0.9960549864399577</v>
       </c>
       <c r="M16">
-        <v>1.045470204229101</v>
+        <v>0.9921272869130883</v>
       </c>
       <c r="N16">
-        <v>1.035478729156924</v>
+        <v>1.004089572264039</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.011762796347463</v>
+        <v>0.9731433188160798</v>
       </c>
       <c r="D17">
-        <v>1.029598647692383</v>
+        <v>0.9980667556051097</v>
       </c>
       <c r="E17">
-        <v>1.030727234082266</v>
+        <v>0.9831646703952595</v>
       </c>
       <c r="F17">
-        <v>1.036726638127117</v>
+        <v>0.9797691553089237</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046245865149606</v>
+        <v>1.036296903517943</v>
       </c>
       <c r="J17">
-        <v>1.038776333471246</v>
+        <v>1.001674170443845</v>
       </c>
       <c r="K17">
-        <v>1.043106872755644</v>
+        <v>1.012108766720145</v>
       </c>
       <c r="L17">
-        <v>1.044217131398683</v>
+        <v>0.9974744665848833</v>
       </c>
       <c r="M17">
-        <v>1.050119966526981</v>
+        <v>0.9941414531987439</v>
       </c>
       <c r="N17">
-        <v>1.040251515014086</v>
+        <v>1.004502937942739</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.014991023107187</v>
+        <v>0.9743166937165567</v>
       </c>
       <c r="D18">
-        <v>1.032210027578196</v>
+        <v>0.9989439937730132</v>
       </c>
       <c r="E18">
-        <v>1.033752776450344</v>
+        <v>0.9841980870717685</v>
       </c>
       <c r="F18">
-        <v>1.039608562887369</v>
+        <v>0.9811531715012032</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047381269989799</v>
+        <v>1.036682081967376</v>
       </c>
       <c r="J18">
-        <v>1.04149941018745</v>
+        <v>1.002386373877697</v>
       </c>
       <c r="K18">
-        <v>1.045495008618031</v>
+        <v>1.012780980190048</v>
       </c>
       <c r="L18">
-        <v>1.047013261788942</v>
+        <v>0.9982952731784607</v>
       </c>
       <c r="M18">
-        <v>1.052776916400861</v>
+        <v>0.9953053540711781</v>
       </c>
       <c r="N18">
-        <v>1.042978458811568</v>
+        <v>1.004741842092087</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.016080854447453</v>
+        <v>0.9747150724392587</v>
       </c>
       <c r="D19">
-        <v>1.033091766223206</v>
+        <v>0.9992418617562547</v>
       </c>
       <c r="E19">
-        <v>1.034774403113453</v>
+        <v>0.9845490858006152</v>
       </c>
       <c r="F19">
-        <v>1.040581705005913</v>
+        <v>0.9816230171216768</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047764308184372</v>
+        <v>1.036812568415145</v>
       </c>
       <c r="J19">
-        <v>1.042418654858929</v>
+        <v>1.002628121737575</v>
       </c>
       <c r="K19">
-        <v>1.046301119335934</v>
+        <v>1.013009080725677</v>
       </c>
       <c r="L19">
-        <v>1.047957244049038</v>
+        <v>0.9985739526161349</v>
       </c>
       <c r="M19">
-        <v>1.053673885619968</v>
+        <v>0.9957003915505107</v>
       </c>
       <c r="N19">
-        <v>1.04389900891592</v>
+        <v>1.004822933711715</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.011163700634164</v>
+        <v>0.9729266660212853</v>
       </c>
       <c r="D20">
-        <v>1.029114102566679</v>
+        <v>0.9979047977057869</v>
       </c>
       <c r="E20">
-        <v>1.030165860736808</v>
+        <v>0.9829739257799757</v>
       </c>
       <c r="F20">
-        <v>1.03619191797466</v>
+        <v>0.9795135855992503</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046035029697294</v>
+        <v>1.036225647283766</v>
       </c>
       <c r="J20">
-        <v>1.038270961167577</v>
+        <v>1.001542642255297</v>
       </c>
       <c r="K20">
-        <v>1.042663630788968</v>
+        <v>1.011984589041718</v>
       </c>
       <c r="L20">
-        <v>1.043698238060093</v>
+        <v>0.9973229140723112</v>
       </c>
       <c r="M20">
-        <v>1.049626889993162</v>
+        <v>0.993926490009324</v>
       </c>
       <c r="N20">
-        <v>1.039745425023779</v>
+        <v>1.004458817114618</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9943502554966035</v>
+        <v>0.9669895292423847</v>
       </c>
       <c r="D21">
-        <v>1.015526291166438</v>
+        <v>0.9934686975747768</v>
       </c>
       <c r="E21">
-        <v>1.014425271783277</v>
+        <v>0.9777547299547106</v>
       </c>
       <c r="F21">
-        <v>1.021199725895573</v>
+        <v>0.9725068853547958</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040103945525279</v>
+        <v>1.034257174655225</v>
       </c>
       <c r="J21">
-        <v>1.024086104205914</v>
+        <v>0.997935310687589</v>
       </c>
       <c r="K21">
-        <v>1.030219364980485</v>
+        <v>1.008574873043879</v>
       </c>
       <c r="L21">
-        <v>1.029138411363077</v>
+        <v>0.993170167602593</v>
       </c>
       <c r="M21">
-        <v>1.035790294035894</v>
+        <v>0.9880285393690849</v>
       </c>
       <c r="N21">
-        <v>1.025540423938204</v>
+        <v>1.003248700293779</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9830471595855226</v>
+        <v>0.9631571800231259</v>
       </c>
       <c r="D22">
-        <v>1.006405050059958</v>
+        <v>0.9906078072408521</v>
       </c>
       <c r="E22">
-        <v>1.003859424580033</v>
+        <v>0.9743938613645515</v>
       </c>
       <c r="F22">
-        <v>1.011137863423154</v>
+        <v>0.9679807303857336</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036104413356833</v>
+        <v>1.0329714386159</v>
       </c>
       <c r="J22">
-        <v>1.014549894053776</v>
+        <v>0.9956041534842092</v>
       </c>
       <c r="K22">
-        <v>1.021850680627779</v>
+        <v>1.006367650026572</v>
       </c>
       <c r="L22">
-        <v>1.019354811280063</v>
+        <v>0.9904902392869528</v>
       </c>
       <c r="M22">
-        <v>1.026491859653679</v>
+        <v>0.984214348127082</v>
       </c>
       <c r="N22">
-        <v>1.015990671273832</v>
+        <v>1.002466666399936</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9891156664183225</v>
+        <v>0.9651985611825906</v>
       </c>
       <c r="D23">
-        <v>1.011300682378629</v>
+        <v>0.9921314470723543</v>
       </c>
       <c r="E23">
-        <v>1.009530463637127</v>
+        <v>0.976183318046666</v>
       </c>
       <c r="F23">
-        <v>1.016538198932901</v>
+        <v>0.9703920342583757</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038252725588209</v>
+        <v>1.033657712401895</v>
       </c>
       <c r="J23">
-        <v>1.019669678377759</v>
+        <v>0.9968461286611454</v>
       </c>
       <c r="K23">
-        <v>1.026343840931491</v>
+        <v>1.007543942147313</v>
       </c>
       <c r="L23">
-        <v>1.024606961173138</v>
+        <v>0.9919176826535476</v>
       </c>
       <c r="M23">
-        <v>1.031483604695846</v>
+        <v>0.9862467431623716</v>
       </c>
       <c r="N23">
-        <v>1.021117726278802</v>
+        <v>1.002883312646931</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.011434612269299</v>
+        <v>0.9730245937364985</v>
       </c>
       <c r="D24">
-        <v>1.029333211318677</v>
+        <v>0.9979780025322825</v>
       </c>
       <c r="E24">
-        <v>1.030419710070523</v>
+        <v>0.9830601403691499</v>
       </c>
       <c r="F24">
-        <v>1.036433714670971</v>
+        <v>0.9796291048120831</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04613037447568</v>
+        <v>1.036257860543409</v>
       </c>
       <c r="J24">
-        <v>1.038499491803134</v>
+        <v>1.001602094397391</v>
       </c>
       <c r="K24">
-        <v>1.042864067091707</v>
+        <v>1.01204072000272</v>
       </c>
       <c r="L24">
-        <v>1.043932881520493</v>
+        <v>0.9973914161843975</v>
       </c>
       <c r="M24">
-        <v>1.049849859535876</v>
+        <v>0.9940236563146146</v>
       </c>
       <c r="N24">
-        <v>1.039974280199051</v>
+        <v>1.004478760218132</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.034733805994029</v>
+        <v>0.9817065646061274</v>
       </c>
       <c r="D25">
-        <v>1.048193324878675</v>
+        <v>1.004471632501877</v>
       </c>
       <c r="E25">
-        <v>1.05227673680398</v>
+        <v>0.9907205961966389</v>
       </c>
       <c r="F25">
-        <v>1.057253736145244</v>
+        <v>0.9898650003168552</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.054295931633028</v>
+        <v>1.039077406375729</v>
       </c>
       <c r="J25">
-        <v>1.058146229856775</v>
+        <v>1.006865658706371</v>
       </c>
       <c r="K25">
-        <v>1.060086885387677</v>
+        <v>1.017000926479225</v>
       </c>
       <c r="L25">
-        <v>1.06411431991252</v>
+        <v>1.003464691453243</v>
       </c>
       <c r="M25">
-        <v>1.06902382729422</v>
+        <v>1.002622713332585</v>
       </c>
       <c r="N25">
-        <v>1.059648918874241</v>
+        <v>1.006244238108894</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_43/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9883416825335835</v>
+        <v>1.019624042182269</v>
       </c>
       <c r="D2">
-        <v>1.009437402714053</v>
+        <v>1.025740588271574</v>
       </c>
       <c r="E2">
-        <v>0.9965981966838695</v>
+        <v>1.023240541836242</v>
       </c>
       <c r="F2">
-        <v>0.9976812039611186</v>
+        <v>1.030978082333441</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041178147814642</v>
+        <v>1.029812577073279</v>
       </c>
       <c r="J2">
-        <v>1.010876772555088</v>
+        <v>1.024825755802575</v>
       </c>
       <c r="K2">
-        <v>1.020766806807135</v>
+        <v>1.028565274147346</v>
       </c>
       <c r="L2">
-        <v>1.008105128363343</v>
+        <v>1.026072560940633</v>
       </c>
       <c r="M2">
-        <v>1.009172938103579</v>
+        <v>1.03378753074492</v>
       </c>
       <c r="N2">
-        <v>1.007589266302962</v>
+        <v>1.012348173130203</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9930059260567989</v>
+        <v>1.020590418791168</v>
       </c>
       <c r="D3">
-        <v>1.012928546394138</v>
+        <v>1.026466847552044</v>
       </c>
       <c r="E3">
-        <v>1.000742426822391</v>
+        <v>1.02415380733719</v>
       </c>
       <c r="F3">
-        <v>1.003173100316545</v>
+        <v>1.032174922221027</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042622601465804</v>
+        <v>1.030019213324944</v>
       </c>
       <c r="J3">
-        <v>1.013689089666126</v>
+        <v>1.025428879622925</v>
       </c>
       <c r="K3">
-        <v>1.023398633992412</v>
+        <v>1.029099120466812</v>
       </c>
       <c r="L3">
-        <v>1.011365816964616</v>
+        <v>1.026792373047591</v>
       </c>
       <c r="M3">
-        <v>1.013765541094922</v>
+        <v>1.034791796450857</v>
       </c>
       <c r="N3">
-        <v>1.008532024111724</v>
+        <v>1.012548980625058</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9959573627399664</v>
+        <v>1.021215791608395</v>
       </c>
       <c r="D4">
-        <v>1.015137420997663</v>
+        <v>1.026936415182208</v>
       </c>
       <c r="E4">
-        <v>1.003370319059681</v>
+        <v>1.024745180147674</v>
       </c>
       <c r="F4">
-        <v>1.00664738868359</v>
+        <v>1.032949382534049</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043521346164817</v>
+        <v>1.03015105958008</v>
       </c>
       <c r="J4">
-        <v>1.015465047972006</v>
+        <v>1.025818630847728</v>
       </c>
       <c r="K4">
-        <v>1.025056520110752</v>
+        <v>1.029443518935331</v>
       </c>
       <c r="L4">
-        <v>1.013428236785881</v>
+        <v>1.027257944345747</v>
       </c>
       <c r="M4">
-        <v>1.016666242207847</v>
+        <v>1.035441086489644</v>
       </c>
       <c r="N4">
-        <v>1.009127213561421</v>
+        <v>1.012678698337316</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9971827978739389</v>
+        <v>1.02147871304554</v>
       </c>
       <c r="D5">
-        <v>1.016054423693205</v>
+        <v>1.027133731746426</v>
       </c>
       <c r="E5">
-        <v>1.004462702793601</v>
+        <v>1.024993895284819</v>
       </c>
       <c r="F5">
-        <v>1.00808974917942</v>
+        <v>1.033274972181574</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043890789189957</v>
+        <v>1.030206041744393</v>
       </c>
       <c r="J5">
-        <v>1.016201525338919</v>
+        <v>1.025982359662429</v>
       </c>
       <c r="K5">
-        <v>1.025743030463188</v>
+        <v>1.029588055447174</v>
       </c>
       <c r="L5">
-        <v>1.014284307375973</v>
+        <v>1.027453623225223</v>
       </c>
       <c r="M5">
-        <v>1.017869332695065</v>
+        <v>1.0357139197907</v>
       </c>
       <c r="N5">
-        <v>1.009373993571856</v>
+        <v>1.012733179237172</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9973876707317547</v>
+        <v>1.021522859566312</v>
       </c>
       <c r="D6">
-        <v>1.016207722793754</v>
+        <v>1.027166856780635</v>
       </c>
       <c r="E6">
-        <v>1.0046454060448</v>
+        <v>1.02503566161248</v>
       </c>
       <c r="F6">
-        <v>1.008330880179575</v>
+        <v>1.03332964051582</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.0439523341868</v>
+        <v>1.030215247325614</v>
       </c>
       <c r="J6">
-        <v>1.016324598595328</v>
+        <v>1.026009843248274</v>
       </c>
       <c r="K6">
-        <v>1.025857694090722</v>
+        <v>1.029612309166724</v>
       </c>
       <c r="L6">
-        <v>1.014427413071606</v>
+        <v>1.027486475780789</v>
       </c>
       <c r="M6">
-        <v>1.018070395145094</v>
+        <v>1.035759722192579</v>
       </c>
       <c r="N6">
-        <v>1.009415230650076</v>
+        <v>1.012742323739914</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9959737965979699</v>
+        <v>1.021219304720061</v>
       </c>
       <c r="D7">
-        <v>1.015149719139848</v>
+        <v>1.026939052089306</v>
       </c>
       <c r="E7">
-        <v>1.00338496358861</v>
+        <v>1.024748503091559</v>
       </c>
       <c r="F7">
-        <v>1.00666673223033</v>
+        <v>1.032953733052478</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043526315376832</v>
+        <v>1.030151796007472</v>
       </c>
       <c r="J7">
-        <v>1.015474928194632</v>
+        <v>1.025820819082476</v>
       </c>
       <c r="K7">
-        <v>1.025065733994778</v>
+        <v>1.02944545121693</v>
       </c>
       <c r="L7">
-        <v>1.013439718246459</v>
+        <v>1.027260559203041</v>
       </c>
       <c r="M7">
-        <v>1.016682381444143</v>
+        <v>1.035444732605025</v>
       </c>
       <c r="N7">
-        <v>1.009130524408357</v>
+        <v>1.012679426520017</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9899321590704588</v>
+        <v>1.019950620575569</v>
       </c>
       <c r="D8">
-        <v>1.010627873958807</v>
+        <v>1.025986107196082</v>
       </c>
       <c r="E8">
-        <v>0.9980101717414464</v>
+        <v>1.023549094956981</v>
       </c>
       <c r="F8">
-        <v>0.9995541166197095</v>
+        <v>1.031382555174758</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041673873253831</v>
+        <v>1.029882795887058</v>
       </c>
       <c r="J8">
-        <v>1.011836494203916</v>
+        <v>1.025029689694129</v>
       </c>
       <c r="K8">
-        <v>1.021665782943123</v>
+        <v>1.028745904101144</v>
       </c>
       <c r="L8">
-        <v>1.009217164149591</v>
+        <v>1.026315864916457</v>
       </c>
       <c r="M8">
-        <v>1.010740131068108</v>
+        <v>1.034127038439522</v>
       </c>
       <c r="N8">
-        <v>1.007911019063401</v>
+        <v>1.012416082017542</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9787466183696062</v>
+        <v>1.017715527063516</v>
       </c>
       <c r="D9">
-        <v>1.002257073719862</v>
+        <v>1.024304097700898</v>
       </c>
       <c r="E9">
-        <v>0.9881051190217536</v>
+        <v>1.021438899730204</v>
       </c>
       <c r="F9">
-        <v>0.9863764692798446</v>
+        <v>1.028614102999686</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03812455143305</v>
+        <v>1.029394546826253</v>
       </c>
       <c r="J9">
-        <v>1.005072875795076</v>
+        <v>1.023631730505812</v>
       </c>
       <c r="K9">
-        <v>1.015313637313157</v>
+        <v>1.027505307085685</v>
       </c>
       <c r="L9">
-        <v>1.00139417618255</v>
+        <v>1.024649721003781</v>
       </c>
       <c r="M9">
-        <v>0.9996945148654028</v>
+        <v>1.031800964277688</v>
       </c>
       <c r="N9">
-        <v>1.005642958286891</v>
+        <v>1.011950373029926</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9708833120521912</v>
+        <v>1.016225806302164</v>
       </c>
       <c r="D10">
-        <v>0.9963775567044618</v>
+        <v>1.023180928444738</v>
       </c>
       <c r="E10">
-        <v>0.9811759343575079</v>
+        <v>1.020034369760817</v>
       </c>
       <c r="F10">
-        <v>0.9771028099105531</v>
+        <v>1.026768537883335</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035551550080515</v>
+        <v>1.029059498896121</v>
       </c>
       <c r="J10">
-        <v>1.00030174895885</v>
+        <v>1.022697167950825</v>
       </c>
       <c r="K10">
-        <v>1.010812524958645</v>
+        <v>1.026672962102429</v>
       </c>
       <c r="L10">
-        <v>0.9958935892341584</v>
+        <v>1.023537998589346</v>
       </c>
       <c r="M10">
-        <v>0.9918981639825483</v>
+        <v>1.030247446906113</v>
       </c>
       <c r="N10">
-        <v>1.004042555335464</v>
+        <v>1.011638793627977</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9673713369348335</v>
+        <v>1.015580823396982</v>
       </c>
       <c r="D11">
-        <v>0.9937538386252946</v>
+        <v>1.022694160176556</v>
       </c>
       <c r="E11">
-        <v>0.9780899093882279</v>
+        <v>1.0194267377241</v>
       </c>
       <c r="F11">
-        <v>0.9729576624386014</v>
+        <v>1.025969394213933</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034384644378664</v>
+        <v>1.028912159121052</v>
       </c>
       <c r="J11">
-        <v>0.9981674516113794</v>
+        <v>1.022291882311905</v>
       </c>
       <c r="K11">
-        <v>1.008794517613949</v>
+        <v>1.026311301886118</v>
       </c>
       <c r="L11">
-        <v>0.9934371941536398</v>
+        <v>1.023056388479543</v>
       </c>
       <c r="M11">
-        <v>0.9884082348319958</v>
+        <v>1.029574085600305</v>
       </c>
       <c r="N11">
-        <v>1.003326576231657</v>
+        <v>1.011503615903732</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9660497424598534</v>
+        <v>1.015341259467849</v>
       </c>
       <c r="D12">
-        <v>0.9927669351393118</v>
+        <v>1.022513289143979</v>
       </c>
       <c r="E12">
-        <v>0.976929981109031</v>
+        <v>1.019201117573757</v>
       </c>
       <c r="F12">
-        <v>0.9713972208148429</v>
+        <v>1.025672555405762</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033942926984405</v>
+        <v>1.028857091049554</v>
       </c>
       <c r="J12">
-        <v>0.9973638303374102</v>
+        <v>1.02214124923888</v>
       </c>
       <c r="K12">
-        <v>1.008034033725423</v>
+        <v>1.026176777945998</v>
       </c>
       <c r="L12">
-        <v>0.9925129272260251</v>
+        <v>1.022877463316601</v>
       </c>
       <c r="M12">
-        <v>0.9870937163232718</v>
+        <v>1.029323866658952</v>
       </c>
       <c r="N12">
-        <v>1.003056986160568</v>
+        <v>1.011453365691941</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9663340192629361</v>
+        <v>1.015392646225909</v>
       </c>
       <c r="D13">
-        <v>0.9929791984582993</v>
+        <v>1.02255208946142</v>
       </c>
       <c r="E13">
-        <v>0.9771794200617153</v>
+        <v>1.019249510168321</v>
       </c>
       <c r="F13">
-        <v>0.9717329015314053</v>
+        <v>1.02573622841118</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034038057284958</v>
+        <v>1.028868918697109</v>
       </c>
       <c r="J13">
-        <v>0.9975367105019723</v>
+        <v>1.022173564700343</v>
       </c>
       <c r="K13">
-        <v>1.008197662774591</v>
+        <v>1.026205642253053</v>
       </c>
       <c r="L13">
-        <v>0.992711732870207</v>
+        <v>1.022915844891559</v>
       </c>
       <c r="M13">
-        <v>0.9873765268782609</v>
+        <v>1.029377544124168</v>
       </c>
       <c r="N13">
-        <v>1.003114982225328</v>
+        <v>1.011464146303907</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9672624482242821</v>
+        <v>1.015561020734395</v>
       </c>
       <c r="D14">
-        <v>0.9936725164521237</v>
+        <v>1.022679210614115</v>
       </c>
       <c r="E14">
-        <v>0.9779943123253699</v>
+        <v>1.019408086227758</v>
       </c>
       <c r="F14">
-        <v>0.9728291069114441</v>
+        <v>1.025944857457092</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034348302829506</v>
+        <v>1.028907614101486</v>
       </c>
       <c r="J14">
-        <v>0.9981012488250248</v>
+        <v>1.022279432809025</v>
       </c>
       <c r="K14">
-        <v>1.00873188153651</v>
+        <v>1.026300185912077</v>
       </c>
       <c r="L14">
-        <v>0.9933610396520278</v>
+        <v>1.023041599155574</v>
       </c>
       <c r="M14">
-        <v>0.9882999541580383</v>
+        <v>1.029553404521063</v>
       </c>
       <c r="N14">
-        <v>1.003304367306023</v>
+        <v>1.011499463004108</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9678321880597894</v>
+        <v>1.015664763342558</v>
       </c>
       <c r="D15">
-        <v>0.9940980376253467</v>
+        <v>1.022757525743656</v>
       </c>
       <c r="E15">
-        <v>0.9784945625574696</v>
+        <v>1.019505800978745</v>
       </c>
       <c r="F15">
-        <v>0.9735017256295521</v>
+        <v>1.026073400500039</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034538347751609</v>
+        <v>1.028931410636385</v>
       </c>
       <c r="J15">
-        <v>0.9984476239932295</v>
+        <v>1.022344649470291</v>
       </c>
       <c r="K15">
-        <v>1.009059569293731</v>
+        <v>1.026358412584435</v>
       </c>
       <c r="L15">
-        <v>0.9937595083019455</v>
+        <v>1.023119076050372</v>
       </c>
       <c r="M15">
-        <v>0.9888664626003998</v>
+        <v>1.029661744302928</v>
       </c>
       <c r="N15">
-        <v>1.003420564990372</v>
+        <v>1.011521217600437</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9711140501657497</v>
+        <v>1.016268613296622</v>
       </c>
       <c r="D16">
-        <v>0.9965499903927219</v>
+        <v>1.023213224687445</v>
       </c>
       <c r="E16">
-        <v>0.9813788745550611</v>
+        <v>1.020074707691344</v>
       </c>
       <c r="F16">
-        <v>0.977375072564663</v>
+        <v>1.026821574293862</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035627852768652</v>
+        <v>1.029069229723082</v>
       </c>
       <c r="J16">
-        <v>1.000441906624152</v>
+        <v>1.022724052514717</v>
       </c>
       <c r="K16">
-        <v>1.010944954648956</v>
+        <v>1.026696938017631</v>
       </c>
       <c r="L16">
-        <v>0.9960549864399577</v>
+        <v>1.023569956716332</v>
       </c>
       <c r="M16">
-        <v>0.9921272869130883</v>
+        <v>1.030292121332942</v>
       </c>
       <c r="N16">
-        <v>1.004089572264039</v>
+        <v>1.01164775942514</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9731433188160798</v>
+        <v>1.016647412785172</v>
       </c>
       <c r="D17">
-        <v>0.9980667556051097</v>
+        <v>1.023498958396961</v>
       </c>
       <c r="E17">
-        <v>0.9831646703952595</v>
+        <v>1.020431712429665</v>
       </c>
       <c r="F17">
-        <v>0.9797691553089237</v>
+        <v>1.027290882765021</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036296903517943</v>
+        <v>1.029155074652331</v>
       </c>
       <c r="J17">
-        <v>1.001674170443845</v>
+        <v>1.022961877870968</v>
       </c>
       <c r="K17">
-        <v>1.012108766720145</v>
+        <v>1.026908951924764</v>
       </c>
       <c r="L17">
-        <v>0.9974744665848833</v>
+        <v>1.023852721746368</v>
       </c>
       <c r="M17">
-        <v>0.9941414531987439</v>
+        <v>1.030687358165656</v>
       </c>
       <c r="N17">
-        <v>1.004502937942739</v>
+        <v>1.011727065783177</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9743166937165567</v>
+        <v>1.016868367451271</v>
       </c>
       <c r="D18">
-        <v>0.9989439937730132</v>
+        <v>1.023665580634138</v>
       </c>
       <c r="E18">
-        <v>0.9841980870717685</v>
+        <v>1.020639999197256</v>
       </c>
       <c r="F18">
-        <v>0.9811531715012032</v>
+        <v>1.027564622350145</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036682081967376</v>
+        <v>1.029204928295909</v>
       </c>
       <c r="J18">
-        <v>1.002386373877697</v>
+        <v>1.023100538127476</v>
       </c>
       <c r="K18">
-        <v>1.012780980190048</v>
+        <v>1.027032495475072</v>
       </c>
       <c r="L18">
-        <v>0.9982952731784607</v>
+        <v>1.024017631880369</v>
       </c>
       <c r="M18">
-        <v>0.9953053540711781</v>
+        <v>1.030917827750512</v>
       </c>
       <c r="N18">
-        <v>1.004741842092087</v>
+        <v>1.011773298571817</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9747150724392587</v>
+        <v>1.016943708525645</v>
       </c>
       <c r="D19">
-        <v>0.9992418617562547</v>
+        <v>1.02372238746538</v>
       </c>
       <c r="E19">
-        <v>0.9845490858006152</v>
+        <v>1.020711028397425</v>
       </c>
       <c r="F19">
-        <v>0.9816230171216768</v>
+        <v>1.027657960486909</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036812568415145</v>
+        <v>1.02922189007186</v>
       </c>
       <c r="J19">
-        <v>1.002628121737575</v>
+        <v>1.02314780763297</v>
       </c>
       <c r="K19">
-        <v>1.013009080725677</v>
+        <v>1.027074600167197</v>
       </c>
       <c r="L19">
-        <v>0.9985739526161349</v>
+        <v>1.024073858244235</v>
       </c>
       <c r="M19">
-        <v>0.9957003915505107</v>
+        <v>1.030996400856079</v>
       </c>
       <c r="N19">
-        <v>1.004822933711715</v>
+        <v>1.011789058467633</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9729266660212853</v>
+        <v>1.0166067704262</v>
       </c>
       <c r="D20">
-        <v>0.9979047977057869</v>
+        <v>1.023468306150819</v>
       </c>
       <c r="E20">
-        <v>0.9829739257799757</v>
+        <v>1.020393403823346</v>
       </c>
       <c r="F20">
-        <v>0.9795135855992503</v>
+        <v>1.027240530425503</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036225647283766</v>
+        <v>1.029145886876427</v>
       </c>
       <c r="J20">
-        <v>1.001542642255297</v>
+        <v>1.022936367587348</v>
       </c>
       <c r="K20">
-        <v>1.011984589041718</v>
+        <v>1.026886217307155</v>
       </c>
       <c r="L20">
-        <v>0.9973229140723112</v>
+        <v>1.023822385999609</v>
       </c>
       <c r="M20">
-        <v>0.993926490009324</v>
+        <v>1.030644959760691</v>
       </c>
       <c r="N20">
-        <v>1.004458817114618</v>
+        <v>1.01171855957405</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9669895292423847</v>
+        <v>1.015511438322332</v>
       </c>
       <c r="D21">
-        <v>0.9934686975747768</v>
+        <v>1.022641778353314</v>
       </c>
       <c r="E21">
-        <v>0.9777547299547106</v>
+        <v>1.019361387278377</v>
       </c>
       <c r="F21">
-        <v>0.9725068853547958</v>
+        <v>1.025883421446035</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034257174655225</v>
+        <v>1.028896228639405</v>
       </c>
       <c r="J21">
-        <v>0.997935310687589</v>
+        <v>1.02224825982545</v>
       </c>
       <c r="K21">
-        <v>1.008574873043879</v>
+        <v>1.026272350325755</v>
       </c>
       <c r="L21">
-        <v>0.993170167602593</v>
+        <v>1.023004568587134</v>
       </c>
       <c r="M21">
-        <v>0.9880285393690849</v>
+        <v>1.029501620854521</v>
       </c>
       <c r="N21">
-        <v>1.003248700293779</v>
+        <v>1.011489064196724</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9631571800231259</v>
+        <v>1.014822825750009</v>
       </c>
       <c r="D22">
-        <v>0.9906078072408521</v>
+        <v>1.022121739783</v>
       </c>
       <c r="E22">
-        <v>0.9743938613645515</v>
+        <v>1.0187129889678</v>
       </c>
       <c r="F22">
-        <v>0.9679807303857336</v>
+        <v>1.025030145337022</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0329714386159</v>
+        <v>1.028737294387917</v>
       </c>
       <c r="J22">
-        <v>0.9956041534842092</v>
+        <v>1.021815087359768</v>
       </c>
       <c r="K22">
-        <v>1.006367650026572</v>
+        <v>1.025885304745451</v>
       </c>
       <c r="L22">
-        <v>0.9904902392869528</v>
+        <v>1.02249017938402</v>
       </c>
       <c r="M22">
-        <v>0.984214348127082</v>
+        <v>1.0287821645095</v>
       </c>
       <c r="N22">
-        <v>1.002466666399936</v>
+        <v>1.011344544695329</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9651985611825906</v>
+        <v>1.015187866023146</v>
       </c>
       <c r="D23">
-        <v>0.9921314470723543</v>
+        <v>1.022397456673319</v>
       </c>
       <c r="E23">
-        <v>0.976183318046666</v>
+        <v>1.019056672323724</v>
       </c>
       <c r="F23">
-        <v>0.9703920342583757</v>
+        <v>1.025482484223533</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033657712401895</v>
+        <v>1.028821734529535</v>
       </c>
       <c r="J23">
-        <v>0.9968461286611454</v>
+        <v>1.022044770593631</v>
       </c>
       <c r="K23">
-        <v>1.007543942147313</v>
+        <v>1.026090587436513</v>
       </c>
       <c r="L23">
-        <v>0.9919176826535476</v>
+        <v>1.022762885186878</v>
       </c>
       <c r="M23">
-        <v>0.9862467431623716</v>
+        <v>1.02916361845198</v>
       </c>
       <c r="N23">
-        <v>1.002883312646931</v>
+        <v>1.011421178653348</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9730245937364985</v>
+        <v>1.016625134935997</v>
       </c>
       <c r="D24">
-        <v>0.9979780025322825</v>
+        <v>1.023482156709369</v>
       </c>
       <c r="E24">
-        <v>0.9830601403691499</v>
+        <v>1.020410713673031</v>
       </c>
       <c r="F24">
-        <v>0.9796291048120831</v>
+        <v>1.027263282480294</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036257860543409</v>
+        <v>1.029150039111204</v>
       </c>
       <c r="J24">
-        <v>1.001602094397391</v>
+        <v>1.022947894769455</v>
       </c>
       <c r="K24">
-        <v>1.01204072000272</v>
+        <v>1.026896490474776</v>
       </c>
       <c r="L24">
-        <v>0.9973914161843975</v>
+        <v>1.023836093485474</v>
       </c>
       <c r="M24">
-        <v>0.9940236563146146</v>
+        <v>1.030664117976559</v>
       </c>
       <c r="N24">
-        <v>1.004478760218132</v>
+        <v>1.011722403241872</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9817065646061274</v>
+        <v>1.018293292980563</v>
       </c>
       <c r="D25">
-        <v>1.004471632501877</v>
+        <v>1.024739263739635</v>
       </c>
       <c r="E25">
-        <v>0.9907205961966389</v>
+        <v>1.021984038987519</v>
       </c>
       <c r="F25">
-        <v>0.9898650003168552</v>
+        <v>1.029329798974343</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039077406375729</v>
+        <v>1.029522455592932</v>
       </c>
       <c r="J25">
-        <v>1.006865658706371</v>
+        <v>1.023993594696244</v>
       </c>
       <c r="K25">
-        <v>1.017000926479225</v>
+        <v>1.027826964376182</v>
       </c>
       <c r="L25">
-        <v>1.003464691453243</v>
+        <v>1.025080630478191</v>
       </c>
       <c r="M25">
-        <v>1.002622713332585</v>
+        <v>1.032402802066844</v>
       </c>
       <c r="N25">
-        <v>1.006244238108894</v>
+        <v>1.012070965829686</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_43/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.019624042182269</v>
+        <v>0.988341682533583</v>
       </c>
       <c r="D2">
-        <v>1.025740588271574</v>
+        <v>1.009437402714053</v>
       </c>
       <c r="E2">
-        <v>1.023240541836242</v>
+        <v>0.9965981966838688</v>
       </c>
       <c r="F2">
-        <v>1.030978082333441</v>
+        <v>0.9976812039611183</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029812577073279</v>
+        <v>1.041178147814642</v>
       </c>
       <c r="J2">
-        <v>1.024825755802575</v>
+        <v>1.010876772555088</v>
       </c>
       <c r="K2">
-        <v>1.028565274147346</v>
+        <v>1.020766806807134</v>
       </c>
       <c r="L2">
-        <v>1.026072560940633</v>
+        <v>1.008105128363343</v>
       </c>
       <c r="M2">
-        <v>1.03378753074492</v>
+        <v>1.009172938103579</v>
       </c>
       <c r="N2">
-        <v>1.012348173130203</v>
+        <v>1.007589266302962</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.020590418791168</v>
+        <v>0.9930059260567987</v>
       </c>
       <c r="D3">
-        <v>1.026466847552044</v>
+        <v>1.012928546394137</v>
       </c>
       <c r="E3">
-        <v>1.02415380733719</v>
+        <v>1.000742426822391</v>
       </c>
       <c r="F3">
-        <v>1.032174922221027</v>
+        <v>1.003173100316544</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.030019213324944</v>
+        <v>1.042622601465804</v>
       </c>
       <c r="J3">
-        <v>1.025428879622925</v>
+        <v>1.013689089666125</v>
       </c>
       <c r="K3">
-        <v>1.029099120466812</v>
+        <v>1.023398633992412</v>
       </c>
       <c r="L3">
-        <v>1.026792373047591</v>
+        <v>1.011365816964616</v>
       </c>
       <c r="M3">
-        <v>1.034791796450857</v>
+        <v>1.013765541094922</v>
       </c>
       <c r="N3">
-        <v>1.012548980625058</v>
+        <v>1.008532024111724</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.021215791608395</v>
+        <v>0.9959573627399662</v>
       </c>
       <c r="D4">
-        <v>1.026936415182208</v>
+        <v>1.015137420997663</v>
       </c>
       <c r="E4">
-        <v>1.024745180147674</v>
+        <v>1.003370319059681</v>
       </c>
       <c r="F4">
-        <v>1.032949382534049</v>
+        <v>1.00664738868359</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03015105958008</v>
+        <v>1.043521346164817</v>
       </c>
       <c r="J4">
-        <v>1.025818630847728</v>
+        <v>1.015465047972005</v>
       </c>
       <c r="K4">
-        <v>1.029443518935331</v>
+        <v>1.025056520110752</v>
       </c>
       <c r="L4">
-        <v>1.027257944345747</v>
+        <v>1.013428236785881</v>
       </c>
       <c r="M4">
-        <v>1.035441086489644</v>
+        <v>1.016666242207847</v>
       </c>
       <c r="N4">
-        <v>1.012678698337316</v>
+        <v>1.009127213561421</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02147871304554</v>
+        <v>0.9971827978739393</v>
       </c>
       <c r="D5">
-        <v>1.027133731746426</v>
+        <v>1.016054423693206</v>
       </c>
       <c r="E5">
-        <v>1.024993895284819</v>
+        <v>1.004462702793602</v>
       </c>
       <c r="F5">
-        <v>1.033274972181574</v>
+        <v>1.008089749179421</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030206041744393</v>
+        <v>1.043890789189957</v>
       </c>
       <c r="J5">
-        <v>1.025982359662429</v>
+        <v>1.016201525338919</v>
       </c>
       <c r="K5">
-        <v>1.029588055447174</v>
+        <v>1.025743030463189</v>
       </c>
       <c r="L5">
-        <v>1.027453623225223</v>
+        <v>1.014284307375974</v>
       </c>
       <c r="M5">
-        <v>1.0357139197907</v>
+        <v>1.017869332695065</v>
       </c>
       <c r="N5">
-        <v>1.012733179237172</v>
+        <v>1.009373993571856</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021522859566312</v>
+        <v>0.9973876707317553</v>
       </c>
       <c r="D6">
-        <v>1.027166856780635</v>
+        <v>1.016207722793754</v>
       </c>
       <c r="E6">
-        <v>1.02503566161248</v>
+        <v>1.004645406044801</v>
       </c>
       <c r="F6">
-        <v>1.03332964051582</v>
+        <v>1.008330880179575</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030215247325614</v>
+        <v>1.043952334186801</v>
       </c>
       <c r="J6">
-        <v>1.026009843248274</v>
+        <v>1.016324598595329</v>
       </c>
       <c r="K6">
-        <v>1.029612309166724</v>
+        <v>1.025857694090722</v>
       </c>
       <c r="L6">
-        <v>1.027486475780789</v>
+        <v>1.014427413071606</v>
       </c>
       <c r="M6">
-        <v>1.035759722192579</v>
+        <v>1.018070395145094</v>
       </c>
       <c r="N6">
-        <v>1.012742323739914</v>
+        <v>1.009415230650076</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021219304720061</v>
+        <v>0.9959737965979691</v>
       </c>
       <c r="D7">
-        <v>1.026939052089306</v>
+        <v>1.015149719139847</v>
       </c>
       <c r="E7">
-        <v>1.024748503091559</v>
+        <v>1.00338496358861</v>
       </c>
       <c r="F7">
-        <v>1.032953733052478</v>
+        <v>1.006666732230329</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.030151796007472</v>
+        <v>1.043526315376831</v>
       </c>
       <c r="J7">
-        <v>1.025820819082476</v>
+        <v>1.015474928194632</v>
       </c>
       <c r="K7">
-        <v>1.02944545121693</v>
+        <v>1.025065733994777</v>
       </c>
       <c r="L7">
-        <v>1.027260559203041</v>
+        <v>1.013439718246458</v>
       </c>
       <c r="M7">
-        <v>1.035444732605025</v>
+        <v>1.016682381444143</v>
       </c>
       <c r="N7">
-        <v>1.012679426520017</v>
+        <v>1.009130524408356</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.019950620575569</v>
+        <v>0.9899321590704597</v>
       </c>
       <c r="D8">
-        <v>1.025986107196082</v>
+        <v>1.010627873958809</v>
       </c>
       <c r="E8">
-        <v>1.023549094956981</v>
+        <v>0.9980101717414472</v>
       </c>
       <c r="F8">
-        <v>1.031382555174758</v>
+        <v>0.9995541166197104</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029882795887058</v>
+        <v>1.041673873253831</v>
       </c>
       <c r="J8">
-        <v>1.025029689694129</v>
+        <v>1.011836494203916</v>
       </c>
       <c r="K8">
-        <v>1.028745904101144</v>
+        <v>1.021665782943124</v>
       </c>
       <c r="L8">
-        <v>1.026315864916457</v>
+        <v>1.009217164149592</v>
       </c>
       <c r="M8">
-        <v>1.034127038439522</v>
+        <v>1.010740131068109</v>
       </c>
       <c r="N8">
-        <v>1.012416082017542</v>
+        <v>1.007911019063401</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.017715527063516</v>
+        <v>0.9787466183696061</v>
       </c>
       <c r="D9">
-        <v>1.024304097700898</v>
+        <v>1.002257073719862</v>
       </c>
       <c r="E9">
-        <v>1.021438899730204</v>
+        <v>0.9881051190217536</v>
       </c>
       <c r="F9">
-        <v>1.028614102999686</v>
+        <v>0.9863764692798447</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029394546826253</v>
+        <v>1.03812455143305</v>
       </c>
       <c r="J9">
-        <v>1.023631730505812</v>
+        <v>1.005072875795076</v>
       </c>
       <c r="K9">
-        <v>1.027505307085685</v>
+        <v>1.015313637313157</v>
       </c>
       <c r="L9">
-        <v>1.024649721003781</v>
+        <v>1.00139417618255</v>
       </c>
       <c r="M9">
-        <v>1.031800964277688</v>
+        <v>0.999694514865403</v>
       </c>
       <c r="N9">
-        <v>1.011950373029926</v>
+        <v>1.005642958286891</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.016225806302164</v>
+        <v>0.9708833120521912</v>
       </c>
       <c r="D10">
-        <v>1.023180928444738</v>
+        <v>0.9963775567044622</v>
       </c>
       <c r="E10">
-        <v>1.020034369760817</v>
+        <v>0.9811759343575081</v>
       </c>
       <c r="F10">
-        <v>1.026768537883335</v>
+        <v>0.9771028099105529</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029059498896121</v>
+        <v>1.035551550080515</v>
       </c>
       <c r="J10">
-        <v>1.022697167950825</v>
+        <v>1.00030174895885</v>
       </c>
       <c r="K10">
-        <v>1.026672962102429</v>
+        <v>1.010812524958646</v>
       </c>
       <c r="L10">
-        <v>1.023537998589346</v>
+        <v>0.9958935892341586</v>
       </c>
       <c r="M10">
-        <v>1.030247446906113</v>
+        <v>0.9918981639825479</v>
       </c>
       <c r="N10">
-        <v>1.011638793627977</v>
+        <v>1.004042555335464</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.015580823396982</v>
+        <v>0.9673713369348335</v>
       </c>
       <c r="D11">
-        <v>1.022694160176556</v>
+        <v>0.9937538386252942</v>
       </c>
       <c r="E11">
-        <v>1.0194267377241</v>
+        <v>0.9780899093882282</v>
       </c>
       <c r="F11">
-        <v>1.025969394213933</v>
+        <v>0.9729576624386012</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028912159121052</v>
+        <v>1.034384644378664</v>
       </c>
       <c r="J11">
-        <v>1.022291882311905</v>
+        <v>0.9981674516113794</v>
       </c>
       <c r="K11">
-        <v>1.026311301886118</v>
+        <v>1.008794517613949</v>
       </c>
       <c r="L11">
-        <v>1.023056388479543</v>
+        <v>0.99343719415364</v>
       </c>
       <c r="M11">
-        <v>1.029574085600305</v>
+        <v>0.9884082348319956</v>
       </c>
       <c r="N11">
-        <v>1.011503615903732</v>
+        <v>1.003326576231657</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.015341259467849</v>
+        <v>0.9660497424598525</v>
       </c>
       <c r="D12">
-        <v>1.022513289143979</v>
+        <v>0.9927669351393108</v>
       </c>
       <c r="E12">
-        <v>1.019201117573757</v>
+        <v>0.97692998110903</v>
       </c>
       <c r="F12">
-        <v>1.025672555405762</v>
+        <v>0.9713972208148423</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028857091049554</v>
+        <v>1.033942926984404</v>
       </c>
       <c r="J12">
-        <v>1.02214124923888</v>
+        <v>0.9973638303374092</v>
       </c>
       <c r="K12">
-        <v>1.026176777945998</v>
+        <v>1.008034033725422</v>
       </c>
       <c r="L12">
-        <v>1.022877463316601</v>
+        <v>0.9925129272260242</v>
       </c>
       <c r="M12">
-        <v>1.029323866658952</v>
+        <v>0.987093716323271</v>
       </c>
       <c r="N12">
-        <v>1.011453365691941</v>
+        <v>1.003056986160568</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.015392646225909</v>
+        <v>0.9663340192629355</v>
       </c>
       <c r="D13">
-        <v>1.02255208946142</v>
+        <v>0.9929791984582992</v>
       </c>
       <c r="E13">
-        <v>1.019249510168321</v>
+        <v>0.977179420061715</v>
       </c>
       <c r="F13">
-        <v>1.02573622841118</v>
+        <v>0.971732901531405</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028868918697109</v>
+        <v>1.034038057284957</v>
       </c>
       <c r="J13">
-        <v>1.022173564700343</v>
+        <v>0.997536710501972</v>
       </c>
       <c r="K13">
-        <v>1.026205642253053</v>
+        <v>1.008197662774591</v>
       </c>
       <c r="L13">
-        <v>1.022915844891559</v>
+        <v>0.9927117328702066</v>
       </c>
       <c r="M13">
-        <v>1.029377544124168</v>
+        <v>0.9873765268782605</v>
       </c>
       <c r="N13">
-        <v>1.011464146303907</v>
+        <v>1.003114982225328</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.015561020734395</v>
+        <v>0.9672624482242821</v>
       </c>
       <c r="D14">
-        <v>1.022679210614115</v>
+        <v>0.9936725164521234</v>
       </c>
       <c r="E14">
-        <v>1.019408086227758</v>
+        <v>0.9779943123253698</v>
       </c>
       <c r="F14">
-        <v>1.025944857457092</v>
+        <v>0.972829106911444</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028907614101486</v>
+        <v>1.034348302829506</v>
       </c>
       <c r="J14">
-        <v>1.022279432809025</v>
+        <v>0.9981012488250247</v>
       </c>
       <c r="K14">
-        <v>1.026300185912077</v>
+        <v>1.00873188153651</v>
       </c>
       <c r="L14">
-        <v>1.023041599155574</v>
+        <v>0.9933610396520277</v>
       </c>
       <c r="M14">
-        <v>1.029553404521063</v>
+        <v>0.9882999541580382</v>
       </c>
       <c r="N14">
-        <v>1.011499463004108</v>
+        <v>1.003304367306023</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.015664763342558</v>
+        <v>0.9678321880597894</v>
       </c>
       <c r="D15">
-        <v>1.022757525743656</v>
+        <v>0.9940980376253465</v>
       </c>
       <c r="E15">
-        <v>1.019505800978745</v>
+        <v>0.9784945625574695</v>
       </c>
       <c r="F15">
-        <v>1.026073400500039</v>
+        <v>0.9735017256295516</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028931410636385</v>
+        <v>1.034538347751609</v>
       </c>
       <c r="J15">
-        <v>1.022344649470291</v>
+        <v>0.9984476239932295</v>
       </c>
       <c r="K15">
-        <v>1.026358412584435</v>
+        <v>1.009059569293731</v>
       </c>
       <c r="L15">
-        <v>1.023119076050372</v>
+        <v>0.9937595083019456</v>
       </c>
       <c r="M15">
-        <v>1.029661744302928</v>
+        <v>0.9888664626003993</v>
       </c>
       <c r="N15">
-        <v>1.011521217600437</v>
+        <v>1.003420564990372</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.016268613296622</v>
+        <v>0.9711140501657507</v>
       </c>
       <c r="D16">
-        <v>1.023213224687445</v>
+        <v>0.996549990392723</v>
       </c>
       <c r="E16">
-        <v>1.020074707691344</v>
+        <v>0.9813788745550621</v>
       </c>
       <c r="F16">
-        <v>1.026821574293862</v>
+        <v>0.977375072564664</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029069229723082</v>
+        <v>1.035627852768653</v>
       </c>
       <c r="J16">
-        <v>1.022724052514717</v>
+        <v>1.000441906624153</v>
       </c>
       <c r="K16">
-        <v>1.026696938017631</v>
+        <v>1.010944954648957</v>
       </c>
       <c r="L16">
-        <v>1.023569956716332</v>
+        <v>0.9960549864399589</v>
       </c>
       <c r="M16">
-        <v>1.030292121332942</v>
+        <v>0.9921272869130893</v>
       </c>
       <c r="N16">
-        <v>1.01164775942514</v>
+        <v>1.004089572264039</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.016647412785172</v>
+        <v>0.9731433188160795</v>
       </c>
       <c r="D17">
-        <v>1.023498958396961</v>
+        <v>0.9980667556051097</v>
       </c>
       <c r="E17">
-        <v>1.020431712429665</v>
+        <v>0.9831646703952591</v>
       </c>
       <c r="F17">
-        <v>1.027290882765021</v>
+        <v>0.9797691553089231</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029155074652331</v>
+        <v>1.036296903517942</v>
       </c>
       <c r="J17">
-        <v>1.022961877870968</v>
+        <v>1.001674170443845</v>
       </c>
       <c r="K17">
-        <v>1.026908951924764</v>
+        <v>1.012108766720145</v>
       </c>
       <c r="L17">
-        <v>1.023852721746368</v>
+        <v>0.997474466584883</v>
       </c>
       <c r="M17">
-        <v>1.030687358165656</v>
+        <v>0.9941414531987436</v>
       </c>
       <c r="N17">
-        <v>1.011727065783177</v>
+        <v>1.004502937942738</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.016868367451271</v>
+        <v>0.9743166937165573</v>
       </c>
       <c r="D18">
-        <v>1.023665580634138</v>
+        <v>0.9989439937730142</v>
       </c>
       <c r="E18">
-        <v>1.020639999197256</v>
+        <v>0.9841980870717696</v>
       </c>
       <c r="F18">
-        <v>1.027564622350145</v>
+        <v>0.9811531715012041</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029204928295909</v>
+        <v>1.036682081967376</v>
       </c>
       <c r="J18">
-        <v>1.023100538127476</v>
+        <v>1.002386373877698</v>
       </c>
       <c r="K18">
-        <v>1.027032495475072</v>
+        <v>1.012780980190049</v>
       </c>
       <c r="L18">
-        <v>1.024017631880369</v>
+        <v>0.9982952731784617</v>
       </c>
       <c r="M18">
-        <v>1.030917827750512</v>
+        <v>0.9953053540711789</v>
       </c>
       <c r="N18">
-        <v>1.011773298571817</v>
+        <v>1.004741842092087</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.016943708525645</v>
+        <v>0.9747150724392578</v>
       </c>
       <c r="D19">
-        <v>1.02372238746538</v>
+        <v>0.9992418617562541</v>
       </c>
       <c r="E19">
-        <v>1.020711028397425</v>
+        <v>0.9845490858006145</v>
       </c>
       <c r="F19">
-        <v>1.027657960486909</v>
+        <v>0.9816230171216758</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02922189007186</v>
+        <v>1.036812568415145</v>
       </c>
       <c r="J19">
-        <v>1.02314780763297</v>
+        <v>1.002628121737574</v>
       </c>
       <c r="K19">
-        <v>1.027074600167197</v>
+        <v>1.013009080725676</v>
       </c>
       <c r="L19">
-        <v>1.024073858244235</v>
+        <v>0.9985739526161342</v>
       </c>
       <c r="M19">
-        <v>1.030996400856079</v>
+        <v>0.9957003915505097</v>
       </c>
       <c r="N19">
-        <v>1.011789058467633</v>
+        <v>1.004822933711715</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.0166067704262</v>
+        <v>0.9729266660212869</v>
       </c>
       <c r="D20">
-        <v>1.023468306150819</v>
+        <v>0.9979047977057883</v>
       </c>
       <c r="E20">
-        <v>1.020393403823346</v>
+        <v>0.9829739257799776</v>
       </c>
       <c r="F20">
-        <v>1.027240530425503</v>
+        <v>0.9795135855992515</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029145886876427</v>
+        <v>1.036225647283767</v>
       </c>
       <c r="J20">
-        <v>1.022936367587348</v>
+        <v>1.001542642255298</v>
       </c>
       <c r="K20">
-        <v>1.026886217307155</v>
+        <v>1.011984589041719</v>
       </c>
       <c r="L20">
-        <v>1.023822385999609</v>
+        <v>0.997322914072313</v>
       </c>
       <c r="M20">
-        <v>1.030644959760691</v>
+        <v>0.9939264900093253</v>
       </c>
       <c r="N20">
-        <v>1.01171855957405</v>
+        <v>1.004458817114619</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.015511438322332</v>
+        <v>0.9669895292423839</v>
       </c>
       <c r="D21">
-        <v>1.022641778353314</v>
+        <v>0.9934686975747763</v>
       </c>
       <c r="E21">
-        <v>1.019361387278377</v>
+        <v>0.9777547299547097</v>
       </c>
       <c r="F21">
-        <v>1.025883421446035</v>
+        <v>0.972506885354795</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028896228639405</v>
+        <v>1.034257174655225</v>
       </c>
       <c r="J21">
-        <v>1.02224825982545</v>
+        <v>0.9979353106875882</v>
       </c>
       <c r="K21">
-        <v>1.026272350325755</v>
+        <v>1.008574873043878</v>
       </c>
       <c r="L21">
-        <v>1.023004568587134</v>
+        <v>0.993170167602592</v>
       </c>
       <c r="M21">
-        <v>1.029501620854521</v>
+        <v>0.9880285393690841</v>
       </c>
       <c r="N21">
-        <v>1.011489064196724</v>
+        <v>1.003248700293779</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.014822825750009</v>
+        <v>0.9631571800231268</v>
       </c>
       <c r="D22">
-        <v>1.022121739783</v>
+        <v>0.9906078072408527</v>
       </c>
       <c r="E22">
-        <v>1.0187129889678</v>
+        <v>0.9743938613645521</v>
       </c>
       <c r="F22">
-        <v>1.025030145337022</v>
+        <v>0.9679807303857351</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028737294387917</v>
+        <v>1.0329714386159</v>
       </c>
       <c r="J22">
-        <v>1.021815087359768</v>
+        <v>0.9956041534842098</v>
       </c>
       <c r="K22">
-        <v>1.025885304745451</v>
+        <v>1.006367650026573</v>
       </c>
       <c r="L22">
-        <v>1.02249017938402</v>
+        <v>0.9904902392869535</v>
       </c>
       <c r="M22">
-        <v>1.0287821645095</v>
+        <v>0.9842143481270833</v>
       </c>
       <c r="N22">
-        <v>1.011344544695329</v>
+        <v>1.002466666399937</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.015187866023146</v>
+        <v>0.9651985611825906</v>
       </c>
       <c r="D23">
-        <v>1.022397456673319</v>
+        <v>0.9921314470723546</v>
       </c>
       <c r="E23">
-        <v>1.019056672323724</v>
+        <v>0.9761833180466659</v>
       </c>
       <c r="F23">
-        <v>1.025482484223533</v>
+        <v>0.9703920342583757</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028821734529535</v>
+        <v>1.033657712401895</v>
       </c>
       <c r="J23">
-        <v>1.022044770593631</v>
+        <v>0.9968461286611454</v>
       </c>
       <c r="K23">
-        <v>1.026090587436513</v>
+        <v>1.007543942147314</v>
       </c>
       <c r="L23">
-        <v>1.022762885186878</v>
+        <v>0.9919176826535476</v>
       </c>
       <c r="M23">
-        <v>1.02916361845198</v>
+        <v>0.9862467431623715</v>
       </c>
       <c r="N23">
-        <v>1.011421178653348</v>
+        <v>1.002883312646931</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.016625134935997</v>
+        <v>0.9730245937365</v>
       </c>
       <c r="D24">
-        <v>1.023482156709369</v>
+        <v>0.9979780025322837</v>
       </c>
       <c r="E24">
-        <v>1.020410713673031</v>
+        <v>0.9830601403691512</v>
       </c>
       <c r="F24">
-        <v>1.027263282480294</v>
+        <v>0.9796291048120842</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029150039111204</v>
+        <v>1.036257860543409</v>
       </c>
       <c r="J24">
-        <v>1.022947894769455</v>
+        <v>1.001602094397392</v>
       </c>
       <c r="K24">
-        <v>1.026896490474776</v>
+        <v>1.012040720002721</v>
       </c>
       <c r="L24">
-        <v>1.023836093485474</v>
+        <v>0.9973914161843989</v>
       </c>
       <c r="M24">
-        <v>1.030664117976559</v>
+        <v>0.9940236563146159</v>
       </c>
       <c r="N24">
-        <v>1.011722403241872</v>
+        <v>1.004478760218132</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.018293292980563</v>
+        <v>0.981706564606128</v>
       </c>
       <c r="D25">
-        <v>1.024739263739635</v>
+        <v>1.004471632501877</v>
       </c>
       <c r="E25">
-        <v>1.021984038987519</v>
+        <v>0.9907205961966395</v>
       </c>
       <c r="F25">
-        <v>1.029329798974343</v>
+        <v>0.9898650003168562</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029522455592932</v>
+        <v>1.039077406375729</v>
       </c>
       <c r="J25">
-        <v>1.023993594696244</v>
+        <v>1.006865658706372</v>
       </c>
       <c r="K25">
-        <v>1.027826964376182</v>
+        <v>1.017000926479225</v>
       </c>
       <c r="L25">
-        <v>1.025080630478191</v>
+        <v>1.003464691453244</v>
       </c>
       <c r="M25">
-        <v>1.032402802066844</v>
+        <v>1.002622713332586</v>
       </c>
       <c r="N25">
-        <v>1.012070965829686</v>
+        <v>1.006244238108895</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_43/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.988341682533583</v>
+        <v>1.022228599860783</v>
       </c>
       <c r="D2">
-        <v>1.009437402714053</v>
+        <v>1.03929006345452</v>
       </c>
       <c r="E2">
-        <v>0.9965981966838688</v>
+        <v>1.040097400971458</v>
       </c>
       <c r="F2">
-        <v>0.9976812039611183</v>
+        <v>1.04713019151617</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041178147814642</v>
+        <v>1.052199819524991</v>
       </c>
       <c r="J2">
-        <v>1.010876772555088</v>
+        <v>1.043764192478093</v>
       </c>
       <c r="K2">
-        <v>1.020766806807134</v>
+        <v>1.050227873866542</v>
       </c>
       <c r="L2">
-        <v>1.008105128363343</v>
+        <v>1.051025010778837</v>
       </c>
       <c r="M2">
-        <v>1.009172938103579</v>
+        <v>1.057969771676084</v>
       </c>
       <c r="N2">
-        <v>1.007589266302962</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.017559275285705</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.054451444074463</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.046585699719486</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9930059260567987</v>
+        <v>1.026956222395126</v>
       </c>
       <c r="D3">
-        <v>1.012928546394137</v>
+        <v>1.042468256157517</v>
       </c>
       <c r="E3">
-        <v>1.000742426822391</v>
+        <v>1.044081425840526</v>
       </c>
       <c r="F3">
-        <v>1.003173100316544</v>
+        <v>1.050556659542951</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042622601465804</v>
+        <v>1.053190239783495</v>
       </c>
       <c r="J3">
-        <v>1.013689089666125</v>
+        <v>1.046738066578355</v>
       </c>
       <c r="K3">
-        <v>1.023398633992412</v>
+        <v>1.0525851213219</v>
       </c>
       <c r="L3">
-        <v>1.011365816964616</v>
+        <v>1.054179712402466</v>
       </c>
       <c r="M3">
-        <v>1.013765541094922</v>
+        <v>1.060581079774785</v>
       </c>
       <c r="N3">
-        <v>1.008532024111724</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.0186363064858</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.056518077534856</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.048249809800282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9959573627399662</v>
+        <v>1.029955581239533</v>
       </c>
       <c r="D4">
-        <v>1.015137420997663</v>
+        <v>1.04448780010427</v>
       </c>
       <c r="E4">
-        <v>1.003370319059681</v>
+        <v>1.046614774334539</v>
       </c>
       <c r="F4">
-        <v>1.00664738868359</v>
+        <v>1.052736287345502</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043521346164817</v>
+        <v>1.053808628457537</v>
       </c>
       <c r="J4">
-        <v>1.015465047972005</v>
+        <v>1.048622865639322</v>
       </c>
       <c r="K4">
-        <v>1.025056520110752</v>
+        <v>1.054077383981988</v>
       </c>
       <c r="L4">
-        <v>1.013428236785881</v>
+        <v>1.056181359663426</v>
       </c>
       <c r="M4">
-        <v>1.016666242207847</v>
+        <v>1.0622373168985</v>
       </c>
       <c r="N4">
-        <v>1.009127213561421</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.01931803234576</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.057828848747396</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.049305829822708</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9971827978739393</v>
+        <v>1.031208226977391</v>
       </c>
       <c r="D5">
-        <v>1.016054423693206</v>
+        <v>1.045334100716581</v>
       </c>
       <c r="E5">
-        <v>1.004462702793602</v>
+        <v>1.047674728393905</v>
       </c>
       <c r="F5">
-        <v>1.008089749179421</v>
+        <v>1.053648590600437</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043890789189957</v>
+        <v>1.054066394814257</v>
       </c>
       <c r="J5">
-        <v>1.016201525338919</v>
+        <v>1.049411448764742</v>
       </c>
       <c r="K5">
-        <v>1.025743030463189</v>
+        <v>1.054702846451703</v>
       </c>
       <c r="L5">
-        <v>1.014284307375974</v>
+        <v>1.05701884801636</v>
       </c>
       <c r="M5">
-        <v>1.017869332695065</v>
+        <v>1.062930463650564</v>
       </c>
       <c r="N5">
-        <v>1.009373993571856</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.019603933712781</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.058377414948357</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.049755152164575</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9973876707317553</v>
+        <v>1.031424460055694</v>
       </c>
       <c r="D6">
-        <v>1.016207722793754</v>
+        <v>1.045482841542463</v>
       </c>
       <c r="E6">
-        <v>1.004645406044801</v>
+        <v>1.047858494653154</v>
       </c>
       <c r="F6">
-        <v>1.008330880179575</v>
+        <v>1.053806970568297</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043952334186801</v>
+        <v>1.054113111839924</v>
       </c>
       <c r="J6">
-        <v>1.016324598595329</v>
+        <v>1.049549876690887</v>
       </c>
       <c r="K6">
-        <v>1.025857694090722</v>
+        <v>1.054814483968217</v>
       </c>
       <c r="L6">
-        <v>1.014427413071606</v>
+        <v>1.057165258570287</v>
       </c>
       <c r="M6">
-        <v>1.018070395145094</v>
+        <v>1.063052040669109</v>
       </c>
       <c r="N6">
-        <v>1.009415230650076</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.019655197070394</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.058473632690136</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.049842717918226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9959737965979691</v>
+        <v>1.02999050356184</v>
       </c>
       <c r="D7">
-        <v>1.015149719139847</v>
+        <v>1.044518406456974</v>
       </c>
       <c r="E7">
-        <v>1.00338496358861</v>
+        <v>1.046646252475306</v>
       </c>
       <c r="F7">
-        <v>1.006666732230329</v>
+        <v>1.052763918205583</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043526315376831</v>
+        <v>1.053822216495564</v>
       </c>
       <c r="J7">
-        <v>1.015474928194632</v>
+        <v>1.048651141020973</v>
       </c>
       <c r="K7">
-        <v>1.025065733994777</v>
+        <v>1.054104827269361</v>
       </c>
       <c r="L7">
-        <v>1.013439718246458</v>
+        <v>1.056209674627129</v>
       </c>
       <c r="M7">
-        <v>1.016682381444143</v>
+        <v>1.062261852032495</v>
       </c>
       <c r="N7">
-        <v>1.009130524408356</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.019331262947345</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.057848266208192</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.049345090287142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9899321590704597</v>
+        <v>1.02386214166295</v>
       </c>
       <c r="D8">
-        <v>1.010627873958809</v>
+        <v>1.040396345440244</v>
       </c>
       <c r="E8">
-        <v>0.9980101717414472</v>
+        <v>1.041475270596824</v>
       </c>
       <c r="F8">
-        <v>0.9995541166197104</v>
+        <v>1.048315712294546</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041673873253831</v>
+        <v>1.052552152851403</v>
       </c>
       <c r="J8">
-        <v>1.011836494203916</v>
+        <v>1.044800092562351</v>
       </c>
       <c r="K8">
-        <v>1.021665782943124</v>
+        <v>1.051055572896929</v>
       </c>
       <c r="L8">
-        <v>1.009217164149592</v>
+        <v>1.05212127883276</v>
       </c>
       <c r="M8">
-        <v>1.010740131068109</v>
+        <v>1.058878695943633</v>
       </c>
       <c r="N8">
-        <v>1.007911019063401</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.017938564732375</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.055170782772519</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.047193591076424</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9787466183696061</v>
+        <v>1.012551394180258</v>
       </c>
       <c r="D9">
-        <v>1.002257073719862</v>
+        <v>1.032805319932297</v>
       </c>
       <c r="E9">
-        <v>0.9881051190217536</v>
+        <v>1.031976269107723</v>
       </c>
       <c r="F9">
-        <v>0.9863764692798447</v>
+        <v>1.040150905182087</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03812455143305</v>
+        <v>1.050120283750738</v>
       </c>
       <c r="J9">
-        <v>1.005072875795076</v>
+        <v>1.037668584912438</v>
       </c>
       <c r="K9">
-        <v>1.015313637313157</v>
+        <v>1.045387667092274</v>
       </c>
       <c r="L9">
-        <v>1.00139417618255</v>
+        <v>1.044571014394762</v>
       </c>
       <c r="M9">
-        <v>0.999694514865403</v>
+        <v>1.05262449809365</v>
       </c>
       <c r="N9">
-        <v>1.005642958286891</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.015347802549467</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.050221086406108</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.043182927728567</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9708833120521912</v>
+        <v>1.004761976894171</v>
       </c>
       <c r="D10">
-        <v>0.9963775567044622</v>
+        <v>1.027625701252727</v>
       </c>
       <c r="E10">
-        <v>0.9811759343575081</v>
+        <v>1.025495843887572</v>
       </c>
       <c r="F10">
-        <v>0.9771028099105529</v>
+        <v>1.034619202390441</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035551550080515</v>
+        <v>1.048427077267299</v>
       </c>
       <c r="J10">
-        <v>1.00030174895885</v>
+        <v>1.032787926476981</v>
       </c>
       <c r="K10">
-        <v>1.010812524958646</v>
+        <v>1.041513458299321</v>
       </c>
       <c r="L10">
-        <v>0.9958935892341586</v>
+        <v>1.039419531955136</v>
       </c>
       <c r="M10">
-        <v>0.9918981639825479</v>
+        <v>1.048390317007431</v>
       </c>
       <c r="N10">
-        <v>1.004042555335464</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.013586958343189</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.046920969602252</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.040460334468479</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9673713369348335</v>
+        <v>1.002188767415487</v>
       </c>
       <c r="D11">
-        <v>0.9937538386252942</v>
+        <v>1.026117677231413</v>
       </c>
       <c r="E11">
-        <v>0.9780899093882282</v>
+        <v>1.023570524766668</v>
       </c>
       <c r="F11">
-        <v>0.9729576624386012</v>
+        <v>1.033238937790147</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034384644378664</v>
+        <v>1.048099037991655</v>
       </c>
       <c r="J11">
-        <v>0.9981674516113794</v>
+        <v>1.031470773735907</v>
       </c>
       <c r="K11">
-        <v>1.008794517613949</v>
+        <v>1.04056330631624</v>
       </c>
       <c r="L11">
-        <v>0.99343719415364</v>
+        <v>1.038061216363472</v>
       </c>
       <c r="M11">
-        <v>0.9884082348319956</v>
+        <v>1.047560107688944</v>
       </c>
       <c r="N11">
-        <v>1.003326576231657</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.013243041351449</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.046696069424738</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.03982117022395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9660497424598525</v>
+        <v>1.001561758830029</v>
       </c>
       <c r="D12">
-        <v>0.9927669351393108</v>
+        <v>1.02584962998163</v>
       </c>
       <c r="E12">
-        <v>0.97692998110903</v>
+        <v>1.023205674833213</v>
       </c>
       <c r="F12">
-        <v>0.9713972208148423</v>
+        <v>1.033122975975186</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033942926984404</v>
+        <v>1.048140398287404</v>
       </c>
       <c r="J12">
-        <v>0.9973638303374092</v>
+        <v>1.031300168973834</v>
       </c>
       <c r="K12">
-        <v>1.008034033725422</v>
+        <v>1.040497801071678</v>
       </c>
       <c r="L12">
-        <v>0.9925129272260242</v>
+        <v>1.037901397502711</v>
       </c>
       <c r="M12">
-        <v>0.987093716323271</v>
+        <v>1.047641963534615</v>
       </c>
       <c r="N12">
-        <v>1.003056986160568</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.013287197123272</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.047084417545673</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.039774856460066</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9663340192629355</v>
+        <v>1.002418057381792</v>
       </c>
       <c r="D13">
-        <v>0.9929791984582992</v>
+        <v>1.026544456292602</v>
       </c>
       <c r="E13">
-        <v>0.977179420061715</v>
+        <v>1.024043752965269</v>
       </c>
       <c r="F13">
-        <v>0.971732901531405</v>
+        <v>1.034001495688163</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034038057284957</v>
+        <v>1.048486987223276</v>
       </c>
       <c r="J13">
-        <v>0.997536710501972</v>
+        <v>1.032028183980381</v>
       </c>
       <c r="K13">
-        <v>1.008197662774591</v>
+        <v>1.041137795343612</v>
       </c>
       <c r="L13">
-        <v>0.9927117328702066</v>
+        <v>1.038681830119103</v>
       </c>
       <c r="M13">
-        <v>0.9873765268782605</v>
+        <v>1.048463091090181</v>
       </c>
       <c r="N13">
-        <v>1.003114982225328</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.013646418936816</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.0480081927361</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.040224872019953</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9672624482242821</v>
+        <v>1.003689507114549</v>
       </c>
       <c r="D14">
-        <v>0.9936725164521234</v>
+        <v>1.027468044241523</v>
       </c>
       <c r="E14">
-        <v>0.9779943123253698</v>
+        <v>1.025175447502952</v>
       </c>
       <c r="F14">
-        <v>0.972829106911444</v>
+        <v>1.035067222662059</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034348302829506</v>
+        <v>1.048867919338177</v>
       </c>
       <c r="J14">
-        <v>0.9981012488250247</v>
+        <v>1.032945035650005</v>
       </c>
       <c r="K14">
-        <v>1.00873188153651</v>
+        <v>1.041906216001113</v>
       </c>
       <c r="L14">
-        <v>0.9933610396520277</v>
+        <v>1.039654079688</v>
       </c>
       <c r="M14">
-        <v>0.9882999541580382</v>
+        <v>1.049372939619531</v>
       </c>
       <c r="N14">
-        <v>1.003304367306023</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.014040757946672</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.048899530463337</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.04076957815778</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9678321880597894</v>
+        <v>1.004330148555305</v>
       </c>
       <c r="D15">
-        <v>0.9940980376253465</v>
+        <v>1.027912144474302</v>
       </c>
       <c r="E15">
-        <v>0.9784945625574695</v>
+        <v>1.0257237873091</v>
       </c>
       <c r="F15">
-        <v>0.9735017256295516</v>
+        <v>1.035557234022788</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034538347751609</v>
+        <v>1.049032417799316</v>
       </c>
       <c r="J15">
-        <v>0.9984476239932295</v>
+        <v>1.033373885427795</v>
       </c>
       <c r="K15">
-        <v>1.009059569293731</v>
+        <v>1.042257086164435</v>
       </c>
       <c r="L15">
-        <v>0.9937595083019456</v>
+        <v>1.040107038654675</v>
       </c>
       <c r="M15">
-        <v>0.9888664626003993</v>
+        <v>1.049769982100258</v>
       </c>
       <c r="N15">
-        <v>1.003420564990372</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.014209887242548</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.049250649056616</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.041023478275683</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9711140501657507</v>
+        <v>1.007470920090492</v>
       </c>
       <c r="D16">
-        <v>0.996549990392723</v>
+        <v>1.029978826546642</v>
       </c>
       <c r="E16">
-        <v>0.9813788745550621</v>
+        <v>1.02831615249544</v>
       </c>
       <c r="F16">
-        <v>0.977375072564664</v>
+        <v>1.037755764570594</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035627852768653</v>
+        <v>1.049699740148844</v>
       </c>
       <c r="J16">
-        <v>1.000441906624153</v>
+        <v>1.035315381896202</v>
       </c>
       <c r="K16">
-        <v>1.010944954648957</v>
+        <v>1.043791956186897</v>
       </c>
       <c r="L16">
-        <v>0.9960549864399589</v>
+        <v>1.042157068970874</v>
       </c>
       <c r="M16">
-        <v>0.9921272869130893</v>
+        <v>1.051440444688927</v>
       </c>
       <c r="N16">
-        <v>1.004089572264039</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.014891040386144</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.050532542977469</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.042111806679995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9731433188160795</v>
+        <v>1.009214458271952</v>
       </c>
       <c r="D17">
-        <v>0.9980667556051097</v>
+        <v>1.031080970849335</v>
       </c>
       <c r="E17">
-        <v>0.9831646703952591</v>
+        <v>1.029711994988956</v>
       </c>
       <c r="F17">
-        <v>0.9797691553089231</v>
+        <v>1.038880578074937</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036296903517942</v>
+        <v>1.050009366578482</v>
       </c>
       <c r="J17">
-        <v>1.001674170443845</v>
+        <v>1.036323086345376</v>
       </c>
       <c r="K17">
-        <v>1.012108766720145</v>
+        <v>1.044565134240292</v>
       </c>
       <c r="L17">
-        <v>0.997474466584883</v>
+        <v>1.043218377010774</v>
       </c>
       <c r="M17">
-        <v>0.9941414531987436</v>
+        <v>1.052239584378113</v>
       </c>
       <c r="N17">
-        <v>1.004502937942738</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.015206472208775</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.051036162073246</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.042661027061126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9743166937165573</v>
+        <v>1.009899045678621</v>
       </c>
       <c r="D18">
-        <v>0.9989439937730142</v>
+        <v>1.031429090445678</v>
       </c>
       <c r="E18">
-        <v>0.9841980870717696</v>
+        <v>1.030177344018205</v>
       </c>
       <c r="F18">
-        <v>0.9811531715012041</v>
+        <v>1.039144555209998</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036682081967376</v>
+        <v>1.050026134693505</v>
       </c>
       <c r="J18">
-        <v>1.002386373877698</v>
+        <v>1.036593225595177</v>
       </c>
       <c r="K18">
-        <v>1.012780980190049</v>
+        <v>1.044726506973074</v>
       </c>
       <c r="L18">
-        <v>0.9982952731784617</v>
+        <v>1.043494743528796</v>
       </c>
       <c r="M18">
-        <v>0.9953053540711789</v>
+        <v>1.05232016073208</v>
       </c>
       <c r="N18">
-        <v>1.004741842092087</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.015222642266963</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.050864253485358</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.042763584034933</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9747150724392578</v>
+        <v>1.009666871730488</v>
       </c>
       <c r="D19">
-        <v>0.9992418617562541</v>
+        <v>1.031137167692799</v>
       </c>
       <c r="E19">
-        <v>0.9845490858006145</v>
+        <v>1.029837261264376</v>
       </c>
       <c r="F19">
-        <v>0.9816230171216758</v>
+        <v>1.038662154228818</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036812568415145</v>
+        <v>1.049803723060707</v>
       </c>
       <c r="J19">
-        <v>1.002628121737574</v>
+        <v>1.036237062859401</v>
       </c>
       <c r="K19">
-        <v>1.013009080725676</v>
+        <v>1.044377457247211</v>
       </c>
       <c r="L19">
-        <v>0.9985739526161342</v>
+        <v>1.043098208423303</v>
       </c>
       <c r="M19">
-        <v>0.9957003915505097</v>
+        <v>1.051784158415529</v>
       </c>
       <c r="N19">
-        <v>1.004822933711715</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.014995320390227</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.050118148865953</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.042523140746746</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9729266660212869</v>
+        <v>1.006837282051708</v>
       </c>
       <c r="D20">
-        <v>0.9979047977057883</v>
+        <v>1.029023311780296</v>
       </c>
       <c r="E20">
-        <v>0.9829739257799776</v>
+        <v>1.027226557592561</v>
       </c>
       <c r="F20">
-        <v>0.9795135855992515</v>
+        <v>1.036099245608678</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036225647283767</v>
+        <v>1.048899842571054</v>
       </c>
       <c r="J20">
-        <v>1.001542642255298</v>
+        <v>1.034107158646158</v>
       </c>
       <c r="K20">
-        <v>1.011984589041719</v>
+        <v>1.042574322630094</v>
       </c>
       <c r="L20">
-        <v>0.997322914072313</v>
+        <v>1.040806979040412</v>
       </c>
       <c r="M20">
-        <v>0.9939264900093253</v>
+        <v>1.049535704582427</v>
       </c>
       <c r="N20">
-        <v>1.004458817114619</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.014073006846586</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.047816971259431</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.041252175527234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9669895292423839</v>
+        <v>1.000801610965765</v>
       </c>
       <c r="D21">
-        <v>0.9934686975747763</v>
+        <v>1.024979458307873</v>
       </c>
       <c r="E21">
-        <v>0.9777547299547097</v>
+        <v>1.022177909881328</v>
       </c>
       <c r="F21">
-        <v>0.972506885354795</v>
+        <v>1.031741235048521</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034257174655225</v>
+        <v>1.047524296677622</v>
       </c>
       <c r="J21">
-        <v>0.9979353106875882</v>
+        <v>1.030265855345071</v>
       </c>
       <c r="K21">
-        <v>1.008574873043878</v>
+        <v>1.039502552850221</v>
       </c>
       <c r="L21">
-        <v>0.993170167602592</v>
+        <v>1.036750953890716</v>
       </c>
       <c r="M21">
-        <v>0.9880285393690841</v>
+        <v>1.046145219546815</v>
       </c>
       <c r="N21">
-        <v>1.003248700293779</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.01266152244152</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.045093222092503</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.039083570010156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9631571800231268</v>
+        <v>0.9969502403576268</v>
       </c>
       <c r="D22">
-        <v>0.9906078072408527</v>
+        <v>1.022409457505475</v>
       </c>
       <c r="E22">
-        <v>0.9743938613645521</v>
+        <v>1.018975524314098</v>
       </c>
       <c r="F22">
-        <v>0.9679807303857351</v>
+        <v>1.028994363044592</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0329714386159</v>
+        <v>1.046644273648093</v>
       </c>
       <c r="J22">
-        <v>0.9956041534842098</v>
+        <v>1.027824876413437</v>
       </c>
       <c r="K22">
-        <v>1.006367650026573</v>
+        <v>1.037549677483085</v>
       </c>
       <c r="L22">
-        <v>0.9904902392869535</v>
+        <v>1.034180217515301</v>
       </c>
       <c r="M22">
-        <v>0.9842143481270833</v>
+        <v>1.044012517424321</v>
       </c>
       <c r="N22">
-        <v>1.002466666399937</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.011767343885996</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.043405340075089</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.037689393250279</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9651985611825906</v>
+        <v>0.9989817741542901</v>
       </c>
       <c r="D23">
-        <v>0.9921314470723546</v>
+        <v>1.023757820871338</v>
       </c>
       <c r="E23">
-        <v>0.9761833180466659</v>
+        <v>1.020661816169496</v>
       </c>
       <c r="F23">
-        <v>0.9703920342583757</v>
+        <v>1.030440150895533</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033657712401895</v>
+        <v>1.047103275305861</v>
       </c>
       <c r="J23">
-        <v>0.9968461286611454</v>
+        <v>1.029106392162199</v>
       </c>
       <c r="K23">
-        <v>1.007543942147314</v>
+        <v>1.038570613415611</v>
       </c>
       <c r="L23">
-        <v>0.9919176826535476</v>
+        <v>1.035531178255952</v>
       </c>
       <c r="M23">
-        <v>0.9862467431623715</v>
+        <v>1.045132350091139</v>
       </c>
       <c r="N23">
-        <v>1.002883312646931</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.012233410520796</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.04429160845624</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.038401643926597</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9730245937365</v>
+        <v>1.006824274199561</v>
       </c>
       <c r="D24">
-        <v>0.9979780025322837</v>
+        <v>1.028986338791274</v>
       </c>
       <c r="E24">
-        <v>0.9830601403691512</v>
+        <v>1.027192583141414</v>
       </c>
       <c r="F24">
-        <v>0.9796291048120842</v>
+        <v>1.036043774918042</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036257860543409</v>
+        <v>1.048865569444748</v>
       </c>
       <c r="J24">
-        <v>1.001602094397392</v>
+        <v>1.034062136570704</v>
       </c>
       <c r="K24">
-        <v>1.012040720002721</v>
+        <v>1.042522850517468</v>
       </c>
       <c r="L24">
-        <v>0.9973914161843989</v>
+        <v>1.040758421433505</v>
       </c>
       <c r="M24">
-        <v>0.9940236563146159</v>
+        <v>1.049466167056607</v>
       </c>
       <c r="N24">
-        <v>1.004478760218132</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.014040102862423</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.047721508076474</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.04118857404811</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.981706564606128</v>
+        <v>1.015566725641742</v>
       </c>
       <c r="D25">
-        <v>1.004471632501877</v>
+        <v>1.034836547831872</v>
       </c>
       <c r="E25">
-        <v>0.9907205961966395</v>
+        <v>1.034505950722765</v>
       </c>
       <c r="F25">
-        <v>0.9898650003168562</v>
+        <v>1.042325117129322</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039077406375729</v>
+        <v>1.050787679351203</v>
       </c>
       <c r="J25">
-        <v>1.006865658706372</v>
+        <v>1.039581328914155</v>
       </c>
       <c r="K25">
-        <v>1.017000926479225</v>
+        <v>1.046917112117904</v>
       </c>
       <c r="L25">
-        <v>1.003464691453244</v>
+        <v>1.046591221055749</v>
       </c>
       <c r="M25">
-        <v>1.002622713332586</v>
+        <v>1.054300091309399</v>
       </c>
       <c r="N25">
-        <v>1.006244238108895</v>
+        <v>1.016048722285124</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.051547187342661</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.044292649815088</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_43/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.022228599860783</v>
+        <v>1.020573766355528</v>
       </c>
       <c r="D2">
-        <v>1.03929006345452</v>
+        <v>1.037192993262352</v>
       </c>
       <c r="E2">
-        <v>1.040097400971458</v>
+        <v>1.038483538054035</v>
       </c>
       <c r="F2">
-        <v>1.04713019151617</v>
+        <v>1.045599461859217</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.052199819524991</v>
+        <v>1.051384385621897</v>
       </c>
       <c r="J2">
-        <v>1.043764192478093</v>
+        <v>1.042156062489514</v>
       </c>
       <c r="K2">
-        <v>1.050227873866542</v>
+        <v>1.048157392536062</v>
       </c>
       <c r="L2">
-        <v>1.051025010778837</v>
+        <v>1.049431558578931</v>
       </c>
       <c r="M2">
-        <v>1.057969771676084</v>
+        <v>1.0564580765798</v>
       </c>
       <c r="N2">
-        <v>1.017559275285705</v>
+        <v>1.017755595336137</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.054451444074463</v>
+        <v>1.053255060397602</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.046585699719486</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.045130404046485</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02457831597479</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.026956222395126</v>
+        <v>1.024982944379537</v>
       </c>
       <c r="D3">
-        <v>1.042468256157517</v>
+        <v>1.040049128291632</v>
       </c>
       <c r="E3">
-        <v>1.044081425840526</v>
+        <v>1.042166001260415</v>
       </c>
       <c r="F3">
-        <v>1.050556659542951</v>
+        <v>1.048764189919206</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.053190239783495</v>
+        <v>1.052224586820436</v>
       </c>
       <c r="J3">
-        <v>1.046738066578355</v>
+        <v>1.044814967554339</v>
       </c>
       <c r="K3">
-        <v>1.0525851213219</v>
+        <v>1.050193987642215</v>
       </c>
       <c r="L3">
-        <v>1.054179712402466</v>
+        <v>1.052286355346545</v>
       </c>
       <c r="M3">
-        <v>1.060581079774785</v>
+        <v>1.058808945184608</v>
       </c>
       <c r="N3">
-        <v>1.0186363064858</v>
+        <v>1.018514460364087</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.056518077534856</v>
+        <v>1.055115580815619</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.048249809800282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.046567511610712</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025042144227352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.029955581239533</v>
+        <v>1.027783370761234</v>
       </c>
       <c r="D4">
-        <v>1.04448780010427</v>
+        <v>1.041866452877684</v>
       </c>
       <c r="E4">
-        <v>1.046614774334539</v>
+        <v>1.044510595780949</v>
       </c>
       <c r="F4">
-        <v>1.052736287345502</v>
+        <v>1.050779873912531</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.053808628457537</v>
+        <v>1.05274865722355</v>
       </c>
       <c r="J4">
-        <v>1.048622865639322</v>
+        <v>1.046502120911247</v>
       </c>
       <c r="K4">
-        <v>1.054077383981988</v>
+        <v>1.051484539405126</v>
       </c>
       <c r="L4">
-        <v>1.056181359663426</v>
+        <v>1.054099932564504</v>
       </c>
       <c r="M4">
-        <v>1.0622373168985</v>
+        <v>1.060301753150656</v>
       </c>
       <c r="N4">
-        <v>1.01931803234576</v>
+        <v>1.018995575046792</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.057828848747396</v>
+        <v>1.056297013981047</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.049305829822708</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.047480989943312</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.02533353321992</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.031208226977391</v>
+        <v>1.028953441995742</v>
       </c>
       <c r="D5">
-        <v>1.045334100716581</v>
+        <v>1.042628686539425</v>
       </c>
       <c r="E5">
-        <v>1.047674728393905</v>
+        <v>1.045492134848515</v>
       </c>
       <c r="F5">
-        <v>1.053648590600437</v>
+        <v>1.051624068594397</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.054066394814257</v>
+        <v>1.05296715706645</v>
       </c>
       <c r="J5">
-        <v>1.049411448764742</v>
+        <v>1.047208475938908</v>
       </c>
       <c r="K5">
-        <v>1.054702846451703</v>
+        <v>1.052026064930069</v>
       </c>
       <c r="L5">
-        <v>1.05701884801636</v>
+        <v>1.054859213637054</v>
       </c>
       <c r="M5">
-        <v>1.062930463650564</v>
+        <v>1.06092694007231</v>
       </c>
       <c r="N5">
-        <v>1.019603933712781</v>
+        <v>1.019197549194944</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.058377414948357</v>
+        <v>1.0567917968123</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.049755152164575</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.047871676544591</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025455864184054</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031424460055694</v>
+        <v>1.029155217736859</v>
       </c>
       <c r="D6">
-        <v>1.045482841542463</v>
+        <v>1.042762821654045</v>
       </c>
       <c r="E6">
-        <v>1.047858494653154</v>
+        <v>1.045662185711002</v>
       </c>
       <c r="F6">
-        <v>1.053806970568297</v>
+        <v>1.051770565541966</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.054113111839924</v>
+        <v>1.053006978883378</v>
       </c>
       <c r="J6">
-        <v>1.049549876690887</v>
+        <v>1.047332507947207</v>
       </c>
       <c r="K6">
-        <v>1.054814483968217</v>
+        <v>1.052123119133895</v>
       </c>
       <c r="L6">
-        <v>1.057165258570287</v>
+        <v>1.054991945172695</v>
       </c>
       <c r="M6">
-        <v>1.063052040669109</v>
+        <v>1.061036660075676</v>
       </c>
       <c r="N6">
-        <v>1.019655197070394</v>
+        <v>1.01923380047326</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.058473632690136</v>
+        <v>1.056878630927616</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.049842717918226</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.04794980281823</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.025478576005999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02999050356184</v>
+        <v>1.027827217073226</v>
       </c>
       <c r="D7">
-        <v>1.044518406456974</v>
+        <v>1.041903283894132</v>
       </c>
       <c r="E7">
-        <v>1.046646252475306</v>
+        <v>1.044550155027268</v>
       </c>
       <c r="F7">
-        <v>1.052763918205583</v>
+        <v>1.050813856239986</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.053822216495564</v>
+        <v>1.052765475591569</v>
       </c>
       <c r="J7">
-        <v>1.048651141020973</v>
+        <v>1.046539084979924</v>
       </c>
       <c r="K7">
-        <v>1.054104827269361</v>
+        <v>1.051518127970686</v>
       </c>
       <c r="L7">
-        <v>1.056209674627129</v>
+        <v>1.054136231843086</v>
       </c>
       <c r="M7">
-        <v>1.062261852032495</v>
+        <v>1.060332563683947</v>
       </c>
       <c r="N7">
-        <v>1.019331262947345</v>
+        <v>1.019035043565388</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.057848266208192</v>
+        <v>1.056321397932569</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.049345090287142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.047526600909602</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.02534445025902</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.02386214166295</v>
+        <v>1.02213264284423</v>
       </c>
       <c r="D8">
-        <v>1.040396345440244</v>
+        <v>1.038214991473601</v>
       </c>
       <c r="E8">
-        <v>1.041475270596824</v>
+        <v>1.039789584933749</v>
       </c>
       <c r="F8">
-        <v>1.048315712294546</v>
+        <v>1.04672062385246</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.052552152851403</v>
+        <v>1.051698883429647</v>
       </c>
       <c r="J8">
-        <v>1.044800092562351</v>
+        <v>1.043117740636499</v>
       </c>
       <c r="K8">
-        <v>1.051055572896929</v>
+        <v>1.048901049788435</v>
       </c>
       <c r="L8">
-        <v>1.05212127883276</v>
+        <v>1.050456261541816</v>
       </c>
       <c r="M8">
-        <v>1.058878695943633</v>
+        <v>1.05730284711969</v>
       </c>
       <c r="N8">
-        <v>1.017938564732375</v>
+        <v>1.018114634183916</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.055170782772519</v>
+        <v>1.053923627782433</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.047193591076424</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.045681143120875</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024754534254232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.012551394180258</v>
+        <v>1.011610349624907</v>
       </c>
       <c r="D9">
-        <v>1.032805319932297</v>
+        <v>1.031412994185581</v>
       </c>
       <c r="E9">
-        <v>1.031976269107723</v>
+        <v>1.031034395829576</v>
       </c>
       <c r="F9">
-        <v>1.040150905182087</v>
+        <v>1.039200500792366</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.050120283750738</v>
+        <v>1.049635636897652</v>
       </c>
       <c r="J9">
-        <v>1.037668584912438</v>
+        <v>1.036759674561369</v>
       </c>
       <c r="K9">
-        <v>1.045387667092274</v>
+        <v>1.04401617749686</v>
       </c>
       <c r="L9">
-        <v>1.044571014394762</v>
+        <v>1.043643257249754</v>
       </c>
       <c r="M9">
-        <v>1.05262449809365</v>
+        <v>1.051688054851017</v>
       </c>
       <c r="N9">
-        <v>1.015347802549467</v>
+        <v>1.016305998470777</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.050221086406108</v>
+        <v>1.049479963819007</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.043182927728567</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.042223857650105</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023626087712846</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.004761976894171</v>
+        <v>1.004430650548416</v>
       </c>
       <c r="D10">
-        <v>1.027625701252727</v>
+        <v>1.026824914218883</v>
       </c>
       <c r="E10">
-        <v>1.025495843887572</v>
+        <v>1.025124705185544</v>
       </c>
       <c r="F10">
-        <v>1.034619202390441</v>
+        <v>1.034160543985075</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.048427077267299</v>
+        <v>1.048219954494773</v>
       </c>
       <c r="J10">
-        <v>1.032787926476981</v>
+        <v>1.032469576185229</v>
       </c>
       <c r="K10">
-        <v>1.041513458299321</v>
+        <v>1.040726158111002</v>
       </c>
       <c r="L10">
-        <v>1.039419531955136</v>
+        <v>1.039054674133029</v>
       </c>
       <c r="M10">
-        <v>1.048390317007431</v>
+        <v>1.04793924620146</v>
       </c>
       <c r="N10">
-        <v>1.013586958343189</v>
+        <v>1.015210978214093</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.046920969602252</v>
+        <v>1.046564002174727</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.040460334468479</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.039916005411988</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022868077414104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.002188767415487</v>
+        <v>1.002076552629801</v>
       </c>
       <c r="D11">
-        <v>1.026117677231413</v>
+        <v>1.025518341075617</v>
       </c>
       <c r="E11">
-        <v>1.023570524766668</v>
+        <v>1.023402752778681</v>
       </c>
       <c r="F11">
-        <v>1.033238937790147</v>
+        <v>1.032953917293005</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.048099037991655</v>
+        <v>1.047977886552057</v>
       </c>
       <c r="J11">
-        <v>1.031470773735907</v>
+        <v>1.031363199018253</v>
       </c>
       <c r="K11">
-        <v>1.04056330631624</v>
+        <v>1.039974547097628</v>
       </c>
       <c r="L11">
-        <v>1.038061216363472</v>
+        <v>1.037896422701979</v>
       </c>
       <c r="M11">
-        <v>1.047560107688944</v>
+        <v>1.047280025871697</v>
       </c>
       <c r="N11">
-        <v>1.013243041351449</v>
+        <v>1.015223596164384</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.046696069424738</v>
+        <v>1.046474528201899</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.03982117022395</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.039420426895483</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022775489637513</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.001561758830029</v>
+        <v>1.00148103445937</v>
       </c>
       <c r="D12">
-        <v>1.02584962998163</v>
+        <v>1.025277761339953</v>
       </c>
       <c r="E12">
-        <v>1.023205674833213</v>
+        <v>1.023066951570375</v>
       </c>
       <c r="F12">
-        <v>1.033122975975186</v>
+        <v>1.032862607596872</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.048140398287404</v>
+        <v>1.048023234861247</v>
       </c>
       <c r="J12">
-        <v>1.031300168973834</v>
+        <v>1.031222846239124</v>
       </c>
       <c r="K12">
-        <v>1.040497801071678</v>
+        <v>1.039936190491973</v>
       </c>
       <c r="L12">
-        <v>1.037901397502711</v>
+        <v>1.037765178002409</v>
       </c>
       <c r="M12">
-        <v>1.047641963534615</v>
+        <v>1.04738617891251</v>
       </c>
       <c r="N12">
-        <v>1.013287197123272</v>
+        <v>1.015359077902581</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.047084417545673</v>
+        <v>1.046882162423155</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.039774856460066</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.039393308398039</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022825710507019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.002418057381792</v>
+        <v>1.002204652382568</v>
       </c>
       <c r="D13">
-        <v>1.026544456292602</v>
+        <v>1.025850900511145</v>
       </c>
       <c r="E13">
-        <v>1.024043752965269</v>
+        <v>1.023781949813662</v>
       </c>
       <c r="F13">
-        <v>1.034001495688163</v>
+        <v>1.033636518179117</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.048486987223276</v>
+        <v>1.048302429754489</v>
       </c>
       <c r="J13">
-        <v>1.032028183980381</v>
+        <v>1.031823718660783</v>
       </c>
       <c r="K13">
-        <v>1.041137795343612</v>
+        <v>1.040456619037151</v>
       </c>
       <c r="L13">
-        <v>1.038681830119103</v>
+        <v>1.038424727100924</v>
       </c>
       <c r="M13">
-        <v>1.048463091090181</v>
+        <v>1.048104504326386</v>
       </c>
       <c r="N13">
-        <v>1.013646418936816</v>
+        <v>1.015567555833035</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.0480081927361</v>
+        <v>1.047724719634682</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.040224872019953</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.039758539018649</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022994450277429</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.003689507114549</v>
+        <v>1.003310486231463</v>
       </c>
       <c r="D14">
-        <v>1.027468044241523</v>
+        <v>1.026623410950057</v>
       </c>
       <c r="E14">
-        <v>1.025175447502952</v>
+        <v>1.024760042393411</v>
       </c>
       <c r="F14">
-        <v>1.035067222662059</v>
+        <v>1.034571934874765</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.048867919338177</v>
+        <v>1.048605132707065</v>
       </c>
       <c r="J14">
-        <v>1.032945035650005</v>
+        <v>1.032581648901265</v>
       </c>
       <c r="K14">
-        <v>1.041906216001113</v>
+        <v>1.041076461788719</v>
       </c>
       <c r="L14">
-        <v>1.039654079688</v>
+        <v>1.039246030902911</v>
       </c>
       <c r="M14">
-        <v>1.049372939619531</v>
+        <v>1.048886208089178</v>
       </c>
       <c r="N14">
-        <v>1.014040757946672</v>
+        <v>1.015748848981003</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.048899530463337</v>
+        <v>1.04851480650896</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.04076957815778</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.040198326958703</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023167325719434</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.004330148555305</v>
+        <v>1.003875793925566</v>
       </c>
       <c r="D15">
-        <v>1.027912144474302</v>
+        <v>1.026998891417767</v>
       </c>
       <c r="E15">
-        <v>1.0257237873091</v>
+        <v>1.025238492921999</v>
       </c>
       <c r="F15">
-        <v>1.035557234022788</v>
+        <v>1.035002724303848</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.049032417799316</v>
+        <v>1.048735547457496</v>
       </c>
       <c r="J15">
-        <v>1.033373885427795</v>
+        <v>1.032938100750041</v>
       </c>
       <c r="K15">
-        <v>1.042257086164435</v>
+        <v>1.041359794917007</v>
       </c>
       <c r="L15">
-        <v>1.040107038654675</v>
+        <v>1.039630268606661</v>
       </c>
       <c r="M15">
-        <v>1.049769982100258</v>
+        <v>1.049224975685071</v>
       </c>
       <c r="N15">
-        <v>1.014209887242548</v>
+        <v>1.015815748046777</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.049250649056616</v>
+        <v>1.04881987446024</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.041023478275683</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.040405043527041</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023239022160854</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.007470920090492</v>
+        <v>1.006699822866389</v>
       </c>
       <c r="D16">
-        <v>1.029978826546642</v>
+        <v>1.02877478745839</v>
       </c>
       <c r="E16">
-        <v>1.02831615249544</v>
+        <v>1.027536510588044</v>
       </c>
       <c r="F16">
-        <v>1.037755764570594</v>
+        <v>1.036951584694882</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.049699740148844</v>
+        <v>1.049266318016882</v>
       </c>
       <c r="J16">
-        <v>1.035315381896202</v>
+        <v>1.034574177529226</v>
       </c>
       <c r="K16">
-        <v>1.043791956186897</v>
+        <v>1.042608027603302</v>
       </c>
       <c r="L16">
-        <v>1.042157068970874</v>
+        <v>1.041390496470097</v>
       </c>
       <c r="M16">
-        <v>1.051440444688927</v>
+        <v>1.050649432393502</v>
       </c>
       <c r="N16">
-        <v>1.014891040386144</v>
+        <v>1.016052374988765</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.050532542977469</v>
+        <v>1.049907306700647</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.042111806679995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.041291006619377</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023514070166072</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.009214458271952</v>
+        <v>1.008301651164262</v>
       </c>
       <c r="D17">
-        <v>1.031080970849335</v>
+        <v>1.029743735876738</v>
       </c>
       <c r="E17">
-        <v>1.029711994988956</v>
+        <v>1.028800169159282</v>
       </c>
       <c r="F17">
-        <v>1.038880578074937</v>
+        <v>1.037963615065582</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.050009366578482</v>
+        <v>1.049517221374574</v>
       </c>
       <c r="J17">
-        <v>1.036323086345376</v>
+        <v>1.035444505205542</v>
       </c>
       <c r="K17">
-        <v>1.044565134240292</v>
+        <v>1.043249601881095</v>
       </c>
       <c r="L17">
-        <v>1.043218377010774</v>
+        <v>1.0423213923698</v>
       </c>
       <c r="M17">
-        <v>1.052239584378113</v>
+        <v>1.051337210461142</v>
       </c>
       <c r="N17">
-        <v>1.015206472208775</v>
+        <v>1.016170182577298</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.051036162073246</v>
+        <v>1.050322832407341</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.042661027061126</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.041747425497975</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023636718951499</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.009899045678621</v>
+        <v>1.008965575607473</v>
       </c>
       <c r="D18">
-        <v>1.031429090445678</v>
+        <v>1.030069671372239</v>
       </c>
       <c r="E18">
-        <v>1.030177344018205</v>
+        <v>1.029245843190503</v>
       </c>
       <c r="F18">
-        <v>1.039144555209998</v>
+        <v>1.038209966136212</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.050026134693505</v>
+        <v>1.049530585438577</v>
       </c>
       <c r="J18">
-        <v>1.036593225595177</v>
+        <v>1.035694101349469</v>
       </c>
       <c r="K18">
-        <v>1.044726506973074</v>
+        <v>1.04338879268622</v>
       </c>
       <c r="L18">
-        <v>1.043494743528796</v>
+        <v>1.042578153707918</v>
       </c>
       <c r="M18">
-        <v>1.05232016073208</v>
+        <v>1.051400203585773</v>
       </c>
       <c r="N18">
-        <v>1.015222642266963</v>
+        <v>1.0161447508907</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.050864253485358</v>
+        <v>1.050136875021786</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.042763584034933</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.041833163839548</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023625787368944</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.009666871730488</v>
+        <v>1.008805031219343</v>
       </c>
       <c r="D19">
-        <v>1.031137167692799</v>
+        <v>1.029842305159927</v>
       </c>
       <c r="E19">
-        <v>1.029837261264376</v>
+        <v>1.028972181588963</v>
       </c>
       <c r="F19">
-        <v>1.038662154228818</v>
+        <v>1.037783206187992</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.049803723060707</v>
+        <v>1.049347266604242</v>
       </c>
       <c r="J19">
-        <v>1.036237062859401</v>
+        <v>1.035406764926696</v>
       </c>
       <c r="K19">
-        <v>1.044377457247211</v>
+        <v>1.043103172034098</v>
       </c>
       <c r="L19">
-        <v>1.043098208423303</v>
+        <v>1.042246913328831</v>
       </c>
       <c r="M19">
-        <v>1.051784158415529</v>
+        <v>1.050918913446736</v>
       </c>
       <c r="N19">
-        <v>1.014995320390227</v>
+        <v>1.015985843171133</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.050118148865953</v>
+        <v>1.049433810149348</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.042523140746746</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.041638193172377</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023506232270716</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.006837282051708</v>
+        <v>1.006304833513416</v>
       </c>
       <c r="D20">
-        <v>1.029023311780296</v>
+        <v>1.028035533861219</v>
       </c>
       <c r="E20">
-        <v>1.027226557592561</v>
+        <v>1.026668292788567</v>
       </c>
       <c r="F20">
-        <v>1.036099245608678</v>
+        <v>1.035481018761662</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.048899842571054</v>
+        <v>1.04860242322027</v>
       </c>
       <c r="J20">
-        <v>1.034107158646158</v>
+        <v>1.033594859345357</v>
       </c>
       <c r="K20">
-        <v>1.042574322630094</v>
+        <v>1.041602697032199</v>
       </c>
       <c r="L20">
-        <v>1.040806979040412</v>
+        <v>1.040257879283796</v>
       </c>
       <c r="M20">
-        <v>1.049535704582427</v>
+        <v>1.048927406102389</v>
       </c>
       <c r="N20">
-        <v>1.014073006846586</v>
+        <v>1.01543404022307</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.047816971259431</v>
+        <v>1.0473355718238</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.041252175527234</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.040581612949618</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023074036666068</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.000801610965765</v>
+        <v>1.000933423678061</v>
       </c>
       <c r="D21">
-        <v>1.024979458307873</v>
+        <v>1.024600328604331</v>
       </c>
       <c r="E21">
-        <v>1.022177909881328</v>
+        <v>1.022236311760502</v>
       </c>
       <c r="F21">
-        <v>1.031741235048521</v>
+        <v>1.031647773317391</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.047524296677622</v>
+        <v>1.047524253021552</v>
       </c>
       <c r="J21">
-        <v>1.030265855345071</v>
+        <v>1.030392170604995</v>
       </c>
       <c r="K21">
-        <v>1.039502552850221</v>
+        <v>1.039130161998637</v>
       </c>
       <c r="L21">
-        <v>1.036750953890716</v>
+        <v>1.036808310880183</v>
       </c>
       <c r="M21">
-        <v>1.046145219546815</v>
+        <v>1.046053390380028</v>
       </c>
       <c r="N21">
-        <v>1.01266152244152</v>
+        <v>1.01494943420829</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.045093222092503</v>
+        <v>1.045020545919629</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.039083570010156</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.038837020217267</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.02250352146317</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9969502403576268</v>
+        <v>0.9975089015931325</v>
       </c>
       <c r="D22">
-        <v>1.022409457505475</v>
+        <v>1.022422125753904</v>
       </c>
       <c r="E22">
-        <v>1.018975524314098</v>
+        <v>1.019429558116015</v>
       </c>
       <c r="F22">
-        <v>1.028994363044592</v>
+        <v>1.029238916546217</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.046644273648093</v>
+        <v>1.046836313997926</v>
       </c>
       <c r="J22">
-        <v>1.027824876413437</v>
+        <v>1.028358822084729</v>
       </c>
       <c r="K22">
-        <v>1.037549677483085</v>
+        <v>1.037562108927529</v>
       </c>
       <c r="L22">
-        <v>1.034180217515301</v>
+        <v>1.034625694129973</v>
       </c>
       <c r="M22">
-        <v>1.044012517424321</v>
+        <v>1.044252576777558</v>
       </c>
       <c r="N22">
-        <v>1.011767343885996</v>
+        <v>1.014639272815185</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.043405340075089</v>
+        <v>1.043595330171131</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.037689393250279</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.03771363835724</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022142260918817</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9989817741542901</v>
+        <v>0.9992944337868284</v>
       </c>
       <c r="D23">
-        <v>1.023757820871338</v>
+        <v>1.023546966860722</v>
       </c>
       <c r="E23">
-        <v>1.020661816169496</v>
+        <v>1.020888099214286</v>
       </c>
       <c r="F23">
-        <v>1.030440150895533</v>
+        <v>1.030490402280882</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.047103275305861</v>
+        <v>1.047184984985047</v>
       </c>
       <c r="J23">
-        <v>1.029106392162199</v>
+        <v>1.02940564179416</v>
       </c>
       <c r="K23">
-        <v>1.038570613415611</v>
+        <v>1.038363597952457</v>
       </c>
       <c r="L23">
-        <v>1.035531178255952</v>
+        <v>1.035753311568372</v>
       </c>
       <c r="M23">
-        <v>1.045132350091139</v>
+        <v>1.04518170230454</v>
       </c>
       <c r="N23">
-        <v>1.012233410520796</v>
+        <v>1.01475004612792</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.04429160845624</v>
+        <v>1.044330667219084</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.038401643926597</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.038269789785932</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022322414826074</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.006824274199561</v>
+        <v>1.006299759225538</v>
       </c>
       <c r="D24">
-        <v>1.028986338791274</v>
+        <v>1.028005365624727</v>
       </c>
       <c r="E24">
-        <v>1.027192583141414</v>
+        <v>1.026641639024697</v>
       </c>
       <c r="F24">
-        <v>1.036043774918042</v>
+        <v>1.035431587333252</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.048865569444748</v>
+        <v>1.048572789355077</v>
       </c>
       <c r="J24">
-        <v>1.034062136570704</v>
+        <v>1.033557443281646</v>
       </c>
       <c r="K24">
-        <v>1.042522850517468</v>
+        <v>1.041557899230882</v>
       </c>
       <c r="L24">
-        <v>1.040758421433505</v>
+        <v>1.040216511294454</v>
       </c>
       <c r="M24">
-        <v>1.049466167056607</v>
+        <v>1.048863799581217</v>
       </c>
       <c r="N24">
-        <v>1.014040102862423</v>
+        <v>1.015408010812923</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.047721508076474</v>
+        <v>1.04724477916772</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.04118857404811</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.040520061286573</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.0230534557208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.015566725641742</v>
+        <v>1.014395822983755</v>
       </c>
       <c r="D25">
-        <v>1.034836547831872</v>
+        <v>1.033219465446141</v>
       </c>
       <c r="E25">
-        <v>1.034505950722765</v>
+        <v>1.033348225055168</v>
       </c>
       <c r="F25">
-        <v>1.042325117129322</v>
+        <v>1.041188659268505</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.050787679351203</v>
+        <v>1.050196897758243</v>
       </c>
       <c r="J25">
-        <v>1.039581328914155</v>
+        <v>1.038448236490557</v>
       </c>
       <c r="K25">
-        <v>1.046917112117904</v>
+        <v>1.045323085158562</v>
       </c>
       <c r="L25">
-        <v>1.046591221055749</v>
+        <v>1.045450005641364</v>
       </c>
       <c r="M25">
-        <v>1.054300091309399</v>
+        <v>1.053179534243581</v>
       </c>
       <c r="N25">
-        <v>1.016048722285124</v>
+        <v>1.016758726302316</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.051547187342661</v>
+        <v>1.050660354354628</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.044292649815088</v>
+        <v>1.043179035788018</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023932545921869</v>
       </c>
     </row>
   </sheetData>
